--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,38 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A26A431-2423-4CE3-A7AD-8B80764E927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D326B1-42DA-4D81-A78A-26FF1A3021B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
     <sheet name="미니게임 5" sheetId="2" r:id="rId2"/>
     <sheet name="미니게임 6" sheetId="3" r:id="rId3"/>
     <sheet name="미니게임 6 생성 규칙" sheetId="4" r:id="rId4"/>
+    <sheet name="미니게임 6 표" sheetId="6" r:id="rId5"/>
+    <sheet name="미니게임 6 UI" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1) 미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,14 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)게임 진행 10초 이후 30초까지 일정한 속도로 감소하며 게임 진행 30초 경과 시 길의 너비는 화면 가로 길이의 40%가 된다(1초당 화면 가로 넓이의 2%씩 감소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)게임 진행 30초 이후 60초까지 일정한 속도로 감소하며 게임 진행 60초 경과 시 길의 너비는 화면 가로 길이의 30%가 된다(3초당 화면 가로 넓이의 1%씩 감소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 4)게임 진행 60초 후 길의 너비는 고정된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,11 +216,385 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 장애물은 항상 화면의 최하단에서 생성되며 생성된 길은 일정한 속도로 화면 위로 상승한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1 장애물 수량 규칙</t>
+    <t xml:space="preserve"> 장애물은 항상 화면의 최하단에서 생성되며 생성된 길은 일정한 속도로 화면 위로 상승한다. 또한 모든 장애물은 길 위에 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1)게임 진행 30초까지는 3초 당 1개씩 장애물이 출현한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2)게임 진행 30초 후 장애물의 출현은 2초당 1개씩으로 고정된다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 장애물 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.아이템 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0 아이템의 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아이템은 항상 화면의 최하단에서 생성되며 생성된 아이템은 일정한 속도로 화면 위로 상승한다. 또한 모든 아이템은 길 위에 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 아이템 수량 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아이템은 확률표에 따라 생성되며, 생성 확률에 대한 계산은 3초에 한 번 이루어진다.(3초에 한 번씩 확률에 따른 계산을 시행, 해당 시행에서 참 값이 나오면 아이템 생성, 아니라면 생성하지 않는다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 아이템 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 시 UI 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행 중 UI 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.재화 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0 재화의 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 재화는 항상 화면의 최하단에서 생성되며 생성된 재화는 일정한 속도로 화면 위로 상승한다. 또한 모든 재화는 길 위에 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 재화 수량 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 재화 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 장애물 수량 규칙(수정 가능성 있음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)재화는 확률표에 따라 생성되며, 생성 확률에 대한 계산은 3초에 한 번 이루어진다.(3초에 한 번씩 확률에 따른 계산을 시행, 해당 시행에서 참 값이 나오면 재화 생성, 아니라면 생성하지 않는다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)아이템과의 생성 충돌을 막기위해, 재화는 게임 시작후 1초 뒤부터 계산을 시작한다.(아이템의 계산보다 1초의 늦게 실행한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>장애물은 항상 길 위에 존재하며, 길의 너비의 1/4, 2/5, 2/4, 3/5, 3/4 지점 중 한 군데에 위치한다.(각 위치에 생성 될 확률은 1/n, 즉 20%이다.)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)아이템은 항상 길 위에 존재하며, 길의 너비의 1/4, 2/5, 2/4, 3/5, 3/4 지점 중 한 군데에 위치한다.(각 위치에 생성 될 확률은 1/n, 즉 20%이다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)만약 아이템을 생성하려는 곳에 이미 장애물이 존재한다면 해당 위치를 제외한 지점 중 한 군데에 재배치한다.(각 위치에 생성 될 확률은 1/n, 즉 25%이다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)재화는 항상 길 위에 존재하며, 길의 너비의 1/4, 2/5, 2/4, 3/5, 3/4 지점 중 한 군데에 위치한다.(각 위치에 생성 될 확률은 1/n, 즉 20%이다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2)만약 재화를 생성하려느 곳에 이미 장애물이 존재한다면 해당 위치를 제외한 지점 중 한 군데에 재배치한다.(각 위치에 생성 될 확률은 1/n, 즉 25%이다.)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.생성된 오브젝트의 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 적용대상 - 길, 장애물, 아이템, 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1이동 속도 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 적용대상의 모든 이동 속도는 통일한다.(길, 장애물, 아이템, 재화의 이동속도는 동일하다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 2) 게임 시작 직후, 이동 속도는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 3) 5초를 주기로, 이동 속도가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>만큼 증가한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 4) 만약 이동속도가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">에 도달했다면, 더 이상 이동 속도는 증가하지 않고 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 유지된다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 뿅망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 특성 : 해당 아이템과 접촉 후, 5초간 캐릭터는 장애물과 닿아도 게임오버되지 않으며, 장애물은 캐릭터와 닿았을 경우 부서지는 이펙트(추가 필요)와 함께 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 길과 관련된 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간(sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길의 폭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 길의 폭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 전체(가로 720px)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30~60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720 - (15 x (t-10)) px ( t는 진행 시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420 - (5 x (t-30)) px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임 진행 10초 이후 30초까지 일정한 속도로 감소하며 게임 진행 30초 경과 시 길의 너비는 420px가 된다(1초당 15px감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)게임 진행 30초 이후 60초까지 일정한 속도로 감소하며 게임 진행 60초 경과 시 길의 너비는 270px가 된다(1초당 5px 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 길의 기울기(생성 위치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0도(수직)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽하강30도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽하강45도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽하강30도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽하강45도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽하강15도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽하강15도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,6 +602,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,27 +691,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -364,6 +708,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -381,6 +746,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC469A6-367A-E1F1-D290-AD25C9C3F818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="220980"/>
+          <a:ext cx="2468880" cy="4389120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>204047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10C2515-59C2-87D1-C32B-CAE225DE97E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="220980"/>
+          <a:ext cx="2476500" cy="4402667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,60 +1159,60 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -773,21 +1243,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -822,7 +1292,7 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -832,7 +1302,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -867,7 +1337,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -912,13 +1382,18 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -930,114 +1405,257 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
-  <dimension ref="B2:C22"/>
+  <dimension ref="B2:C53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6"/>
+      <c r="B2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="7">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>720</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
-        <v>46</v>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
-        <v>41</v>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="9" t="s">
-        <v>42</v>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
-        <v>39</v>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="9" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" s="4" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B52" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B53" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1046,5 +1664,226 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
+  <dimension ref="B2:I21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A993A-8529-4947-B0EF-4BB2CAC8584D}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D326B1-42DA-4D81-A78A-26FF1A3021B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6714E3-8498-40ED-9848-C9130B28A117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="160">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,14 +193,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 1)게임 진행 20초까지는 화면의 중간을 길 너비의 중간점으로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)게임 진행 20초 후 부터 길의 중간점은 매 초마다 일정 확률에 따라 변화한다.(표 생성 예정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)길의 경계선은 화면을 벗어날 수 없으며, 만약 길의 경계선이 화면을 벗어나는 상황이 발생할 시 확률에 따라 도출된 동작은 무시하고 맞닿은 화면으로부터 멀어지는 방향으로 길을 이동시킨다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -502,10 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 길과 관련된 표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시간(sec)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,6 +583,293 @@
   </si>
   <si>
     <t>왼쪽하강15도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임 진행 20초 후 부터 길은 2초에 한 번 확률표에 의한 연산을 거쳐 꺾인다.(표 생성 예정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 에셋 : 점수판, 재화판, 장애물, 캐릭터, 스키(캐릭터 밑에 이어 붙일 예정), 코인(재화), 설정버튼, 뒷배경, 아이템(뿅망치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)길의 경계선은 화면을 벗어날 수 없으며, 만약 길의 경계선이 화면을 벗어나는 상황이 발생할 시 확률에 따라 도출된 동작은 무시하고 맞닿은 화면으로부터 멀어지는 방향의 30도 각도로 길을 생성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1장애물 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간(sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초에 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30~60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2초에 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2장애물 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*지점의 기준은 왼쪽에서 오른쪽 방향이다. (ex.1/4지점 = 왼쪽부터 전체 길이의 1/4만큼 나아간 지점)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1아이템 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*TRUE = 생성, FALSE = 미생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2아이템 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*만약 장애물과 소환 위치가 충돌한다면, 해당 선택지를 제외하고 네가지 선택지에서 다시 계산한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1재화 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2재화 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.오브젝트 이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번째 미니게임 - ___</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 게임의 진행방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.난이도에 따른 수치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD- 길의 폭이 더 빠르게 감소, 최종적으로 유지되는 길의 폭 또한 소량 감소, 시작시점의 속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY- 장애물 수량 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2)게임 진행 30초 후 장애물의 출현은 3초당 1개씩으로 고정된다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1)게임 진행 30초까지는 4초 당 1개씩 장애물이 출현한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD모드 시 변동사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY모드 시 변동사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:변동 사항 있는 곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임 진행 10초 이후 30초까지 일정한 속도로 감소하며 게임 진행 30초 경과 시 길의 너비는 380px가 된다(1초당 17px감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)게임 진행 30초 이후 60초까지 일정한 속도로 감소하며 게임 진행 60초 경과 시 길의 너비는 200px가 된다(1초당 6px 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 2) 게임 시작 직후, 이동 속도는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY모드 변동 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4초에 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD모드 변동 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1길의 폭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720 - (17 x (t-10)) px ( t는 진행 시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>380 - (6 x (t-30)) px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.오브젝트 이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +923,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,8 +936,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -685,13 +966,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +1002,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,13 +1017,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,67 +1465,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B258DF-837D-4076-BBF7-BF5D380622B5}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1228,14 +1541,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1243,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1388,12 +1712,27 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1405,19 +1744,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
-  <dimension ref="B2:C53"/>
+  <dimension ref="B2:M85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -1437,7 +1776,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
@@ -1462,12 +1801,12 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
@@ -1487,92 +1826,92 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
@@ -1580,83 +1919,346 @@
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B49" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B49" s="1" t="s">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B50" t="s">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B51" s="5" t="s">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B52" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B53" s="5" t="s">
-        <v>77</v>
-      </c>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B56" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B59" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B60" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B61" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B62" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B63" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="18"/>
+      <c r="F65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B66" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B67" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B68" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B69" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B70" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B71" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B72" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B73" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B74" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B75" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B76" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B77" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B79" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B81" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B82" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B83" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B84" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B85" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1670,180 +2272,773 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
-  <dimension ref="B2:I21"/>
+  <dimension ref="B2:O99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="9"/>
+      <c r="B15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="10"/>
       <c r="D15" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="9"/>
+      <c r="B16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="9"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="10"/>
       <c r="D17" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="9"/>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="10"/>
       <c r="D18" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="9"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="10"/>
       <c r="D19" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="9"/>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B33" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B34" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B35" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B36" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B38" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B40" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B42" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="3">
+        <v>30</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>70</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B44" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B46" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B48" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B49" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B50" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B51" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B52" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B53" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B54" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B56" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B58" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B60" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B62" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B65" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B66" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B67" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B68" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B69" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B70" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B71" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B72" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B74" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B75" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B76" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B77" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B78" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B81" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B83" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B84" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B85" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B87" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B88" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B89" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B90" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B91" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B93" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B96" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B97" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B98" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B99" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="32">
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -1851,34 +3046,40 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A993A-8529-4947-B0EF-4BB2CAC8584D}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6714E3-8498-40ED-9848-C9130B28A117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6AB1B3-5618-4CE8-A7E7-B5960BB61C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
     <sheet name="미니게임 5" sheetId="2" r:id="rId2"/>
-    <sheet name="미니게임 6" sheetId="3" r:id="rId3"/>
-    <sheet name="미니게임 6 생성 규칙" sheetId="4" r:id="rId4"/>
-    <sheet name="미니게임 6 표" sheetId="6" r:id="rId5"/>
-    <sheet name="미니게임 6 UI" sheetId="5" r:id="rId6"/>
+    <sheet name="미니게임 5 생성 규칙" sheetId="7" r:id="rId3"/>
+    <sheet name="미니게임 6" sheetId="3" r:id="rId4"/>
+    <sheet name="미니게임 6 생성 규칙" sheetId="4" r:id="rId5"/>
+    <sheet name="미니게임 6 표" sheetId="6" r:id="rId6"/>
+    <sheet name="미니게임 6 UI" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="184">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)장애물은 랜덤한 x축에 배치되며, 최하단에서 생성되어 일정한 속도로 상승한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 4)게임 시작 시 길의 경계선은 화면 전체이고, 시간이 지날 수록 길의 폭은 감소하며, 또한 길의 폭의 중간점 또한 계속해서 변화한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +102,6 @@
   </si>
   <si>
     <t>6번째 미니게임 - 스키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)화면 상단에 스키를 신고 있는 캐릭터의 정면 모습이 존재한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -734,10 +727,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5번째 미니게임 - ___</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 게임의 진행방식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -870,6 +859,114 @@
   </si>
   <si>
     <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번째 미니게임 - 참참참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)임의의 캐릭터와 참참참을 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)플레이어의 목숨은 3개 존재하며 제한시간 내에 반응하지 못하거나, 가리키는 방향이 틀렸을 경우 1개씩 깎인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)플레이어는 상대 캐릭터의 손모양을 보고 그 모양에 반대되는 방향을 가리켜야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)제한 시간의 절반 이내에 정답을 맞췄을 경우, 콤보가 1개씩 쌓인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6)이때, 콤보가 쌓이던 중 제한 시간의 절반 이내에 정답을 맞추지 못할 경우, 콤보는 초기화 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 게임오버의 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 플레이어의 목숨이 0이 됐을 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7)만약 콤보가 7의 배수가 될 경우, 목숨을 하나 추가한다. (최대로 가질 수 있는 목숨의 개수는 6개로 한다. 만약, 목숨이 6개인 상태에서 추가 목숨을 갖게 된다면 목숨은 증가하지 않는다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 게임의 모습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)화면 상단에 임의의 캐릭터의 얼굴이 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)화면의 중단에 손모양이 배치되고, 플레이어는 이 손이 가리키는 방향의 반대버튼을 누르면 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)화면 하단의 좌 우에 각각 버튼이 하나씩 존재하고, 플레이어는 해당 버튼을 누르며 게임을 진행한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)화면의 최하단 오른쪽에 설정버튼이 존재하며, 해당 버튼을 누르면 설정창이 나오며, 게임은 일시정지한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)화면 최상단에 설정 버튼, 현재 점수, 현재 진행 중인 게임에서 얻은 재화의 총량이 표기된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -설정 버튼을 누르면, 설정창이 나타나며, 게임은 일시정지된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)장애물, 아이템, 재화는 랜덤한 x축에 배치되며, 최하단에서 생성되어 일정한 속도로 상승한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)화면 상단에 스키를 신고 있는 캐릭터의 모습이 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 점수 환산 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 진행 시간에 따른 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -30p/판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 콤보에 따른 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -(10 x n)p (n은 현재 콤보 수) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 난이도에 따른 수치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY- 각 판의 제한시간 2초 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)매 판마다, 짧은 제한시간이 존재하고, 플레이어는 이 시간 내에 반응해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD- 각 판의 제한시간 1초 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -983,7 +1080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,6 +1102,24 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1016,33 +1131,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,67 +1553,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B258DF-837D-4076-BBF7-BF5D380622B5}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1541,198 +1629,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
-  <dimension ref="A1:A37"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
+      <c r="A11" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>27</v>
+      <c r="A27" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1742,25 +1769,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
-  <dimension ref="B2:M85"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
+  <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="10"/>
+      <c r="B2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3">
         <v>1280</v>
@@ -1768,150 +1795,373 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3">
         <v>720</v>
       </c>
     </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
+  <dimension ref="A1:A38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
+  <dimension ref="B2:M85"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3">
+        <v>720</v>
+      </c>
+    </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
@@ -1919,346 +2169,346 @@
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55" s="18"/>
+        <v>143</v>
+      </c>
+      <c r="E55" s="11"/>
       <c r="F55" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B59" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="B59" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B60" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="B60" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B61" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
+      <c r="B61" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B65" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E65" s="18"/>
+        <v>142</v>
+      </c>
+      <c r="E65" s="11"/>
       <c r="F65" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B66" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B68" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B69" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
+      <c r="B69" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B70" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
+      <c r="B70" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B71" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
+      <c r="B71" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B72" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
+      <c r="B72" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B73" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
+      <c r="B73" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B74" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B75" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B76" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B77" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B79" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B81" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B82" s="11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B81" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B82" s="18" t="s">
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B83" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B84" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B83" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B84" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B85" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
+      <c r="B85" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2270,9 +2520,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
-  <dimension ref="B2:O99"/>
+  <dimension ref="B2:I99"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -2285,418 +2535,388 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="C6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+        <v>85</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="10" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="10"/>
+      <c r="B15" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="10"/>
+      <c r="B16" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="16"/>
       <c r="D16" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="10"/>
+      <c r="B17" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="16"/>
       <c r="D17" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="10"/>
+      <c r="B18" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="16"/>
       <c r="D18" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="10"/>
+      <c r="B19" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="16"/>
       <c r="D19" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="10"/>
+      <c r="B20" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="16"/>
       <c r="D20" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+        <v>105</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+        <v>109</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="C31" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="12" t="s">
-        <v>117</v>
+      <c r="B32" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C32" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B33" s="12" t="s">
-        <v>118</v>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="C33" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B34" s="12" t="s">
-        <v>119</v>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="C34" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B35" s="12" t="s">
-        <v>120</v>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C35" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B36" s="13" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B38" s="14" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B40" s="14" t="s">
+      <c r="C41" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="3" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B41" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B42" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="C42" s="3">
         <v>30</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C43" s="3">
         <v>70</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B44" s="14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B46" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B48" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="C48" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B49" s="12" t="s">
-        <v>117</v>
+      <c r="B49" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C49" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B50" s="12" t="s">
-        <v>118</v>
+      <c r="B50" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="C50" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B51" s="12" t="s">
-        <v>119</v>
+      <c r="B51" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="C51" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B52" s="12" t="s">
-        <v>120</v>
+      <c r="B52" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C52" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B53" s="13" t="s">
-        <v>121</v>
+      <c r="B53" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B56" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B58" s="9" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B56" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B58" s="14" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B60" s="16" t="s">
-        <v>125</v>
+      <c r="B60" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="C60" s="3">
         <v>30</v>
@@ -2711,331 +2931,321 @@
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B62" s="14" t="s">
-        <v>126</v>
+      <c r="B62" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B66" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B66" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="C66" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B67" s="12" t="s">
-        <v>117</v>
+      <c r="B67" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C67" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B68" s="12" t="s">
-        <v>118</v>
+      <c r="B68" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="C68" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B69" s="12" t="s">
-        <v>119</v>
+      <c r="B69" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="C69" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B70" s="12" t="s">
-        <v>120</v>
+      <c r="B70" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C70" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B71" s="13" t="s">
-        <v>121</v>
+      <c r="B71" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B72" s="13" t="s">
-        <v>128</v>
+      <c r="B72" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B75" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B76" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B75" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B77" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B76" s="15" t="s">
+      <c r="C77" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B78" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B77" s="15" t="s">
+      <c r="C78" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B78" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B83" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
+        <v>105</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
+        <v>109</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B89" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B90" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
+      <c r="C90" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B91" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B92" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B93" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
+        <v>85</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B96" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C96" s="10" t="s">
+      <c r="B96" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B97" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B98" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B97" s="15" t="s">
+      <c r="C98" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B99" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B98" s="15" t="s">
+      <c r="C99" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B99" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -3046,12 +3256,22 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3059,7 +3279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A993A-8529-4947-B0EF-4BB2CAC8584D}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -3071,15 +3291,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6AB1B3-5618-4CE8-A7E7-B5960BB61C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7612CDC-6D58-4C48-8405-060541473129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
     <sheet name="미니게임 5" sheetId="2" r:id="rId2"/>
-    <sheet name="미니게임 5 생성 규칙" sheetId="7" r:id="rId3"/>
+    <sheet name="미니게임 5 규칙" sheetId="7" r:id="rId3"/>
     <sheet name="미니게임 6" sheetId="3" r:id="rId4"/>
-    <sheet name="미니게임 6 생성 규칙" sheetId="4" r:id="rId5"/>
+    <sheet name="미니게임 6 규칙" sheetId="4" r:id="rId5"/>
     <sheet name="미니게임 6 표" sheetId="6" r:id="rId6"/>
     <sheet name="미니게임 6 UI" sheetId="5" r:id="rId7"/>
   </sheets>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="227">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 1) 캐릭터가 화면에 표시된 길 경계선에 접촉 2) 캐릭터가 화면에 배치되어 있는 장애물과 접촉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)캐릭터가 스키를 타고 내려가는 방식의 진행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -966,7 +962,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HARD- 각 판의 제한시간 1초 감소</t>
+    <t>1.손모양 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0 손모양 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 손모양 생성 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)판이 시작되기 전, 잠깐의 휴식기간(0.5sec) 동안 손은 중앙에 위치하며 손끝은 정면을 가리킨다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 손은 항상 화면 중단의 왼쪽, 중앙, 오른쪽 중 한 곳에만 위치한다. 또한 손 모양은 오른손으로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)판이 시작되면 손은 확률표에 따라 이동하며, 왼쪽으로 이동 시 손 끝은 왼쪽45도를 가리키며 손바닥이 보이고, 오른쪽으로 이동 시 손 끝은 오른쪽45도를 가리키며 손등이 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)해당 판이 종료되면 다시 휴식기간으로 돌입하며 손은 중앙으로 이동하고 손끝은 정면을 가리킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)캐릭터가 스키를 타고 좌하향, 우하향 방향으로 내려가는 방식의 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.캐릭터의 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)캐릭터는 좌우로만 움직인다.(자이로 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 버튼의 동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0 버튼의 동작 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 플레이어가 버튼을 누르면, 눌러진 버튼은 플레이어의 누르는 동작이 끝날 때 까지, 조금 어둡게, 음각으로 표시된다. 플레이어의 동작이 끝나면 버튼은 원상복귀된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 정답처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0 정답처리 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 플레이어가 제한시간 내에 손모양과 반대되는 방향의 버튼을 눌렀음이 확인되었을 경우, 답을 맞춘 것으로 처리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 정답 시각화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)플레이어가 답을 맞췄음을 확인 했다면, 화면 중앙에 동그라미(O)표시를 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 휴식시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0 휴식시간 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 휴식시간은 0.5초로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 휴식시간 적용 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)게임시작 시 휴식시간을 2번 적용한다.(1초의 휴식)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)매 판이 끝날 때마다, 만약 정답을 맞췄다면 휴식시간을 2번(1초의 휴식), 정답을 맞추지 못했다면 휴식시간을 1번 적용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 목숨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0 목숨의 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 시작 시 목숨의 개수는 3개이며, 최대로 가질 수 있는 목숨의 개수는 6개이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 목숨의 수량 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)만약 플레이어가 제한시간 내에 문제를 풀지 못했거나, 옳지 않은 답을 선택했을 경우 목숨이 하나 감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)플레이어가 답을 골랐음을 확인 했다면, 제한시간은 0.0초로 바뀐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)플레이어가 답을 잘못 골랐음을 확인 했다면, 화면 중앙에 엑스(X)표시를 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)플레이어가 답을 맞췄음을 확인 했다면, 그에 해당하는 점수를 총점에 더한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)플레이어가 답을 잘못 골랐음을 확인 했다면, 목숨 아이콘은 1개 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)만약 플레이어가 7의 배수의 콤보를 쌓았다면, 목숨 하나를 추가한다. 단, 이미 목숨이 6개일 경우 목숨을 추가하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2 목숨이 0이 됐을 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 만약 플레이어의 목숨이 0이 됐을 경우, 화면을 어둡게 만들며 GameOver라는 이미지를 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.제한시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)첫 판의 제한 시간은 10초로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)매 3의 배수의 판마다 제한 시간은 1초씩 감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)만약 제한 시간이 1초에 도달한다면, 제한 시간은 1초로 고정된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD- 각 판의 제한시간 1초 감소(최소 시간 1초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)캐릭터가 길의 경계선에 접촉 시 게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)캐릭터가 장애물에 접촉 시 게임오버(단, 아이템 효과가 적용되는 중에는 무시한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)게임오버 시, 화면이 어둡게 변하며 중앙에 GameOver라는 이미지를 띄운다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1631,135 +1803,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1771,23 +1943,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3">
         <v>1280</v>
@@ -1795,10 +1967,198 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
         <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1807,6 +2167,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1814,15 +2175,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -1832,32 +2193,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
@@ -1877,112 +2238,112 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1994,521 +2355,502 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
-  <dimension ref="B2:M85"/>
+  <dimension ref="B2:AG61"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3">
         <v>1280</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="V3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y3" s="11"/>
+      <c r="Z3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
         <v>720</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="V4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="V5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" s="11"/>
+      <c r="Z13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="V18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="5" t="s">
+      <c r="V19" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V23" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" s="1" t="s">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="V27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B34" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B35" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B37" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B39" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B41" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B26" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B30" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B32" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B34" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B35" s="5" t="s">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B42" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B44" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B37" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B38" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B39" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B40" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B41" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B42" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B43" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B44" s="5" t="s">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B45" s="1" t="s">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B47" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B48" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B50" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="5" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B52" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B52" s="5" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B53" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B53" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B56" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B57" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B59" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B60" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B61" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B62" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B63" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B65" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B66" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B67" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B68" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B69" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B70" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B71" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B72" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B73" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B74" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B75" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B76" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B77" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B79" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B80" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B81" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B82" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B83" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B84" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B85" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>226</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2535,20 +2877,20 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -2559,10 +2901,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -2573,10 +2915,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -2587,10 +2929,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -2601,10 +2943,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>86</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -2615,21 +2957,21 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="3">
@@ -2638,7 +2980,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="3">
@@ -2647,7 +2989,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="3">
@@ -2656,7 +2998,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="3">
@@ -2665,7 +3007,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="3">
@@ -2674,7 +3016,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="3">
@@ -2683,7 +3025,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="3">
@@ -2692,20 +3034,20 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -2714,10 +3056,10 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -2726,10 +3068,10 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -2738,20 +3080,20 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="3">
         <v>20</v>
@@ -2759,7 +3101,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="3">
         <v>20</v>
@@ -2767,7 +3109,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="3">
         <v>20</v>
@@ -2775,7 +3117,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="3">
         <v>20</v>
@@ -2783,7 +3125,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" s="3">
         <v>20</v>
@@ -2791,30 +3133,30 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C42" s="3">
         <v>30</v>
@@ -2830,25 +3172,25 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B44" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B46" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B48" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C48" s="3">
         <v>20</v>
@@ -2856,7 +3198,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B49" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C49" s="3">
         <v>20</v>
@@ -2864,7 +3206,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B50" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" s="3">
         <v>20</v>
@@ -2872,7 +3214,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" s="3">
         <v>20</v>
@@ -2880,7 +3222,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B52" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" s="3">
         <v>20</v>
@@ -2888,35 +3230,35 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B53" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B54" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B56" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B58" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C60" s="3">
         <v>30</v>
@@ -2932,25 +3274,25 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B62" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B66" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" s="3">
         <v>20</v>
@@ -2958,7 +3300,7 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B67" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67" s="3">
         <v>20</v>
@@ -2966,7 +3308,7 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B68" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="3">
         <v>20</v>
@@ -2974,7 +3316,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B69" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" s="3">
         <v>20</v>
@@ -2982,7 +3324,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B70" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C70" s="3">
         <v>20</v>
@@ -2990,25 +3332,25 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B71" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B72" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B74" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B75" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
@@ -3018,10 +3360,10 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B76" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
@@ -3031,10 +3373,10 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B77" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
@@ -3044,10 +3386,10 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B78" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
@@ -3057,20 +3399,20 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B83" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
@@ -3079,10 +3421,10 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -3091,10 +3433,10 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
@@ -3103,20 +3445,20 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B89" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
@@ -3127,10 +3469,10 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B90" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
@@ -3141,10 +3483,10 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B91" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
@@ -3155,10 +3497,10 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B92" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
@@ -3169,10 +3511,10 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B93" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
@@ -3183,15 +3525,15 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B96" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
@@ -3201,10 +3543,10 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B97" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
@@ -3214,10 +3556,10 @@
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B98" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
@@ -3227,10 +3569,10 @@
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B99" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
@@ -3291,15 +3633,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7612CDC-6D58-4C48-8405-060541473129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D6D17-0243-4B53-B929-E1CD2B00212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
@@ -16,10 +16,12 @@
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
     <sheet name="미니게임 5" sheetId="2" r:id="rId2"/>
     <sheet name="미니게임 5 규칙" sheetId="7" r:id="rId3"/>
-    <sheet name="미니게임 6" sheetId="3" r:id="rId4"/>
-    <sheet name="미니게임 6 규칙" sheetId="4" r:id="rId5"/>
-    <sheet name="미니게임 6 표" sheetId="6" r:id="rId6"/>
-    <sheet name="미니게임 6 UI" sheetId="5" r:id="rId7"/>
+    <sheet name="미니게임 5 표" sheetId="8" r:id="rId4"/>
+    <sheet name="미니게임 5 UI" sheetId="9" r:id="rId5"/>
+    <sheet name="미니게임 6" sheetId="3" r:id="rId6"/>
+    <sheet name="미니게임 6 규칙" sheetId="4" r:id="rId7"/>
+    <sheet name="미니게임 6 표" sheetId="6" r:id="rId8"/>
+    <sheet name="미니게임 6 UI" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="254">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1139,6 +1141,114 @@
   </si>
   <si>
     <t xml:space="preserve"> 3)게임오버 시, 화면이 어둡게 변하며 중앙에 GameOver라는 이미지를 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.손</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1손모양 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.휴식 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1상황별 휴식 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴식횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.목숨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1상황별 목숨 변동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목숨 변동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7의 배수의 콤보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1판 별 제한시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한시간(sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-t/3(나머지 버림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1945,7 +2055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
   <dimension ref="B2:C47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -2172,6 +2282,249 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBB3E87-1D6D-43A2-BF75-5347FC05D11E}">
+  <dimension ref="B2:E33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="16">
+        <v>10</v>
+      </c>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" s="16">
+        <v>1</v>
+      </c>
+      <c r="D33" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B21:D21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9DF611-4E09-4BB1-9B62-40497D2558E2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
   <dimension ref="A1:A38"/>
   <sheetViews>
@@ -2353,11 +2706,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
   <dimension ref="B2:AG61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -2862,7 +3215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
@@ -3582,12 +3935,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -3598,22 +3961,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3621,7 +3974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A993A-8529-4947-B0EF-4BB2CAC8584D}">
   <dimension ref="A1:F23"/>
   <sheetViews>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D6D17-0243-4B53-B929-E1CD2B00212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C9613-3444-4CEC-BC24-710F01AD1C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="257">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -900,10 +900,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)화면 상단에 임의의 캐릭터의 얼굴이 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 3)화면의 중단에 손모양이 배치되고, 플레이어는 이 손이 가리키는 방향의 반대버튼을 누르면 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -916,10 +912,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)화면 최상단에 설정 버튼, 현재 점수, 현재 진행 중인 게임에서 얻은 재화의 총량이 표기된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> -설정 버튼을 누르면, 설정창이 나타나며, 게임은 일시정지된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -956,10 +948,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EASY- 각 판의 제한시간 2초 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 3)매 판마다, 짧은 제한시간이 존재하고, 플레이어는 이 시간 내에 반응해야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1124,10 +1112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HARD- 각 판의 제한시간 1초 감소(최소 시간 1초)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7. 게임오버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1249,6 +1233,34 @@
   </si>
   <si>
     <t>27~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)화면 상단에 임의의 캐릭터의 얼굴이 존재한다. 화면 상단 오른쪽에는 설정 버튼이 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 목숨의 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1~3목숨까지는 빨간색 하트로 해당 개수만큼 줄지어 표시(왼쪽부터 채움), 4~6목숨은 빨간색 하트 위에 왼쪽부터 노란색 하트를 덮는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)화면 최상단에 제한시간, 현재 점수, 잔여 목숨이 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 에셋: 캐릭터 얼굴, 오른손(좌, 정면, 우), 하트(빨간색, 노란색), 왼쪽 화살표 버튼(밝은 색의 양각, 어두운 색의 음각), 오른쪽 화살표 버튼(밝은 색의 양각, 어두운 색의 음각), 동그라미(O), 엑스(X), GameOver아이콘, 타이머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY- 각 판의 제한시간 3초 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD- 각 판의 제한시간 2초 감소(최소 시간 1초), 시작 시 목숨 1개, 최대 목숨 3개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1913,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1941,7 +1953,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -1981,67 +1993,67 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2053,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
-  <dimension ref="B2:C47"/>
+  <dimension ref="B2:C49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2085,52 +2097,52 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
@@ -2138,137 +2150,147 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B44" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B45" t="s">
-        <v>219</v>
+      <c r="B44" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B46" t="s">
-        <v>220</v>
+      <c r="B46" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2285,7 +2307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBB3E87-1D6D-43A2-BF75-5347FC05D11E}">
   <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -2293,17 +2315,17 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>90</v>
@@ -2311,7 +2333,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
@@ -2319,7 +2341,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C7" s="3">
         <v>50</v>
@@ -2327,26 +2349,26 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="3">
@@ -2355,7 +2377,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="3">
@@ -2364,7 +2386,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="3">
@@ -2373,7 +2395,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="3">
@@ -2382,86 +2404,86 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D30" s="16"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C31" s="16">
         <v>10</v>
@@ -2470,16 +2492,16 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D32" s="16"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C33" s="16">
         <v>1</v>
@@ -2488,6 +2510,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="B22:D22"/>
@@ -2496,12 +2524,6 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2514,11 +2536,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2546,7 +2574,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -2596,12 +2624,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
@@ -2621,7 +2649,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
@@ -2710,7 +2738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
   <dimension ref="B2:AG61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -3177,32 +3205,32 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3219,7 +3247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A62" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3935,22 +3963,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -3961,12 +3979,22 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C9613-3444-4CEC-BC24-710F01AD1C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C555F989-8152-4644-8FF2-20EBE21E9304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="1" activeTab="4" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -1271,7 +1271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1549,7 +1549,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1837,7 +1837,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1851,9 +1851,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1871,7 +1871,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1891,7 +1891,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -1925,133 +1925,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="175" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="22">
       <c r="A1" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>256</v>
       </c>
@@ -2067,19 +2067,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
   <dimension ref="B2:C49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="133" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3">
       <c r="B2" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3">
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3">
       <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
@@ -2095,200 +2095,200 @@
         <v>720</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3">
       <c r="B6" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3">
       <c r="B9" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3">
       <c r="B10" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3">
       <c r="B11" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3">
       <c r="B12" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:3">
       <c r="B14" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:3">
       <c r="B15" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:3">
       <c r="B16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2">
       <c r="B22" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2">
       <c r="B24" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2">
       <c r="B25" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2">
       <c r="B26" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
         <v>218</v>
       </c>
@@ -2307,23 +2307,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBB3E87-1D6D-43A2-BF75-5347FC05D11E}">
   <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
         <v>225</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
         <v>226</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4">
       <c r="B7" s="3" t="s">
         <v>227</v>
       </c>
@@ -2347,17 +2347,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4">
       <c r="B12" s="16" t="s">
         <v>230</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4">
       <c r="B13" s="16" t="s">
         <v>231</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4">
       <c r="B14" s="16" t="s">
         <v>232</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4">
       <c r="B15" s="16" t="s">
         <v>233</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4">
       <c r="B16" s="16" t="s">
         <v>234</v>
       </c>
@@ -2402,17 +2402,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5">
       <c r="B21" s="16" t="s">
         <v>230</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5">
       <c r="B22" s="16" t="s">
         <v>231</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5">
       <c r="B23" s="16" t="s">
         <v>240</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5">
       <c r="B24" s="16" t="s">
         <v>234</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5">
       <c r="B25" s="16" t="s">
         <v>233</v>
       </c>
@@ -2462,17 +2462,17 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5">
       <c r="B27" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5">
       <c r="B29" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5">
       <c r="B30" s="3" t="s">
         <v>244</v>
       </c>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="D30" s="16"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5">
       <c r="B31" s="3" t="s">
         <v>246</v>
       </c>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="D31" s="16"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:5">
       <c r="B32" s="3" t="s">
         <v>248</v>
       </c>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="D32" s="16"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
         <v>249</v>
       </c>
@@ -2510,12 +2510,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="B22:D22"/>
@@ -2524,6 +2518,12 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2535,13 +2535,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9DF611-4E09-4BB1-9B62-40497D2558E2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>254</v>
       </c>
@@ -2560,169 +2560,169 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="22">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>137</v>
       </c>
@@ -2742,15 +2742,15 @@
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:27">
       <c r="B2" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:27">
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:27">
       <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
@@ -2776,12 +2776,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:27">
       <c r="V5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:27">
       <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:27">
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:27">
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:27">
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:27">
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:27">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -2844,12 +2844,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:27">
       <c r="B12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:27">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:27">
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:27">
       <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:27">
       <c r="B16" s="5" t="s">
         <v>98</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:33">
       <c r="B17" s="5" t="s">
         <v>100</v>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:33">
       <c r="V18" s="11" t="s">
         <v>31</v>
       </c>
@@ -2920,7 +2920,7 @@
       <c r="AF18" s="11"/>
       <c r="AG18" s="11"/>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:33">
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:33">
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2958,7 +2958,7 @@
       <c r="AF20" s="11"/>
       <c r="AG20" s="11"/>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:33">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="AF21" s="11"/>
       <c r="AG21" s="11"/>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:33">
       <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:33">
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:33">
       <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:33">
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
@@ -3009,17 +3009,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:33">
       <c r="B26" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:33">
       <c r="V27" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:33">
       <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:33">
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,7 +3043,7 @@
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:33">
       <c r="B30" s="5" t="s">
         <v>47</v>
       </c>
@@ -3059,7 +3059,7 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:33">
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:33">
       <c r="B32" s="5" t="s">
         <v>49</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:30">
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
@@ -3107,128 +3107,128 @@
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:30">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:30">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:30">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:30">
       <c r="B37" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:30">
       <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:30">
       <c r="B39" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:30">
       <c r="B40" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:30">
       <c r="B41" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:30">
       <c r="B42" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:30">
       <c r="B43" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:30">
       <c r="B44" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:30">
       <c r="B45" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:30">
       <c r="B47" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:30">
       <c r="B48" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:2">
       <c r="B51" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:2">
       <c r="B52" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:2">
       <c r="B53" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:2">
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:2">
       <c r="B56" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:2">
       <c r="B59" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:2">
       <c r="B60" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:2">
       <c r="B61" t="s">
         <v>222</v>
       </c>
@@ -3251,22 +3251,22 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9">
       <c r="B4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9">
       <c r="B5" s="3" t="s">
         <v>75</v>
       </c>
@@ -3280,7 +3280,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9">
       <c r="B6" s="3" t="s">
         <v>80</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9">
       <c r="B7" s="6" t="s">
         <v>79</v>
       </c>
@@ -3308,7 +3308,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9">
       <c r="B8" s="3" t="s">
         <v>81</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9">
       <c r="B9" s="3" t="s">
         <v>84</v>
       </c>
@@ -3336,12 +3336,12 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9">
       <c r="B12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9">
       <c r="B13" s="16" t="s">
         <v>89</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9">
       <c r="B14" s="16" t="s">
         <v>91</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9">
       <c r="B15" s="16" t="s">
         <v>96</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9">
       <c r="B16" s="16" t="s">
         <v>92</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7">
       <c r="B17" s="16" t="s">
         <v>93</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7">
       <c r="B18" s="16" t="s">
         <v>97</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7">
       <c r="B19" s="16" t="s">
         <v>94</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7">
       <c r="B20" s="16" t="s">
         <v>95</v>
       </c>
@@ -3413,17 +3413,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7">
       <c r="B22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7">
       <c r="B24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7">
       <c r="B25" s="3" t="s">
         <v>104</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7">
       <c r="B26" s="3" t="s">
         <v>106</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7">
       <c r="B27" s="3" t="s">
         <v>108</v>
       </c>
@@ -3459,12 +3459,12 @@
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7">
       <c r="B29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7">
       <c r="B30" s="3" t="s">
         <v>111</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7">
       <c r="B31" s="7" t="s">
         <v>113</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7">
       <c r="B32" s="7" t="s">
         <v>114</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3">
       <c r="B33" s="7" t="s">
         <v>115</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3">
       <c r="B34" s="7" t="s">
         <v>116</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3">
       <c r="B35" s="7" t="s">
         <v>117</v>
       </c>
@@ -3512,22 +3512,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3">
       <c r="B36" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:3">
       <c r="B38" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:3">
       <c r="B40" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:3">
       <c r="B41" s="3" t="s">
         <v>121</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:3">
       <c r="B42" s="3" t="s">
         <v>122</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:3">
       <c r="B43" s="3" t="b">
         <v>0</v>
       </c>
@@ -3551,17 +3551,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:3">
       <c r="B44" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:3">
       <c r="B46" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:3">
       <c r="B47" s="3" t="s">
         <v>111</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:3">
       <c r="B48" s="7" t="s">
         <v>113</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:3">
       <c r="B49" s="7" t="s">
         <v>114</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:3">
       <c r="B50" s="7" t="s">
         <v>115</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:3">
       <c r="B51" s="7" t="s">
         <v>116</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:3">
       <c r="B52" s="7" t="s">
         <v>117</v>
       </c>
@@ -3609,27 +3609,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:3">
       <c r="B53" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:3">
       <c r="B54" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:3">
       <c r="B56" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:3">
       <c r="B58" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:3">
       <c r="B59" s="3" t="s">
         <v>121</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:3">
       <c r="B60" s="3" t="s">
         <v>122</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:3">
       <c r="B61" s="3" t="b">
         <v>0</v>
       </c>
@@ -3653,17 +3653,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:3">
       <c r="B62" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:3">
       <c r="B64" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:8">
       <c r="B65" s="3" t="s">
         <v>111</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:8">
       <c r="B66" s="7" t="s">
         <v>113</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:8">
       <c r="B67" s="7" t="s">
         <v>114</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:8">
       <c r="B68" s="7" t="s">
         <v>115</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:8">
       <c r="B69" s="7" t="s">
         <v>116</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:8">
       <c r="B70" s="7" t="s">
         <v>117</v>
       </c>
@@ -3711,22 +3711,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:8">
       <c r="B71" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:8">
       <c r="B72" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:8">
       <c r="B74" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:8">
       <c r="B75" s="7" t="s">
         <v>104</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:8">
       <c r="B76" s="7" t="s">
         <v>131</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:8">
       <c r="B77" s="7" t="s">
         <v>132</v>
       </c>
@@ -3765,7 +3765,7 @@
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:8">
       <c r="B78" s="7" t="s">
         <v>133</v>
       </c>
@@ -3778,17 +3778,17 @@
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:9">
       <c r="B81" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:9">
       <c r="B82" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:9">
       <c r="B83" s="3" t="s">
         <v>104</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:9">
       <c r="B84" s="3" t="s">
         <v>106</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:9">
       <c r="B85" s="3" t="s">
         <v>108</v>
       </c>
@@ -3824,17 +3824,17 @@
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:9">
       <c r="B87" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:9">
       <c r="B88" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:9">
       <c r="B89" s="3" t="s">
         <v>75</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:9">
       <c r="B90" s="3" t="s">
         <v>80</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="H90" s="16"/>
       <c r="I90" s="16"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:9">
       <c r="B91" s="6" t="s">
         <v>79</v>
       </c>
@@ -3876,7 +3876,7 @@
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:9">
       <c r="B92" s="3" t="s">
         <v>81</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="H92" s="16"/>
       <c r="I92" s="16"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:9">
       <c r="B93" s="3" t="s">
         <v>84</v>
       </c>
@@ -3904,12 +3904,12 @@
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:9">
       <c r="B95" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:9">
       <c r="B96" s="7" t="s">
         <v>104</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:8">
       <c r="B97" s="7" t="s">
         <v>131</v>
       </c>
@@ -3935,7 +3935,7 @@
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:8">
       <c r="B98" s="7" t="s">
         <v>132</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:8">
       <c r="B99" s="7" t="s">
         <v>133</v>
       </c>
@@ -3963,12 +3963,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -3979,22 +3989,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4010,9 +4010,9 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>99</v>
       </c>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C9613-3444-4CEC-BC24-710F01AD1C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559EFFB5-0805-4F88-A34D-4063CCE69612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="329">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -872,10 +872,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)플레이어는 상대 캐릭터의 손모양을 보고 그 모양에 반대되는 방향을 가리켜야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 5)제한 시간의 절반 이내에 정답을 맞췄을 경우, 콤보가 1개씩 쌓인다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -900,10 +896,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)화면의 중단에 손모양이 배치되고, 플레이어는 이 손이 가리키는 방향의 반대버튼을 누르면 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 4)화면 하단의 좌 우에 각각 버튼이 하나씩 존재하고, 플레이어는 해당 버튼을 누르며 게임을 진행한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -964,10 +956,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)판이 시작되기 전, 잠깐의 휴식기간(0.5sec) 동안 손은 중앙에 위치하며 손끝은 정면을 가리킨다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 손은 항상 화면 중단의 왼쪽, 중앙, 오른쪽 중 한 곳에만 위치한다. 또한 손 모양은 오른손으로 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -996,10 +984,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.0 버튼의 동작 기본 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 플레이어가 버튼을 누르면, 눌러진 버튼은 플레이어의 누르는 동작이 끝날 때 까지, 조금 어둡게, 음각으로 표시된다. 플레이어의 동작이 끝나면 버튼은 원상복귀된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1012,10 +996,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 플레이어가 제한시간 내에 손모양과 반대되는 방향의 버튼을 눌렀음이 확인되었을 경우, 답을 맞춘 것으로 처리한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.1 정답 시각화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1248,10 +1228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)화면 최상단에 제한시간, 현재 점수, 잔여 목숨이 표시된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>필요 에셋: 캐릭터 얼굴, 오른손(좌, 정면, 우), 하트(빨간색, 노란색), 왼쪽 화살표 버튼(밝은 색의 양각, 어두운 색의 음각), 오른쪽 화살표 버튼(밝은 색의 양각, 어두운 색의 음각), 동그라미(O), 엑스(X), GameOver아이콘, 타이머</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1261,6 +1237,318 @@
   </si>
   <si>
     <t>HARD- 각 판의 제한시간 2초 감소(최소 시간 1초), 시작 시 목숨 1개, 최대 목숨 3개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)판이 시작되기 전, 잠깐의 휴식기간(0.5sec) 동안 손은 중앙에 위치하며 손끝은 화면 중앙을 가리킨다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)플레이어는 상대 캐릭터가 바라보는 방향을 보고 그 방향에 반대되는 방향을 가리켜야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 플레이어가 제한시간 내에 상대 캐릭터가 바라보는 방향과 반대되는 방향의 버튼을 눌렀음이 확인되었을 경우, 답을 맞춘 것으로 처리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY모드 변동 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-t/3(나머지 버림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD모드 변동 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*하드모드 한정으로 최대 목숨을 3개로 지정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-t/3(나머지 버림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)화면의 중단에 손모양이 배치되고, 이 손모양은 플레이어가 누르는 버튼을 따라 움직인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행 중_목숨 3개 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행 중_목숨 3개 미만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)화면 최상단에 잔여 목숨, 제한시간, 현재 점수가 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)게임의 진행방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1.2)게임오버의 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)게임의 모습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)점수환산기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)난이도에 따른 수치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.미니게임5 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.미니게임5(참참참)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)손모양 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1.0)손모양 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1.1)손모양 생성 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)버튼의 동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)정답처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3.0)정답처리 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3.1)정답 시각화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)휴식시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (4.0)휴식시간 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (4.1)휴식시간 적용 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)목숨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (5.0)목숨의 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (5.1)목숨의 수량 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (5.2)목숨이 0이 됐을 경우(게임오버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (5.3)목숨의 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6)제한시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.미니게임5 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)손</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.미니게임5 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 미니게임 기본적인 모습 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.미니게임6(스키)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)아이템종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)난이도에 따른 수치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.미니게임6 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1.0)길의 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1.1)길 너비 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1.2)길 생성 위치 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)장애물 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)길의 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2.0)장애물 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2.1)장애물 수량 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2.2)장애물 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)아이템 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3.0)아이템 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3.1)아이템 수량 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3.2)아이템 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)재화 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (4.0)재화 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (4.1)재화 수량 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (4.2)재화 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)생성된 오브젝트의 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (5.1)이동속도 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6)캐릭터의 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7)게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.미니게임6 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)오브젝트 이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> *easy, hard모드 변동사항포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.미니게임6 UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1444,6 +1732,161 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>221455</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05DF1CF3-0BEE-0187-2441-064102AA167D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="662940"/>
+          <a:ext cx="2233135" cy="3970020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>198967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D87661B-32BC-C619-7413-D2491AC72D4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="662940"/>
+          <a:ext cx="2225040" cy="3955627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5853804-61DC-0589-56E7-550C22E88167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="662940"/>
+          <a:ext cx="2255520" cy="4009814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1845,10 +2288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B258DF-837D-4076-BBF7-BF5D380622B5}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1908,6 +2351,306 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>281</v>
+      </c>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>284</v>
+      </c>
+      <c r="G21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>286</v>
+      </c>
+      <c r="G23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>287</v>
+      </c>
+      <c r="G24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>289</v>
+      </c>
+      <c r="G26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>290</v>
+      </c>
+      <c r="G27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>291</v>
+      </c>
+      <c r="G28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>292</v>
+      </c>
+      <c r="G29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>294</v>
+      </c>
+      <c r="G33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>287</v>
+      </c>
+      <c r="F35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>327</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F38" s="1"/>
+      <c r="G38" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F45" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F46" t="s">
+        <v>296</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1925,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1948,12 +2691,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -1963,97 +2706,97 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2065,10 +2808,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
-  <dimension ref="B2:C49"/>
+  <dimension ref="B2:C48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2097,150 +2840,150 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
-        <v>190</v>
+      <c r="B15" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>191</v>
-      </c>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="s">
-        <v>193</v>
+      <c r="B19" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="5" t="s">
-        <v>194</v>
+      <c r="B20" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="1" t="s">
-        <v>195</v>
+      <c r="B21" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B26" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B29" s="1" t="s">
-        <v>198</v>
+      <c r="B29" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>199</v>
+      <c r="B30" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B31" s="1" t="s">
-        <v>200</v>
+      <c r="B31" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>202</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="1" t="s">
-        <v>204</v>
+      <c r="B36" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
-        <v>205</v>
+      <c r="B37" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B38" s="1" t="s">
-        <v>206</v>
+      <c r="B38" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
@@ -2249,48 +2992,43 @@
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B40" t="s">
-        <v>212</v>
+      <c r="B40" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B41" s="1" t="s">
-        <v>213</v>
+      <c r="B41" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
-        <v>214</v>
+      <c r="B42" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B43" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B44" t="s">
-        <v>252</v>
+      <c r="B43" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B46" s="1" t="s">
-        <v>215</v>
+      <c r="B46" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B49" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2305,27 +3043,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBB3E87-1D6D-43A2-BF75-5347FC05D11E}">
-  <dimension ref="B2:E33"/>
+  <dimension ref="B2:E57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>90</v>
@@ -2333,7 +3071,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
@@ -2341,7 +3079,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C7" s="3">
         <v>50</v>
@@ -2349,26 +3087,26 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="3">
@@ -2377,7 +3115,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="3">
@@ -2386,7 +3124,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="16" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="3">
@@ -2395,7 +3133,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="16" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="3">
@@ -2404,86 +3142,86 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="16" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="16" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="16" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="16" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="16" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D30" s="16"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C31" s="16">
         <v>10</v>
@@ -2492,24 +3230,189 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D32" s="16"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C33" s="16">
         <v>1</v>
       </c>
       <c r="D33" s="16"/>
     </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" s="16">
+        <v>13</v>
+      </c>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C41" s="16">
+        <v>1</v>
+      </c>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B45" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B46" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B47" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B48" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B49" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B55" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="16">
+        <v>8</v>
+      </c>
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B56" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="16"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B57" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" s="16">
+        <v>1</v>
+      </c>
+      <c r="D57" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="27">
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -2533,22 +3436,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9DF611-4E09-4BB1-9B62-40497D2558E2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" t="s">
+        <v>265</v>
+      </c>
+      <c r="K3" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2556,7 +3471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2574,7 +3489,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -2624,12 +3539,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
@@ -2649,7 +3564,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
@@ -2738,8 +3653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
   <dimension ref="B2:AG61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView showGridLines="0" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3205,32 +4120,32 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3247,7 +4162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A62" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A65" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4006,7 +4921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A993A-8529-4947-B0EF-4BB2CAC8584D}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C555F989-8152-4644-8FF2-20EBE21E9304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C5F83-B712-4CFA-95E8-4B0BBAB3F871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="1" activeTab="4" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="260">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1263,6 +1263,18 @@
     <t>HARD- 각 판의 제한시간 2초 감소(최소 시간 1초), 시작 시 목숨 1개, 최대 목숨 3개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>게임시작시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행 중_목숨 3개 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행 중_목숨 3개 미만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1271,7 +1283,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1449,6 +1461,161 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>239730</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>203581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF39AA64-B3F8-9543-4E36-20A57E1921EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="445213"/>
+          <a:ext cx="2243191" cy="3987896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>248292</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>218802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33B4B13-D533-00D7-61D2-1E506CC18FD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2671281" y="445213"/>
+          <a:ext cx="2251753" cy="4003117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>282540</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2761C2-3E3A-6E19-F779-5C23E22ECD8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5342562" y="445213"/>
+          <a:ext cx="2286000" cy="4064000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1549,7 +1716,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1837,7 +2004,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1847,13 +2014,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B258DF-837D-4076-BBF7-BF5D380622B5}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1871,7 +2038,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1891,7 +2058,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -1925,133 +2092,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="22">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>256</v>
       </c>
@@ -2067,19 +2234,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
   <dimension ref="B2:C49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="133" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="79" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
@@ -2087,7 +2254,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
@@ -2095,200 +2262,200 @@
         <v>720</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>218</v>
       </c>
@@ -2311,19 +2478,19 @@
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>225</v>
       </c>
@@ -2331,7 +2498,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>226</v>
       </c>
@@ -2339,7 +2506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>227</v>
       </c>
@@ -2347,17 +2514,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
         <v>230</v>
       </c>
@@ -2366,7 +2533,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
         <v>231</v>
       </c>
@@ -2375,7 +2542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
         <v>232</v>
       </c>
@@ -2384,7 +2551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="16" t="s">
         <v>233</v>
       </c>
@@ -2393,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="16" t="s">
         <v>234</v>
       </c>
@@ -2402,17 +2569,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="16" t="s">
         <v>230</v>
       </c>
@@ -2422,7 +2589,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="16" t="s">
         <v>231</v>
       </c>
@@ -2432,7 +2599,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="16" t="s">
         <v>240</v>
       </c>
@@ -2442,7 +2609,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="16" t="s">
         <v>234</v>
       </c>
@@ -2452,7 +2619,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="16" t="s">
         <v>233</v>
       </c>
@@ -2462,17 +2629,17 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>244</v>
       </c>
@@ -2481,7 +2648,7 @@
       </c>
       <c r="D30" s="16"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>246</v>
       </c>
@@ -2490,7 +2657,7 @@
       </c>
       <c r="D31" s="16"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>248</v>
       </c>
@@ -2499,7 +2666,7 @@
       </c>
       <c r="D32" s="16"/>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
         <v>249</v>
       </c>
@@ -2510,6 +2677,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="B22:D22"/>
@@ -2518,12 +2691,6 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2533,22 +2700,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9DF611-4E09-4BB1-9B62-40497D2558E2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2560,169 +2739,169 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="22">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>137</v>
       </c>
@@ -2742,15 +2921,15 @@
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:27">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="2:27">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
@@ -2765,7 +2944,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="2:27">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
@@ -2776,12 +2955,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
       <c r="V5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
@@ -2789,7 +2968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
@@ -2802,7 +2981,7 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
@@ -2815,7 +2994,7 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2828,7 +3007,7 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
     </row>
-    <row r="10" spans="2:27">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -2836,7 +3015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -2844,12 +3023,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -2861,7 +3040,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
@@ -2869,7 +3048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
@@ -2877,7 +3056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:27">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
         <v>98</v>
       </c>
@@ -2885,7 +3064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:33">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
         <v>100</v>
       </c>
@@ -2904,7 +3083,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="2:33">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.4">
       <c r="V18" s="11" t="s">
         <v>31</v>
       </c>
@@ -2920,7 +3099,7 @@
       <c r="AF18" s="11"/>
       <c r="AG18" s="11"/>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
@@ -2939,7 +3118,7 @@
       <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
     </row>
-    <row r="20" spans="2:33">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2958,7 +3137,7 @@
       <c r="AF20" s="11"/>
       <c r="AG20" s="11"/>
     </row>
-    <row r="21" spans="2:33">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -2977,7 +3156,7 @@
       <c r="AF21" s="11"/>
       <c r="AG21" s="11"/>
     </row>
-    <row r="22" spans="2:33">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
@@ -2985,7 +3164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:33">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
@@ -2993,7 +3172,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:33">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
@@ -3001,7 +3180,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="2:33">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
@@ -3009,17 +3188,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:33">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="2:33">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.4">
       <c r="V27" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:33">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3027,7 +3206,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="2:33">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,7 +3222,7 @@
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
     </row>
-    <row r="30" spans="2:33">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
         <v>47</v>
       </c>
@@ -3059,7 +3238,7 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
     </row>
-    <row r="31" spans="2:33">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
@@ -3075,7 +3254,7 @@
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
     </row>
-    <row r="32" spans="2:33">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
         <v>49</v>
       </c>
@@ -3091,7 +3270,7 @@
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
     </row>
-    <row r="33" spans="2:30">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
@@ -3107,128 +3286,128 @@
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
     </row>
-    <row r="34" spans="2:30">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:30">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:30">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:30">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="2:30">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:30">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B39" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="2:30">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="2:30">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B41" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:30">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:30">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:30">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B44" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="2:30">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="2:30">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="2:30">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>222</v>
       </c>
@@ -3251,22 +3430,22 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>75</v>
       </c>
@@ -3280,7 +3459,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>80</v>
       </c>
@@ -3294,7 +3473,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
         <v>79</v>
       </c>
@@ -3308,7 +3487,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>81</v>
       </c>
@@ -3322,7 +3501,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>84</v>
       </c>
@@ -3336,12 +3515,12 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
         <v>89</v>
       </c>
@@ -3350,7 +3529,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
         <v>91</v>
       </c>
@@ -3359,7 +3538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="16" t="s">
         <v>96</v>
       </c>
@@ -3368,7 +3547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="16" t="s">
         <v>92</v>
       </c>
@@ -3377,7 +3556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="16" t="s">
         <v>93</v>
       </c>
@@ -3386,7 +3565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="16" t="s">
         <v>97</v>
       </c>
@@ -3395,7 +3574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="16" t="s">
         <v>94</v>
       </c>
@@ -3404,7 +3583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="16" t="s">
         <v>95</v>
       </c>
@@ -3413,17 +3592,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
         <v>104</v>
       </c>
@@ -3435,7 +3614,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
         <v>106</v>
       </c>
@@ -3447,7 +3626,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
         <v>108</v>
       </c>
@@ -3459,12 +3638,12 @@
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>111</v>
       </c>
@@ -3472,7 +3651,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="7" t="s">
         <v>113</v>
       </c>
@@ -3480,7 +3659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
         <v>114</v>
       </c>
@@ -3488,7 +3667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" s="7" t="s">
         <v>115</v>
       </c>
@@ -3496,7 +3675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" s="7" t="s">
         <v>116</v>
       </c>
@@ -3504,7 +3683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" s="7" t="s">
         <v>117</v>
       </c>
@@ -3512,22 +3691,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>121</v>
       </c>
@@ -3535,7 +3714,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>122</v>
       </c>
@@ -3543,7 +3722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="b">
         <v>0</v>
       </c>
@@ -3551,17 +3730,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B44" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B46" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
         <v>111</v>
       </c>
@@ -3569,7 +3748,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B48" s="7" t="s">
         <v>113</v>
       </c>
@@ -3577,7 +3756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B49" s="7" t="s">
         <v>114</v>
       </c>
@@ -3585,7 +3764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B50" s="7" t="s">
         <v>115</v>
       </c>
@@ -3593,7 +3772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51" s="7" t="s">
         <v>116</v>
       </c>
@@ -3601,7 +3780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B52" s="7" t="s">
         <v>117</v>
       </c>
@@ -3609,27 +3788,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B53" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B54" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B56" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B58" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
         <v>121</v>
       </c>
@@ -3637,7 +3816,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>122</v>
       </c>
@@ -3645,7 +3824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="b">
         <v>0</v>
       </c>
@@ -3653,17 +3832,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B62" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>111</v>
       </c>
@@ -3671,7 +3850,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B66" s="7" t="s">
         <v>113</v>
       </c>
@@ -3679,7 +3858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B67" s="7" t="s">
         <v>114</v>
       </c>
@@ -3687,7 +3866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B68" s="7" t="s">
         <v>115</v>
       </c>
@@ -3695,7 +3874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B69" s="7" t="s">
         <v>116</v>
       </c>
@@ -3703,7 +3882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B70" s="7" t="s">
         <v>117</v>
       </c>
@@ -3711,22 +3890,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B71" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B72" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B74" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B75" s="7" t="s">
         <v>104</v>
       </c>
@@ -3739,7 +3918,7 @@
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B76" s="7" t="s">
         <v>131</v>
       </c>
@@ -3752,7 +3931,7 @@
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B77" s="7" t="s">
         <v>132</v>
       </c>
@@ -3765,7 +3944,7 @@
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B78" s="7" t="s">
         <v>133</v>
       </c>
@@ -3778,17 +3957,17 @@
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
     </row>
-    <row r="81" spans="2:9">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B83" s="3" t="s">
         <v>104</v>
       </c>
@@ -3800,7 +3979,7 @@
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
     </row>
-    <row r="84" spans="2:9">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
         <v>106</v>
       </c>
@@ -3812,7 +3991,7 @@
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
     </row>
-    <row r="85" spans="2:9">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
         <v>108</v>
       </c>
@@ -3824,17 +4003,17 @@
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B89" s="3" t="s">
         <v>75</v>
       </c>
@@ -3848,7 +4027,7 @@
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B90" s="3" t="s">
         <v>80</v>
       </c>
@@ -3862,7 +4041,7 @@
       <c r="H90" s="16"/>
       <c r="I90" s="16"/>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B91" s="6" t="s">
         <v>79</v>
       </c>
@@ -3876,7 +4055,7 @@
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B92" s="3" t="s">
         <v>81</v>
       </c>
@@ -3890,7 +4069,7 @@
       <c r="H92" s="16"/>
       <c r="I92" s="16"/>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B93" s="3" t="s">
         <v>84</v>
       </c>
@@ -3904,12 +4083,12 @@
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B96" s="7" t="s">
         <v>104</v>
       </c>
@@ -3922,7 +4101,7 @@
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B97" s="7" t="s">
         <v>131</v>
       </c>
@@ -3935,7 +4114,7 @@
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B98" s="7" t="s">
         <v>132</v>
       </c>
@@ -3948,7 +4127,7 @@
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B99" s="7" t="s">
         <v>133</v>
       </c>
@@ -3963,22 +4142,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -3989,12 +4158,22 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4010,9 +4189,9 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -4020,7 +4199,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>99</v>
       </c>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C5F83-B712-4CFA-95E8-4B0BBAB3F871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E142F644-5078-40BE-A070-EEA8175F5090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="309">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -860,22 +860,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5번째 미니게임 - 참참참</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)임의의 캐릭터와 참참참을 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4)플레이어의 목숨은 3개 존재하며 제한시간 내에 반응하지 못하거나, 가리키는 방향이 틀렸을 경우 1개씩 깎인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)플레이어는 상대 캐릭터의 손모양을 보고 그 모양에 반대되는 방향을 가리켜야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 5)제한 시간의 절반 이내에 정답을 맞췄을 경우, 콤보가 1개씩 쌓인다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -900,10 +884,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)화면의 중단에 손모양이 배치되고, 플레이어는 이 손이 가리키는 방향의 반대버튼을 누르면 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 4)화면 하단의 좌 우에 각각 버튼이 하나씩 존재하고, 플레이어는 해당 버튼을 누르며 게임을 진행한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -952,34 +932,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.손모양 생성 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0 손모양 생성 기본 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1 손모양 생성 주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)판이 시작되기 전, 잠깐의 휴식기간(0.5sec) 동안 손은 중앙에 위치하며 손끝은 정면을 가리킨다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 손은 항상 화면 중단의 왼쪽, 중앙, 오른쪽 중 한 곳에만 위치한다. 또한 손 모양은 오른손으로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)판이 시작되면 손은 확률표에 따라 이동하며, 왼쪽으로 이동 시 손 끝은 왼쪽45도를 가리키며 손바닥이 보이고, 오른쪽으로 이동 시 손 끝은 오른쪽45도를 가리키며 손등이 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)해당 판이 종료되면 다시 휴식기간으로 돌입하며 손은 중앙으로 이동하고 손끝은 정면을 가리킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)캐릭터가 스키를 타고 좌하향, 우하향 방향으로 내려가는 방식의 진행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1012,10 +964,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 플레이어가 제한시간 내에 손모양과 반대되는 방향의 버튼을 눌렀음이 확인되었을 경우, 답을 맞춘 것으로 처리한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.1 정답 시각화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1128,14 +1076,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.손</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1손모양 생성 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1248,10 +1188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)화면 최상단에 제한시간, 현재 점수, 잔여 목숨이 표시된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>필요 에셋: 캐릭터 얼굴, 오른손(좌, 정면, 우), 하트(빨간색, 노란색), 왼쪽 화살표 버튼(밝은 색의 양각, 어두운 색의 음각), 오른쪽 화살표 버튼(밝은 색의 양각, 어두운 색의 음각), 동그라미(O), 엑스(X), GameOver아이콘, 타이머</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1273,6 +1209,266 @@
   </si>
   <si>
     <t>게임 진행 중_목숨 3개 미만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)플레이어는 상대 캐릭터가 바라보는 방향을 보고 그 모양에 반대되는 방향을 가리켜야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)화면의 중단에 손모양이 배치되고, 손모양은 플레이어가 누른 버튼의 방향을 따라간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 플레이어가 제한시간 내에 상대 캐릭터가 본 방향과 반대되는 방향의 버튼을 눌렀음이 확인되었을 경우, 답을 맞춘 것으로 처리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY모드 변동 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-t/3(나머지 버림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD모드 변동 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*최대 목숨 3개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-t/3(나머지 버림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번째 미니게임 - 리버스 참참참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)임의의 캐릭터와 변형된 룰의 참참참을 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)플레이어의 목숨은 3개 존재하며 제한시간 내에 반응하지 못하거나, 가리키는 방향이 틀렸을 경우 1개씩 감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)화면 최상단에 잔여 목숨, 제한시간, 현재 점수가 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.패턴 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0 패턴 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 패턴 생성 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)판이 시작되기 전, 잠깐의 휴식기간(0.5sec) 동안 상대 캐릭터의 시선은 정면을 바라본다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)판이 시작되면 상대 캐릭터의 얼굴은 확률표에 따라 좌, 우로 회전한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)해당 판이 종료되면 다시 휴식기간으로 돌입하며 캐릭터 시선은 정면을 바라본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 상대 캐릭터의 얼굴은 판이 진행되지 않는 동안은 반드시 정면을 바라보며, 판이 진행 중인 경우에는 반드시 정면을 바라보지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 버튼에 따른 손 모양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 손모양은 플레이어가 아무 버튼도 누르지 않았다면 정면을, 왼쪽 화살표를 눌렀다면 왼쪽을, 오른쪽 화살표를 눌렀다면 오른쪽을 가리킨다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1패턴 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 목차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.미니게임5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.미니게임5 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.미니게임5 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.미니게임5 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.미니게임6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.미니게임6 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.미니게임6 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.미니게임6 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부 목차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)게임의 진행방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임의 모습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)점수 환산 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)난이도에 따른 수치조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)패턴 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)버튼의 동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)정답 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)휴식시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)목숨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6)제한시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)목숨(게임오버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7)각 난이도에 따른 변동사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)아이템 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)난이도에 따른 수치조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)길의 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)장애물의 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)아이템의 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)재화의 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)생성된 오브젝트의 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6)캐릭터의 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7)게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)오브젝트 이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6)각 난이도에 따른 변동사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1283,7 +1479,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1325,8 +1521,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1342,6 +1555,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,7 +1611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1437,6 +1662,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2012,10 +2255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B258DF-837D-4076-BBF7-BF5D380622B5}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2075,6 +2318,222 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
+    </row>
+    <row r="5" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A5" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="E5" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="E6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="E7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="E8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A9" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="E9" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="E10" t="s">
+        <v>284</v>
+      </c>
+      <c r="I10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="E11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="E12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A13" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="E13" t="s">
+        <v>286</v>
+      </c>
+      <c r="I13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E14" t="s">
+        <v>287</v>
+      </c>
+      <c r="I14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E15" t="s">
+        <v>288</v>
+      </c>
+      <c r="I15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
+        <v>291</v>
+      </c>
+      <c r="I16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E19" t="s">
+        <v>292</v>
+      </c>
+      <c r="I19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E20" t="s">
+        <v>288</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E21" t="s">
+        <v>289</v>
+      </c>
+      <c r="I21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E22" t="s">
+        <v>290</v>
+      </c>
+      <c r="I22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E23" t="s">
+        <v>293</v>
+      </c>
+      <c r="I23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E24" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="I25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="I26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="I27" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2092,15 +2551,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -2110,117 +2569,117 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2232,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
-  <dimension ref="B2:C49"/>
+  <dimension ref="B2:C51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="79" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2264,200 +2723,210 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>183</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>182</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="1" t="s">
-        <v>192</v>
+      <c r="B18" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="5" t="s">
-        <v>194</v>
+      <c r="B20" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="5" t="s">
-        <v>196</v>
+      <c r="B23" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>211</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B29" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>199</v>
+      <c r="B30" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>202</v>
+      <c r="B33" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B35" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="1" t="s">
-        <v>204</v>
+      <c r="B35" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
-        <v>205</v>
+      <c r="B37" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B40" t="s">
-        <v>212</v>
+      <c r="B40" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B41" s="1" t="s">
-        <v>213</v>
+      <c r="B41" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>252</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B46" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B47" t="s">
-        <v>216</v>
+      <c r="B46" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B48" t="s">
-        <v>217</v>
+      <c r="B48" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>218</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2472,27 +2941,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBB3E87-1D6D-43A2-BF75-5347FC05D11E}">
-  <dimension ref="B2:E33"/>
+  <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>90</v>
@@ -2500,7 +2969,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
@@ -2508,7 +2977,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C7" s="3">
         <v>50</v>
@@ -2516,26 +2985,26 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="3">
@@ -2544,7 +3013,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="3">
@@ -2553,7 +3022,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="16" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="3">
@@ -2562,7 +3031,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="16" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="3">
@@ -2571,86 +3040,86 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="16" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="16" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="16" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="16" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="16" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D30" s="16"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C31" s="16">
         <v>10</v>
@@ -2659,30 +3128,189 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D32" s="16"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C33" s="16">
         <v>1</v>
       </c>
       <c r="D33" s="16"/>
     </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="16">
+        <v>13</v>
+      </c>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" s="16">
+        <v>1</v>
+      </c>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B45" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B46" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B47" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B48" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B49" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B53" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="16">
+        <v>8</v>
+      </c>
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B55" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B56" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="16">
+        <v>1</v>
+      </c>
+      <c r="D56" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+  <mergeCells count="27">
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="B22:D22"/>
@@ -2691,6 +3319,12 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2702,26 +3336,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9DF611-4E09-4BB1-9B62-40497D2558E2}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="I2" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2735,8 +3369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2753,7 +3387,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -2803,12 +3437,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
@@ -2828,7 +3462,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
@@ -2917,7 +3551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
   <dimension ref="B2:AG61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -3384,32 +4018,32 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3426,7 +4060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A62" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A66" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4142,12 +4776,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -4158,22 +4802,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E142F644-5078-40BE-A070-EEA8175F5090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EA867B-D567-4E13-8C39-96FD3F352B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,10 @@
     <sheet name="미니게임 6 규칙" sheetId="4" r:id="rId7"/>
     <sheet name="미니게임 6 표" sheetId="6" r:id="rId8"/>
     <sheet name="미니게임 6 UI" sheetId="5" r:id="rId9"/>
+    <sheet name="미니게임 3" sheetId="10" r:id="rId10"/>
+    <sheet name="미니게임 3 규칙" sheetId="11" r:id="rId11"/>
+    <sheet name="미니게임 3 표" sheetId="12" r:id="rId12"/>
+    <sheet name="미니게임 3 UI" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="341">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +48,6 @@
   </si>
   <si>
     <t>1. 미니 게임 5, 6번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/19 기준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1469,6 +1469,138 @@
   </si>
   <si>
     <t xml:space="preserve"> 6)각 난이도에 따른 변동사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 미니 게임 3번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/27 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번째 미니게임 - 공룡쉨(구글 그 게임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.게임의 진행방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)캐릭터가 도망치는 진로에는 장애물이 존재하고, 캐릭터는 해당 장애물에 닿을 시 게임오버된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)캐릭터는 오른쪽 방향으로 도망친다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)플레이어의 캐릭터가 뒤에서 다가오는 먼지 폭풍을 피해 앞으로 도망치고, 길에 있는 다른 캐릭터를 구출하는 게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)캐릭터가 도망치는 진로에는 다른 캐릭터들이 존재하고, 캐릭터가 해당 캐릭터에 닿았을 때 상호작용 버튼을 누르면 추가점수를 획득한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6)게임이 진행될수록 게임의 진행속도는 빨라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2게임오버의 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 캐릭터가 장애물과 충돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2) 하드모드 한정 : 캐릭터의 체력이 0에 도달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.게임의 모습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  -하드모드의 경우 : 화면 최상단에 현재 점수, 현재 진행 중인 게임에서 얻은 재화의 총량이 표기되며, 바로 밑에 체력바가 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)화면의 중단에 캐릭터가 오른쪽으로 달리고 있는 화면이 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)화면의 하단에 왼쪽에는 점프버튼, 중간에는 설정버튼,  오른쪽에는 슬라이드버튼이 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -해당화면에서 먼지 폭풍은 화면의 가장 왼쪽에, 캐릭터는 왼쪽에 존재하며, 다른 캐릭터들과 장애물, 재화 등은 오른쪽에서 출현한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)진행 시간에 따른 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10p/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)캐릭터 구출에 따른 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -100p/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)재화 획득에 따른 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.난이도에 따른 수치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD- 게임 진행 속도 증가, 체력바 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행 화면 사이즈 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 장애물 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0장애물 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 장애물은 화면의 가장 오른쪽에서 출현하며, 왼쪽으로 다가온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1장애물 형태 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)장애물은 바닥 흙덩이, 천장 흙덩이가 존재하며 생성된 장애물의 형태는 확률표에 따라 결정된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 UI 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 에셋: 바닥 흙덩이 모양 3종류, 천장 흙더미 모양 3종류, 미끄러지고 있는 캐릭터(슬라이드), 체력바 - 해결 가능  // 먼지폭풍 - 해결 어려움(애니메이션 필요)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1611,7 +1743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1651,18 +1783,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1680,6 +1800,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1947,6 +2082,61 @@
         <a:xfrm>
           <a:off x="3352800" y="220980"/>
           <a:ext cx="2476500" cy="4402667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE7A35A-63D3-1C9F-4110-130598EB6C5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="220980"/>
+          <a:ext cx="4267199" cy="5510520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2255,205 +2445,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B258DF-837D-4076-BBF7-BF5D380622B5}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-    </row>
-    <row r="5" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="E6" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="E5" s="1" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="E7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A8" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="E8" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
+      <c r="I8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A9" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="E9" t="s">
+        <v>281</v>
+      </c>
+      <c r="I9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="E10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="E11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="E12" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="E6" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="I12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A13" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="E13" t="s">
+        <v>284</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="E7" t="s">
-        <v>281</v>
-      </c>
-      <c r="I7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="E8" t="s">
-        <v>282</v>
-      </c>
-      <c r="I8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="E9" t="s">
-        <v>283</v>
-      </c>
-      <c r="I9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="E10" t="s">
-        <v>284</v>
-      </c>
-      <c r="I10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="E11" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" t="s">
+    <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A14" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="E14" t="s">
+        <v>285</v>
+      </c>
+      <c r="I14" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="E12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="E13" t="s">
-        <v>286</v>
-      </c>
-      <c r="I13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="E14" t="s">
-        <v>287</v>
-      </c>
-      <c r="I14" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="E16" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.4">
@@ -2461,78 +2661,86 @@
         <v>290</v>
       </c>
       <c r="I17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
+        <v>289</v>
+      </c>
+      <c r="I18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E19" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I19" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.4">
-      <c r="E18" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="I18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.4">
-      <c r="E19" t="s">
-        <v>292</v>
-      </c>
-      <c r="I19" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>288</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>278</v>
+        <v>291</v>
+      </c>
+      <c r="I20" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E21" t="s">
-        <v>289</v>
-      </c>
-      <c r="I21" t="s">
-        <v>303</v>
+        <v>287</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E25" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I25" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.4">
-      <c r="E24" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="I24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.4">
-      <c r="I25" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.4">
       <c r="I26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.4">
-      <c r="I27" s="1" t="s">
-        <v>279</v>
+      <c r="I27" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="I28" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2547,11 +2755,291 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031FB8E1-EF80-47BC-8299-35870A46155A}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED91DED-E90A-4CB0-ACB1-3C7604F9766B}">
+  <dimension ref="B2:G10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="E2" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1280</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="23">
+        <v>405</v>
+      </c>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3">
+        <v>720</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="23">
+        <v>720</v>
+      </c>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332D9D3B-73B0-4612-A28A-25F572744D3C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A40334-E83D-47E0-878C-B43B575D076F}">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="93" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="93" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2559,127 +3047,127 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2693,21 +3181,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
   <dimension ref="B2:C51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="79" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="79" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3">
         <v>1280</v>
@@ -2715,7 +3203,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3">
         <v>720</v>
@@ -2723,62 +3211,62 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
@@ -2786,147 +3274,147 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2943,7 +3431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBB3E87-1D6D-43A2-BF75-5347FC05D11E}">
   <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -2951,25 +3439,25 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
@@ -2977,7 +3465,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="3">
         <v>50</v>
@@ -2985,316 +3473,316 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="23" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="16"/>
+      <c r="B14" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" s="16"/>
+      <c r="B15" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="23"/>
       <c r="D15" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" s="16"/>
+      <c r="B16" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="23"/>
       <c r="D16" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="16" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="3" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="3" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="23" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="16" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="3" t="s">
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="B25" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C31" s="16">
+        <v>230</v>
+      </c>
+      <c r="C31" s="23">
         <v>10</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C32" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="C32" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C33" s="16">
+        <v>233</v>
+      </c>
+      <c r="C33" s="23">
         <v>1</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="16"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" s="16">
+        <v>230</v>
+      </c>
+      <c r="C39" s="23">
         <v>13</v>
       </c>
-      <c r="D39" s="16"/>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C40" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D40" s="16"/>
+      <c r="C40" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="16">
+        <v>249</v>
+      </c>
+      <c r="C41" s="23">
         <v>1</v>
       </c>
-      <c r="D41" s="16"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B45" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" s="16" t="s">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B46" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B47" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B48" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="3" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B49" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="3" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D53" s="16"/>
+      <c r="D53" s="23"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C54" s="16">
+        <v>230</v>
+      </c>
+      <c r="C54" s="23">
         <v>8</v>
       </c>
-      <c r="D54" s="16"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C55" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="D55" s="16"/>
+      <c r="C55" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="23"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C56" s="16">
+        <v>254</v>
+      </c>
+      <c r="C56" s="23">
         <v>1</v>
       </c>
-      <c r="D56" s="16"/>
+      <c r="D56" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -3344,18 +3832,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" t="s">
         <v>241</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>242</v>
-      </c>
-      <c r="I2" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3370,174 +3858,174 @@
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3551,63 +4039,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
   <dimension ref="B2:AG61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3">
         <v>1280</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y3" s="11"/>
       <c r="Z3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3">
         <v>720</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.4">
       <c r="V5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
@@ -3617,10 +4105,10 @@
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -3630,10 +4118,10 @@
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
@@ -3643,67 +4131,67 @@
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y13" s="11"/>
       <c r="Z13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
@@ -3719,7 +4207,7 @@
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.4">
       <c r="V18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
@@ -3735,10 +4223,10 @@
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -3754,10 +4242,10 @@
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -3773,10 +4261,10 @@
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
@@ -3792,60 +4280,60 @@
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.4">
       <c r="V27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V29" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
@@ -3858,10 +4346,10 @@
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
@@ -3874,10 +4362,10 @@
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
@@ -3890,10 +4378,10 @@
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
@@ -3906,10 +4394,10 @@
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V33" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
@@ -3922,12 +4410,12 @@
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B35" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.4">
@@ -3935,82 +4423,82 @@
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B39" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B41" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B44" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
@@ -4018,32 +4506,32 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4071,223 +4559,223 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+        <v>78</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+        <v>80</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="23" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="3" t="s">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="16"/>
+      <c r="B15" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="23"/>
       <c r="D15" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="16"/>
+      <c r="B16" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="23"/>
       <c r="D16" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="16"/>
+      <c r="B17" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="23"/>
       <c r="D17" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="16"/>
+      <c r="B18" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="23"/>
       <c r="D18" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="16"/>
+      <c r="B19" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="23"/>
       <c r="D19" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="16"/>
+      <c r="B20" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="23"/>
       <c r="D20" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="3">
         <v>20</v>
@@ -4295,7 +4783,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" s="3">
         <v>20</v>
@@ -4303,7 +4791,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" s="3">
         <v>20</v>
@@ -4311,7 +4799,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="3">
         <v>20</v>
@@ -4319,7 +4807,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="3">
         <v>20</v>
@@ -4327,30 +4815,30 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" s="3">
         <v>30</v>
@@ -4366,25 +4854,25 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B44" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B46" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B48" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="3">
         <v>20</v>
@@ -4392,7 +4880,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B49" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="3">
         <v>20</v>
@@ -4400,7 +4888,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B50" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C50" s="3">
         <v>20</v>
@@ -4408,7 +4896,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" s="3">
         <v>20</v>
@@ -4416,7 +4904,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B52" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" s="3">
         <v>20</v>
@@ -4424,35 +4912,35 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B53" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B54" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B56" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B58" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60" s="3">
         <v>30</v>
@@ -4468,25 +4956,25 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B62" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B66" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C66" s="3">
         <v>20</v>
@@ -4494,7 +4982,7 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B67" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" s="3">
         <v>20</v>
@@ -4502,7 +4990,7 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B68" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="3">
         <v>20</v>
@@ -4510,7 +4998,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B69" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C69" s="3">
         <v>20</v>
@@ -4518,7 +5006,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B70" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C70" s="3">
         <v>20</v>
@@ -4526,253 +5014,253 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B71" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B72" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B74" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B75" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
+        <v>103</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B76" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
+        <v>130</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B77" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
+        <v>131</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B78" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B83" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
+        <v>105</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C85" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
+      <c r="C85" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B89" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C89" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B90" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B91" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
+        <v>78</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B92" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
+        <v>80</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B93" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B96" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
+        <v>103</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B97" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
+        <v>130</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B98" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
+        <v>131</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B99" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C99" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -4819,7 +5307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A993A-8529-4947-B0EF-4BB2CAC8584D}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -4827,15 +5315,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
         <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EA867B-D567-4E13-8C39-96FD3F352B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BE6846-4B34-41FD-A6E0-20510E2A48D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
@@ -1600,7 +1600,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필요 에셋: 바닥 흙덩이 모양 3종류, 천장 흙더미 모양 3종류, 미끄러지고 있는 캐릭터(슬라이드), 체력바 - 해결 가능  // 먼지폭풍 - 해결 어려움(애니메이션 필요)</t>
+    <t>필요 에셋: 동굴 배경, 바닥 흙덩이 모양 3종류, 천장 흙더미 모양 3종류, 미끄러지고 있는 캐릭터(슬라이드), 체력바 - 해결 가능  // 먼지폭풍 - 해결 어려움(애니메이션 필요)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3012,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A40334-E83D-47E0-878C-B43B575D076F}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3786,6 +3786,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
@@ -3794,25 +3813,6 @@
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5264,22 +5264,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -5290,12 +5280,22 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BE6846-4B34-41FD-A6E0-20510E2A48D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EA364C-7793-4C1B-9149-5AA35F4DDD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="419">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1500,10 +1500,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 4)캐릭터가 도망치는 진로에는 다른 캐릭터들이 존재하고, 캐릭터가 해당 캐릭터에 닿았을 때 상호작용 버튼을 누르면 추가점수를 획득한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 6)게임이 진행될수록 게임의 진행속도는 빨라진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1568,10 +1564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HARD- 게임 진행 속도 증가, 체력바 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 진행 화면 사이즈 기준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1600,7 +1592,327 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필요 에셋: 동굴 배경, 바닥 흙덩이 모양 3종류, 천장 흙더미 모양 3종류, 미끄러지고 있는 캐릭터(슬라이드), 체력바 - 해결 가능  // 먼지폭풍 - 해결 어려움(애니메이션 필요)</t>
+    <t>필요 에셋: 점프 버튼, 슬라이드 버튼, 동굴 배경, 바닥 흙덩이 모양 3종류, 천장 흙더미 모양 3종류, 미끄러지고 있는 캐릭터(슬라이드), 체력바 - 해결 가능  // 먼지폭풍 - 해결 어려움(애니메이션 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2장애물 수량 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)게임 시작 30초까지는 2초에 하나씩 생성된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임 시작 30초 이후에는 1.4초, 1.3초, 1.5초 주기를 반복하며 하나씩 생성된다. (ex. 30초 장애물 생성 후, 31.4초 장애물 생성, 32.7초 장애물 생성, 34.2초 장애물 생성, 35.6초 장애물 생성…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.구출 캐릭터 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0구출 캐릭터 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 구출 캐릭터는 화면의 가장 오른쪽에서 출현하며, 왼쪽으로 다가온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1구출 캐릭터 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)구출 캐릭터는 플레이어블 캐릭터로 존재하는 캐릭터 중 랜덤한 한 가지로 설정한다.(플레이어가 현재 보유하고 있지 않은 캐릭터도 출현 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)구출 캐릭터는 해당 판에서 한가지로 고정되는 것이 아니고, 구출 캐릭터의 출현마다 랜덤한 캐릭터를 선택하고 해당 캐릭터를 출현시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2구출 캐릭터 수량 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)게임시작 후 1초, 13초, 25초에 하나씩 생성된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.재화 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0재화 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 재화는 화면의 가장 오른쪽에서 출현하며, 왼쪽으로 다가온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)33.3초에 하나 생성되고, 이후 4.2초를 주기로 50%의 확률로 하나씩 생성된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD- 게임 진행 속도 증가, 체력바 추가, 구출 캐릭터 출현 타이밍 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1재화 수량 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)만약 재화가 생성될 곳에 구출 캐릭터나 장애물이 존재한다면 재화 생성을 취소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)재화는 1초에 한번 확률표를 이용한 계산을 진행한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.캐릭터의 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 캐릭터의 x축은 고정되어 있으며, 오직 플레이어의 버튼 조작에 따라 y축만 변화한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.버튼의 동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0 버튼의 동작 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 점프 버튼 동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)플레이어가 점프 버튼을 누른다면, 캐릭터는 0.2초의 시간을 거쳐 뛰어올라 최고점에 다다른다. 이때 캐릭터의 가장 밑부분의 높이는 게임 진행 화면 기준 200px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)캐릭터가 최고점에 도달했다면 0.2초에 시간을 거쳐 떨어지며 땅에 도달한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2 슬라이드 버튼 동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)플레이어가 슬라이드 버튼을 누르는 동안, 캐릭터는 슬라이딩 자세를 취하며, 캐릭터의 최고 높이는 n px(n&lt;95)이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)플레이어가 슬라이드 버튼을 떼면, 캐릭터는 즉시 일어난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)만약 캐릭터가 땅에 도달했을 때 계속해서 점프버튼이 눌려있다면, 0.05초의 딜레이 후 1)의 과정부터 반복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.생성된 오브젝트의 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1이동 속도 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 적용대상 - 장애물, 구출 캐릭터, 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.게임 오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)캐릭터가 장애물에 접촉 시 게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임오버 시, 화면이 어둡게 변하며 중앙에 GameOver라는 이미지를 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1장애물 형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥흙덩이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천장흙덩이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)바닥 흙덩이는 3가지 모양이 존재하며 크기는 동일(100x150)하다. 해당 장애물은 바닥에 붙어서 등장하며, 점프로 피해야 한다. 흙더미의 모양은 랜덤하게 결정된다.(각 모양 당 약33.3%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)천장 흙덩이는 3가지 모양이 존재하며 크기는 동일(100x310)하다. 해당 장애물은 천장에 붙어서 등장하며,  슬라이드로 피해야 한다. 흙더미의 모양은 랜덤하게 결정된다.(각 모양 당 약33.3%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세로크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2장애물 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행시간(sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2초에 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1.4초에 1개, 1.3초에 1개, 1.5초에 1개) 사이클을 반복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.구출 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초, 13초, 25초에 하나 씩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2초 주기로 50%확률로 하나 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2구출 캐릭터 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1재화 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.오브젝트 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1이동 속도 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD모드 한정 적용 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.체력바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)캐릭터가 도망치는 진로에는 다른 캐릭터들이 존재하고, 캐릭터가 해당 캐릭터에 닿으면 추가점수를 획득한다. *하드모드의 경우, 추가점수와 함께 체력을 획득한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3캐릭터와의 상호작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)캐릭터가 구출 캐릭터와 접촉 시, 구출 캐릭터는 0.2초의 시간을 거쳐 서서히 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.0체력바 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 체력바는 하드모드에서만 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)체력은 초당 2의 속도로 감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1체력 세부사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)만약 게임 진행 중 캐릭터가 구출 캐릭터와 접촉 했을 경우, 25의 체력을 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)체력의 최고 수치는 100이며 체력은 100을 넘을 수 없으며, 게임 시작 시 체력 수치는 100이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)체력이 0에 도달하면 게임오버된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2체력바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)체력바는 체력의 잔여량을 시각적으로 표시하기 위해 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)체력이 n% 남았다면, 체력바를 체력바의 왼쪽부터 n%만큼 붉은색으로 표시한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2759,8 +3071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031FB8E1-EF80-47BC-8299-35870A46155A}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2792,7 +3104,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
@@ -2802,27 +3114,27 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -2832,22 +3144,22 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -2857,37 +3169,37 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
@@ -2897,7 +3209,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2909,10 +3221,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED91DED-E90A-4CB0-ACB1-3C7604F9766B}">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:G73"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2923,7 +3235,7 @@
       </c>
       <c r="C2" s="23"/>
       <c r="E2" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -2960,27 +3272,307 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B46" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B50" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B52" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B62" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B63" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B68" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B70" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B71" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B73" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -2992,17 +3584,312 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332D9D3B-73B0-4612-A28A-25F572744D3C}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3012,20 +3899,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A40334-E83D-47E0-878C-B43B575D076F}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3181,8 +4068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
   <dimension ref="B2:C51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="79" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3786,12 +4673,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="B22:D22"/>
@@ -3800,19 +4694,12 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4039,8 +4926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
   <dimension ref="B2:AG61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+    <sheetView showGridLines="0" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4548,8 +5435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5264,12 +6151,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -5280,22 +6177,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EA364C-7793-4C1B-9149-5AA35F4DDD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3387126B-B274-403B-B83D-1B5A18628887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="456">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1913,6 +1913,154 @@
   </si>
   <si>
     <t xml:space="preserve"> 2)체력이 n% 남았다면, 체력바를 체력바의 왼쪽부터 n%만큼 붉은색으로 표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY- 장애물 수량 감소(절반으로 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2.8초에 1개, 2.6초에 1개, 3.0초에 1개) 사이클을 반복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD모드 변동 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2장애물 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2구출 캐릭터 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.4초 주기로 하나 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1이동 속도 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 변동 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초 당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 구출 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*하드모드 한정 - 체력 0 도달 시 게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.미니게임3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.미니게임3 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.미니게임3 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.미니게임3 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)게임의 진행방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임의 모습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)점수 환산 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)난이도에 따른 수치조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)장애물 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)구출캐릭터 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)재화 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)캐릭터의 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)버튼의 동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6)오브젝트의 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7)게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8)HARD모드 한정 적용 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)구출캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7)각 난이도에 따른 변동사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1983,7 +2131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2011,6 +2159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2055,7 +2209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2127,6 +2281,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2759,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B258DF-837D-4076-BBF7-BF5D380622B5}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="79" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2860,6 +3032,9 @@
       <c r="I7" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
@@ -2873,6 +3048,9 @@
       <c r="I8" t="s">
         <v>280</v>
       </c>
+      <c r="M8" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
@@ -2886,6 +3064,9 @@
       <c r="I9" t="s">
         <v>281</v>
       </c>
+      <c r="M9" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
@@ -2899,6 +3080,9 @@
       <c r="I10" t="s">
         <v>282</v>
       </c>
+      <c r="M10" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
@@ -2912,6 +3096,9 @@
       <c r="I11" t="s">
         <v>293</v>
       </c>
+      <c r="M11" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
@@ -2925,6 +3112,9 @@
       <c r="I12" t="s">
         <v>294</v>
       </c>
+      <c r="M12" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
@@ -2938,6 +3128,9 @@
       <c r="I13" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="M13" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
@@ -2951,106 +3144,168 @@
       <c r="I14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A15" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="E15" t="s">
         <v>286</v>
       </c>
       <c r="I15" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A16" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
       <c r="E16" t="s">
         <v>287</v>
       </c>
       <c r="I16" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="M16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A17" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
       <c r="E17" t="s">
         <v>290</v>
       </c>
       <c r="I17" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="M17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A18" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
       <c r="E18" t="s">
         <v>289</v>
       </c>
       <c r="I18" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="M18" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E19" s="1" t="s">
         <v>273</v>
       </c>
       <c r="I19" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="M19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
         <v>291</v>
       </c>
       <c r="I20" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="M20" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E21" t="s">
         <v>287</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="M21" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
         <v>288</v>
       </c>
       <c r="I22" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="M22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
         <v>289</v>
       </c>
       <c r="I23" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="M23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
         <v>292</v>
       </c>
       <c r="I24" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="M24" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E25" s="1" t="s">
         <v>274</v>
       </c>
       <c r="I25" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="M25" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I26" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="M26" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I27" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="M27" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I28" s="1" t="s">
         <v>278</v>
       </c>
@@ -3071,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031FB8E1-EF80-47BC-8299-35870A46155A}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3204,7 +3459,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
@@ -3221,10 +3476,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED91DED-E90A-4CB0-ACB1-3C7604F9766B}">
-  <dimension ref="B2:G73"/>
+  <dimension ref="B2:G74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3515,63 +3770,68 @@
         <v>374</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B62" s="1" t="s">
-        <v>404</v>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B65" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" s="1" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B67" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B72" s="1" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B72" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B74" t="s">
         <v>418</v>
       </c>
     </row>
@@ -3590,10 +3850,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332D9D3B-73B0-4612-A28A-25F572744D3C}">
-  <dimension ref="B2:H41"/>
+  <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3865,8 +4125,240 @@
         <v>146</v>
       </c>
     </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B42" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B43" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B44" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B45" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B47" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B49" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B50" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B51" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B54" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B55" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B56" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B57" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B59" s="26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B60" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B61" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="C61" s="27"/>
+      <c r="D61" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B62" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B63" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="42">
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
@@ -3877,21 +4369,10 @@
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:H23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3899,7 +4380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A40334-E83D-47E0-878C-B43B575D076F}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -4673,6 +5154,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
@@ -4681,25 +5181,6 @@
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5435,8 +5916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96:H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6151,22 +6632,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -6177,12 +6648,22 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3387126B-B274-403B-B83D-1B5A18628887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD01A57-4F4F-4E97-821A-4303F6BA90FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -2209,7 +2209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2270,6 +2270,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2282,23 +2288,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2584,13 +2575,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>6743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>207000</xdr:rowOff>
+      <xdr:rowOff>213743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2619,8 +2610,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="220980"/>
-          <a:ext cx="4267199" cy="5510520"/>
+          <a:off x="1" y="229274"/>
+          <a:ext cx="4249397" cy="5547743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2931,67 +2922,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B258DF-837D-4076-BBF7-BF5D380622B5}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="79" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
@@ -3149,11 +3140,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="E15" t="s">
         <v>286</v>
       </c>
@@ -3165,11 +3156,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="E16" t="s">
         <v>287</v>
       </c>
@@ -3181,11 +3172,11 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="E17" t="s">
         <v>290</v>
       </c>
@@ -3197,11 +3188,11 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="E18" t="s">
         <v>289</v>
       </c>
@@ -3326,7 +3317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031FB8E1-EF80-47BC-8299-35870A46155A}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -3478,22 +3469,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED91DED-E90A-4CB0-ACB1-3C7604F9766B}">
   <dimension ref="B2:G74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="25"/>
+      <c r="E2" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -3505,10 +3496,10 @@
       <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="25">
         <v>405</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
@@ -3520,10 +3511,10 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="25">
         <v>720</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -3869,37 +3860,37 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="3" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="3" t="s">
         <v>381</v>
       </c>
@@ -3908,10 +3899,10 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="3" t="s">
         <v>383</v>
       </c>
@@ -3920,10 +3911,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="3" t="s">
         <v>383</v>
       </c>
@@ -3937,43 +3928,43 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
@@ -3986,43 +3977,43 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
@@ -4072,53 +4063,53 @@
       <c r="B35" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
@@ -4131,43 +4122,43 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
+      <c r="C43" s="25"/>
+      <c r="D43" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="25"/>
+      <c r="D44" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23" t="s">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
@@ -4180,52 +4171,46 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23" t="s">
+      <c r="C50" s="25"/>
+      <c r="D50" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23" t="s">
+      <c r="C51" s="25"/>
+      <c r="D51" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
@@ -4236,111 +4221,109 @@
       <c r="B54" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B55" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B57" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="9" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="C60" s="27"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="3" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="C61" s="27"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="3" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="C62" s="27"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="3" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="C63" s="27"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="3" t="s">
         <v>434</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:H45"/>
     <mergeCell ref="B11:C11"/>
@@ -4348,11 +4331,6 @@
     <mergeCell ref="D43:H43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:H44"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -4362,13 +4340,20 @@
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4380,8 +4365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A40334-E83D-47E0-878C-B43B575D076F}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A14" zoomScale="110" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4407,7 +4392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="93" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="93" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -4556,10 +4541,10 @@
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -4850,46 +4835,46 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="3">
         <v>1</v>
       </c>
@@ -4905,51 +4890,51 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="3" t="s">
         <v>226</v>
       </c>
@@ -4968,37 +4953,37 @@
       <c r="B30" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="25">
         <v>10</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="D32" s="23"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="25">
         <v>1</v>
       </c>
-      <c r="D33" s="23"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
@@ -5014,37 +4999,37 @@
       <c r="B38" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D38" s="23"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="25">
         <v>13</v>
       </c>
-      <c r="D39" s="23"/>
+      <c r="D39" s="25"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D40" s="23"/>
+      <c r="D40" s="25"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="25">
         <v>1</v>
       </c>
-      <c r="D41" s="23"/>
+      <c r="D41" s="25"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
@@ -5057,51 +5042,51 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="3" t="s">
         <v>226</v>
       </c>
@@ -5120,46 +5105,53 @@
       <c r="B53" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D53" s="23"/>
+      <c r="D53" s="25"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="25">
         <v>8</v>
       </c>
-      <c r="D54" s="23"/>
+      <c r="D54" s="25"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="D55" s="23"/>
+      <c r="D55" s="25"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="25">
         <v>1</v>
       </c>
-      <c r="D56" s="23"/>
+      <c r="D56" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="B22:D22"/>
@@ -5168,19 +5160,12 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5414,10 +5399,10 @@
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -5939,71 +5924,71 @@
       <c r="B5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
@@ -6011,73 +5996,73 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="23"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="3">
         <v>5</v>
       </c>
@@ -6096,37 +6081,37 @@
       <c r="B25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
@@ -6399,53 +6384,53 @@
       <c r="B75" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B76" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B77" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B78" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
@@ -6461,37 +6446,37 @@
       <c r="B83" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" s="1" t="s">
@@ -6507,71 +6492,71 @@
       <c r="B89" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C89" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B90" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C90" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B91" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B92" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C92" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B93" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
@@ -6582,62 +6567,72 @@
       <c r="B96" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="C96" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B97" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C97" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B98" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C98" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B99" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C99" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -6648,22 +6643,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD01A57-4F4F-4E97-821A-4303F6BA90FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258FAD79-F3FB-4BE5-8396-CBA6E6D8C769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="459">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,10 +617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30~60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2초에 1개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -876,10 +872,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 7)만약 콤보가 7의 배수가 될 경우, 목숨을 하나 추가한다. (최대로 가질 수 있는 목숨의 개수는 6개로 한다. 만약, 목숨이 6개인 상태에서 추가 목숨을 갖게 된다면 목숨은 증가하지 않는다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 게임의 모습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1032,10 +1024,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)만약 플레이어가 7의 배수의 콤보를 쌓았다면, 목숨 하나를 추가한다. 단, 이미 목숨이 6개일 경우 목숨을 추가하지 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.2 목숨이 0이 됐을 경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1048,18 +1036,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)첫 판의 제한 시간은 10초로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2)매 3의 배수의 판마다 제한 시간은 1초씩 감소한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)만약 제한 시간이 1초에 도달한다면, 제한 시간은 1초로 고정된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7. 게임오버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1136,10 +1116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7의 배수의 콤보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1164,18 +1140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10-t/3(나머지 버림)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2)화면 상단에 임의의 캐릭터의 얼굴이 존재한다. 화면 상단 오른쪽에는 설정 버튼이 존재한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1192,14 +1156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EASY- 각 판의 제한시간 3초 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HARD- 각 판의 제한시간 2초 감소(최소 시간 1초), 시작 시 목숨 1개, 최대 목숨 3개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임시작시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1228,18 +1184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13-t/3(나머지 버림)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HARD모드 변동 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1252,14 +1196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3~20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5번째 미니게임 - 리버스 참참참</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2061,6 +1997,82 @@
   </si>
   <si>
     <t xml:space="preserve"> 7)각 난이도에 따른 변동사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*콤보관련규칙 추가 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)게임 진행 10초까지는 화면의 중간을 길 너비의 중간점으로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임 진행 10초 후 부터 길은 2초에 한 번 확률표에 의한 연산을 거쳐 꺾인다.(표 생성 예정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-타이머 -&gt; 바 형태로 변경 필요, 제한시간 대폭감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)첫 판의 제한 시간은 5초로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)만약 제한 시간이 0초에 도달한다면, 제한 시간은 0초가 아닌 0.4초로 고정된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-t/3(나머지 버림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-t/3(나머지 버림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY- 각 판의 제한시간 3초 증가, 최소 시간 0.8초로 증가(기존 0.4초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD- 각 판의 제한시간 2초 감소(최소 시간 0.4초), 시작 시 목숨 1개, 최대 목숨 3개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7)만약 콤보가 5의 배수가 될 경우, 목숨을 하나 추가한다. (최대로 가질 수 있는 목숨의 개수는 6개로 한다. 만약, 목숨이 6개인 상태에서 추가 목숨을 갖게 된다면 목숨은 증가하지 않는다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)만약 플레이어가 5의 배수의 콤보를 쌓았다면, 목숨 하나를 추가한다. 단, 이미 목숨이 6개일 경우 목숨을 추가하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5의 배수의 콤보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2209,7 +2221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2274,6 +2286,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2922,71 +2937,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B258DF-837D-4076-BBF7-BF5D380622B5}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="79" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -3004,301 +3019,301 @@
     </row>
     <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B6" s="14"/>
       <c r="E6" s="1" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="E7" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="I8" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="M8" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="I9" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="M9" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="I10" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="M10" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="E11" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="I11" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="M11" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="E12" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="I12" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="E13" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="M13" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="E14" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="I14" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="M14" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A15" s="20" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="E15" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="I15" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="M15" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="E16" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I16" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="M16" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="E17" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="I17" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="M17" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A18" s="20" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="E18" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="I18" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="M18" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E19" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="I19" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="M19" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="I20" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="M20" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E21" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="I22" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="M22" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="I23" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="M23" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="I24" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="M24" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E25" s="1" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="I25" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="M25" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I26" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="M26" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I27" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I28" s="1" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3317,40 +3332,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031FB8E1-EF80-47BC-8299-35870A46155A}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
@@ -3360,27 +3375,27 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -3390,22 +3405,22 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -3415,47 +3430,47 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3469,22 +3484,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED91DED-E90A-4CB0-ACB1-3C7604F9766B}">
   <dimension ref="B2:G74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="E2" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="E2" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -3496,10 +3511,10 @@
       <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="26">
         <v>405</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
@@ -3511,219 +3526,219 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="26">
         <v>720</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" s="1" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
@@ -3748,82 +3763,82 @@
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" s="1" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" s="1" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B72" s="1" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3843,194 +3858,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332D9D3B-73B0-4612-A28A-25F572744D3C}">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="C5" s="25"/>
+      <c r="B5" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="26"/>
       <c r="D5" s="3" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C6" s="25"/>
+      <c r="B6" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="26"/>
       <c r="D6" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="C7" s="25"/>
+      <c r="B7" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" s="26"/>
       <c r="D7" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="C9" s="25"/>
+      <c r="B9" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C9" s="26"/>
       <c r="D9" s="3" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C10" s="25"/>
+      <c r="B10" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" s="26"/>
       <c r="D10" s="3" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" s="25"/>
+      <c r="B11" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="C11" s="26"/>
       <c r="D11" s="3" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="B15" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="B16" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="B21" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="B22" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="B23" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -4051,263 +4066,263 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="C35" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+        <v>129</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+        <v>130</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
+      <c r="B43" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="B45" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B49" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
+      <c r="B49" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B51" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
+      <c r="B51" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B52" s="9"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
+      <c r="C54" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
+        <v>129</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
+        <v>130</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B59" s="9" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B60" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="C60" s="26"/>
+      <c r="B60" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="C60" s="27"/>
       <c r="D60" s="3" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B61" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="C61" s="26"/>
+      <c r="B61" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="C61" s="27"/>
       <c r="D61" s="3" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B62" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="C62" s="26"/>
+      <c r="B62" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="C62" s="27"/>
       <c r="D62" s="3" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B63" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="C63" s="26"/>
+      <c r="B63" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="C63" s="27"/>
       <c r="D63" s="3" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4365,7 +4380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A40334-E83D-47E0-878C-B43B575D076F}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="110" workbookViewId="0">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -4373,12 +4388,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4390,137 +4405,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A2" s="22" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>256</v>
+      <c r="A4" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>166</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>167</v>
+      <c r="A22" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>238</v>
+      <c r="A28" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>239</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -4532,19 +4552,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
-  <dimension ref="B2:C51"/>
+  <dimension ref="B2:C53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="79" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -4564,62 +4584,62 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
@@ -4627,147 +4647,152 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>198</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>202</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>204</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4785,24 +4810,24 @@
   <dimension ref="B2:E56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>89</v>
@@ -4810,7 +4835,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
@@ -4818,7 +4843,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C7" s="3">
         <v>50</v>
@@ -4826,316 +4851,316 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="3" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="25"/>
+      <c r="B13" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="26"/>
       <c r="D13" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="26"/>
       <c r="D14" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C15" s="25"/>
+      <c r="B15" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="26"/>
       <c r="D15" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="25"/>
+      <c r="B16" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="26"/>
       <c r="D16" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="B24" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" s="25"/>
+        <v>222</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" s="25">
-        <v>10</v>
-      </c>
-      <c r="D31" s="25"/>
+        <v>224</v>
+      </c>
+      <c r="C31" s="26">
+        <v>5</v>
+      </c>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" s="25"/>
+        <v>447</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C33" s="25">
-        <v>1</v>
-      </c>
-      <c r="D33" s="25"/>
+        <v>448</v>
+      </c>
+      <c r="C33" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="D33" s="26"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="D38" s="25"/>
+        <v>222</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C39" s="25">
-        <v>13</v>
-      </c>
-      <c r="D39" s="25"/>
+        <v>224</v>
+      </c>
+      <c r="C39" s="26">
+        <v>8</v>
+      </c>
+      <c r="D39" s="26"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D40" s="25"/>
+        <v>452</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="25">
-        <v>1</v>
-      </c>
-      <c r="D41" s="25"/>
+        <v>453</v>
+      </c>
+      <c r="C41" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="D41" s="26"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="B45" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="B46" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="B47" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="B48" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="B49" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="D53" s="25"/>
+        <v>222</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="26"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C54" s="25">
-        <v>8</v>
-      </c>
-      <c r="D54" s="25"/>
+        <v>224</v>
+      </c>
+      <c r="C54" s="26">
+        <v>3</v>
+      </c>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D55" s="25"/>
+        <v>450</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="D55" s="26"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C56" s="25">
-        <v>1</v>
-      </c>
-      <c r="D56" s="25"/>
+        <v>451</v>
+      </c>
+      <c r="C56" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="D56" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -5177,7 +5202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9DF611-4E09-4BB1-9B62-40497D2558E2}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -5185,18 +5210,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="I2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5210,8 +5235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5228,7 +5253,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -5278,12 +5303,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
@@ -5303,7 +5328,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
@@ -5368,17 +5393,17 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5392,17 +5417,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
   <dimension ref="B2:AG61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -5412,11 +5437,11 @@
         <v>1280</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y3" s="11"/>
       <c r="Z3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.4">
@@ -5461,7 +5486,7 @@
         <v>35</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -5474,7 +5499,7 @@
         <v>32</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
@@ -5508,11 +5533,11 @@
         <v>31</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y13" s="11"/>
       <c r="Z13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.4">
@@ -5525,7 +5550,7 @@
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>441</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>34</v>
@@ -5533,7 +5558,7 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>97</v>
+        <v>442</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>35</v>
@@ -5579,7 +5604,7 @@
         <v>38</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -5598,7 +5623,7 @@
         <v>39</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -5718,7 +5743,7 @@
         <v>47</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
@@ -5859,32 +5884,32 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5901,8 +5926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96:H99"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99:H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5924,71 +5949,71 @@
       <c r="B5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
@@ -5996,73 +6021,73 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="3">
         <v>5</v>
       </c>
@@ -6081,54 +6106,54 @@
       <c r="B25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" s="3">
         <v>20</v>
@@ -6136,7 +6161,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="3">
         <v>20</v>
@@ -6144,7 +6169,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" s="3">
         <v>20</v>
@@ -6152,7 +6177,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" s="3">
         <v>20</v>
@@ -6160,7 +6185,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="3">
         <v>20</v>
@@ -6168,30 +6193,30 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" s="3">
         <v>30</v>
@@ -6207,25 +6232,25 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B44" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B46" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B48" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="3">
         <v>20</v>
@@ -6233,7 +6258,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B49" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="3">
         <v>20</v>
@@ -6241,7 +6266,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B50" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="3">
         <v>20</v>
@@ -6249,7 +6274,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51" s="3">
         <v>20</v>
@@ -6257,7 +6282,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B52" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52" s="3">
         <v>20</v>
@@ -6265,35 +6290,35 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B53" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B54" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B56" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B58" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" s="3">
         <v>30</v>
@@ -6309,25 +6334,25 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B62" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B66" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C66" s="3">
         <v>20</v>
@@ -6335,7 +6360,7 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B67" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C67" s="3">
         <v>20</v>
@@ -6343,7 +6368,7 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B68" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="3">
         <v>20</v>
@@ -6351,7 +6376,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B69" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C69" s="3">
         <v>20</v>
@@ -6359,7 +6384,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B70" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C70" s="3">
         <v>20</v>
@@ -6367,74 +6392,74 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B71" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B72" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B74" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B75" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
+      <c r="C75" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B76" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
+        <v>129</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B77" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
+        <v>130</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B78" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C78" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.4">
@@ -6446,174 +6471,174 @@
       <c r="B83" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C84" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
+      <c r="C84" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C85" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B89" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B90" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B91" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C91" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
+      <c r="C91" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B92" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
+      <c r="C92" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B93" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
+      <c r="C93" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B96" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
+      <c r="C96" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B97" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C97" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
+        <v>129</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B98" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
+        <v>130</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B99" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C99" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -6660,8 +6685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A993A-8529-4947-B0EF-4BB2CAC8584D}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258FAD79-F3FB-4BE5-8396-CBA6E6D8C769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAE7CD5-6D10-4F9D-8EEF-B558C2A8D8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="476">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1140,10 +1140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)화면 상단에 임의의 캐릭터의 얼굴이 존재한다. 화면 상단 오른쪽에는 설정 버튼이 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.3 목숨의 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1208,10 +1204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)화면 최상단에 잔여 목숨, 제한시간, 현재 점수가 표시된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.패턴 생성 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1464,10 +1456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)화면의 하단에 왼쪽에는 점프버튼, 중간에는 설정버튼,  오른쪽에는 슬라이드버튼이 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> -해당화면에서 먼지 폭풍은 화면의 가장 왼쪽에, 캐릭터는 왼쪽에 존재하며, 다른 캐릭터들과 장애물, 재화 등은 오른쪽에서 출현한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1652,427 +1640,506 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>6.1이동 속도 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 적용대상 - 장애물, 구출 캐릭터, 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.게임 오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)캐릭터가 장애물에 접촉 시 게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임오버 시, 화면이 어둡게 변하며 중앙에 GameOver라는 이미지를 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1장애물 형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥흙덩이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천장흙덩이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)바닥 흙덩이는 3가지 모양이 존재하며 크기는 동일(100x150)하다. 해당 장애물은 바닥에 붙어서 등장하며, 점프로 피해야 한다. 흙더미의 모양은 랜덤하게 결정된다.(각 모양 당 약33.3%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)천장 흙덩이는 3가지 모양이 존재하며 크기는 동일(100x310)하다. 해당 장애물은 천장에 붙어서 등장하며,  슬라이드로 피해야 한다. 흙더미의 모양은 랜덤하게 결정된다.(각 모양 당 약33.3%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세로크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2장애물 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행시간(sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2초에 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1.4초에 1개, 1.3초에 1개, 1.5초에 1개) 사이클을 반복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.구출 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초, 13초, 25초에 하나 씩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2초 주기로 50%확률로 하나 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2구출 캐릭터 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1재화 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.오브젝트 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1이동 속도 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD모드 한정 적용 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.체력바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3캐릭터와의 상호작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.0체력바 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 체력바는 하드모드에서만 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)체력은 초당 2의 속도로 감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1체력 세부사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)체력의 최고 수치는 100이며 체력은 100을 넘을 수 없으며, 게임 시작 시 체력 수치는 100이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)체력이 0에 도달하면 게임오버된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2체력바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)체력바는 체력의 잔여량을 시각적으로 표시하기 위해 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)체력이 n% 남았다면, 체력바를 체력바의 왼쪽부터 n%만큼 붉은색으로 표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY- 장애물 수량 감소(절반으로 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2.8초에 1개, 2.6초에 1개, 3.0초에 1개) 사이클을 반복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD모드 변동 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2장애물 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2구출 캐릭터 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.4초 주기로 하나 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1이동 속도 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 변동 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초 당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 구출 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*하드모드 한정 - 체력 0 도달 시 게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.미니게임3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.미니게임3 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.미니게임3 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.미니게임3 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)게임의 진행방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임의 모습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)점수 환산 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)난이도에 따른 수치조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)장애물 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)구출캐릭터 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)재화 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)캐릭터의 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)버튼의 동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6)오브젝트의 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7)게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8)HARD모드 한정 적용 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)구출캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7)각 난이도에 따른 변동사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)게임 진행 10초까지는 화면의 중간을 길 너비의 중간점으로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임 진행 10초 후 부터 길은 2초에 한 번 확률표에 의한 연산을 거쳐 꺾인다.(표 생성 예정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-타이머 -&gt; 바 형태로 변경 필요, 제한시간 대폭감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)첫 판의 제한 시간은 5초로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)만약 제한 시간이 0초에 도달한다면, 제한 시간은 0초가 아닌 0.4초로 고정된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-t/3(나머지 버림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-t/3(나머지 버림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY- 각 판의 제한시간 3초 증가, 최소 시간 0.8초로 증가(기존 0.4초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD- 각 판의 제한시간 2초 감소(최소 시간 0.4초), 시작 시 목숨 1개, 최대 목숨 3개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7)만약 콤보가 5의 배수가 될 경우, 목숨을 하나 추가한다. (최대로 가질 수 있는 목숨의 개수는 6개로 한다. 만약, 목숨이 6개인 상태에서 추가 목숨을 갖게 된다면 목숨은 증가하지 않는다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)만약 플레이어가 5의 배수의 콤보를 쌓았다면, 목숨 하나를 추가한다. 단, 이미 목숨이 6개일 경우 목숨을 추가하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5의 배수의 콤보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.콤보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)콤보는 제한시간의 절반 내로 플레이어가 정답을 맞췄을 때 1 상승한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)콤보수는 플레이어가 제한시간의 절반 내로 정답을 맞추지 못했을 때 0으로 초기화된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)콤보가 5의 배수가 되었고, 플레이어의 목숨이 최대치가 아니라면 목숨을 1 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1 콤보의 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.2 콤보의 시각적 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)플레이어가 콤보조건을 만족했다면, 화면 중앙에 Combo n (n은 현재 콤보 수) 형태의 에셋을 0.5초간 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.타이머 바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)화면 최상단에 잔여 목숨, 현재 점수가 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)화면 상단에  타이머 바(제한시간)가 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)타이머 바 밑에 임의의 캐릭터의 얼굴이 존재한다. 화면 상단 오른쪽에는 설정 버튼이 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)타이머 바는 상단에 가로로 긴 직사각형 형태로 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)타이머 바의 길이는 (남은 제한시간) / (해당 판의 제한시간)의 비율로 설정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)타이머 바는 시작 시 붉은 색으로 차있으며 남은 제한시간의 비율에 따라 오른쪽에서 왼쪽방향으로 줄어든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7)콤보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8)타이머 바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 구출 버튼 동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)해당 버튼은 캐릭터가 구출 캐릭터와 접촉한 상태에서만 동작한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)해당 버튼이 동작하면 구출 캐릭터를 성공적으로 구출한 것으로 판단, 구출 점수를 부여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6.생성된 오브젝트의 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1이동 속도 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 적용대상 - 장애물, 구출 캐릭터, 재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.게임 오버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)캐릭터가 장애물에 접촉 시 게임오버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)게임오버 시, 화면이 어둡게 변하며 중앙에 GameOver라는 이미지를 띄운다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.장애물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1장애물 형태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장애물 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닥흙덩이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천장흙덩이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확률(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가로크기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)바닥 흙덩이는 3가지 모양이 존재하며 크기는 동일(100x150)하다. 해당 장애물은 바닥에 붙어서 등장하며, 점프로 피해야 한다. 흙더미의 모양은 랜덤하게 결정된다.(각 모양 당 약33.3%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)천장 흙덩이는 3가지 모양이 존재하며 크기는 동일(100x310)하다. 해당 장애물은 천장에 붙어서 등장하며,  슬라이드로 피해야 한다. 흙더미의 모양은 랜덤하게 결정된다.(각 모양 당 약33.3%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세로크기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>310px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2장애물 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행시간(sec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2초에 1개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1.4초에 1개, 1.3초에 1개, 1.5초에 1개) 사이클을 반복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.구출 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1초, 13초, 25초에 하나 씩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2초 주기로 50%확률로 하나 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2구출 캐릭터 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1재화 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.오브젝트 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1이동 속도 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HARD모드 한정 적용 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.체력바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4)캐릭터가 도망치는 진로에는 다른 캐릭터들이 존재하고, 캐릭터가 해당 캐릭터에 닿으면 추가점수를 획득한다. *하드모드의 경우, 추가점수와 함께 체력을 획득한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3캐릭터와의 상호작용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)캐릭터가 구출 캐릭터와 접촉 시, 구출 캐릭터는 0.2초의 시간을 거쳐 서서히 사라진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.0체력바 기본 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 체력바는 하드모드에서만 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)체력은 초당 2의 속도로 감소한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.1체력 세부사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)만약 게임 진행 중 캐릭터가 구출 캐릭터와 접촉 했을 경우, 25의 체력을 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)체력의 최고 수치는 100이며 체력은 100을 넘을 수 없으며, 게임 시작 시 체력 수치는 100이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4)체력이 0에 도달하면 게임오버된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.2체력바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)체력바는 체력의 잔여량을 시각적으로 표시하기 위해 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)체력이 n% 남았다면, 체력바를 체력바의 왼쪽부터 n%만큼 붉은색으로 표시한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EASY- 장애물 수량 감소(절반으로 감소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2.8초에 1개, 2.6초에 1개, 3.0초에 1개) 사이클을 반복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HARD모드 변동 사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2장애물 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2구출 캐릭터 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.4초 주기로 하나 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1이동 속도 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.1체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 변동 사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1초 당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 구출 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변화량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*하드모드 한정 - 체력 0 도달 시 게임오버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.미니게임3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.미니게임3 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.미니게임3 표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.미니게임3 UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)게임의 진행방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)게임의 모습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)점수 환산 기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4)난이도에 따른 수치조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)장애물 생성규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)구출캐릭터 생성규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)재화 생성규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4)캐릭터의 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5)버튼의 동작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6)오브젝트의 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7)게임오버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8)HARD모드 한정 적용 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)장애물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)구출캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7)각 난이도에 따른 변동사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*콤보관련규칙 추가 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)게임 진행 10초까지는 화면의 중간을 길 너비의 중간점으로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)게임 진행 10초 후 부터 길은 2초에 한 번 확률표에 의한 연산을 거쳐 꺾인다.(표 생성 예정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-타이머 -&gt; 바 형태로 변경 필요, 제한시간 대폭감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)첫 판의 제한 시간은 5초로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)만약 제한 시간이 0초에 도달한다면, 제한 시간은 0초가 아닌 0.4초로 고정된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-t/3(나머지 버림)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-t/3(나머지 버림)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EASY- 각 판의 제한시간 3초 증가, 최소 시간 0.8초로 증가(기존 0.4초)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HARD- 각 판의 제한시간 2초 감소(최소 시간 0.4초), 시작 시 목숨 1개, 최대 목숨 3개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7)만약 콤보가 5의 배수가 될 경우, 목숨을 하나 추가한다. (최대로 가질 수 있는 목숨의 개수는 6개로 한다. 만약, 목숨이 6개인 상태에서 추가 목숨을 갖게 된다면 목숨은 증가하지 않는다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)만약 플레이어가 5의 배수의 콤보를 쌓았다면, 목숨 하나를 추가한다. 단, 이미 목숨이 6개일 경우 목숨을 추가하지 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5의 배수의 콤보</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)하드모드의 경우 구출 성공 시 잔여 체력에 25의 체력을 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)만약 게임 진행 중 캐릭터가 구출 캐릭터를 구출했을 경우, 25의 체력을 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)캐릭터가 도망치는 진로에는 다른 캐릭터들이 존재하고, 캐릭터가 해당 캐릭터에 닿은 상태에서 구출버튼을 누른다면 추가점수를 획득한다. *하드모드의 경우, 추가점수와 함께 체력을 획득한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)화면의 하단에 왼쪽에는 점프버튼, 중간에는 설정버튼,  오른쪽에는 슬라이드버튼이 존재한다. 또한 점프, 슬라이드 버튼 바로 위에 구출버튼이 하나씩 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)캐릭터가 구출 캐릭터를 성공적으로 구출했다면, 구출 캐릭터는 0.2초의 시간을 거쳐 서서히 사라진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2588,22 +2655,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>6743</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>213743</xdr:rowOff>
+      <xdr:rowOff>154820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE7A35A-63D3-1C9F-4110-130598EB6C5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{727BC7E0-A3F0-6815-51FB-4C46C9CA1B93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2679,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2625,8 +2692,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="229274"/>
-          <a:ext cx="4249397" cy="5547743"/>
+          <a:off x="0" y="217714"/>
+          <a:ext cx="3026229" cy="5379963"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2937,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B258DF-837D-4076-BBF7-BF5D380622B5}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="79" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="79" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2967,7 +3034,7 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -3001,7 +3068,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -3019,301 +3086,307 @@
     </row>
     <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B6" s="14"/>
       <c r="E6" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="E7" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="E8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M8" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M9" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="E10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M10" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="E11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M11" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="E12" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="E13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M13" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M14" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A15" s="20" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="E15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M15" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="E16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M16" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="E17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M17" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A18" s="20" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="E18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M18" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="E19" s="1" t="s">
-        <v>257</v>
+      <c r="E19" t="s">
+        <v>465</v>
       </c>
       <c r="I19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M19" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>275</v>
+        <v>466</v>
       </c>
       <c r="I20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M20" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="E21" t="s">
-        <v>271</v>
+      <c r="E21" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M22" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M23" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="I24" t="s">
+        <v>286</v>
+      </c>
+      <c r="M24" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E25" t="s">
+        <v>271</v>
+      </c>
+      <c r="I25" t="s">
+        <v>287</v>
+      </c>
+      <c r="M25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E26" t="s">
+        <v>274</v>
+      </c>
+      <c r="I26" t="s">
         <v>288</v>
       </c>
-      <c r="M24" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="E25" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="M26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E27" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I27" t="s">
         <v>289</v>
       </c>
-      <c r="M25" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="I26" t="s">
-        <v>290</v>
-      </c>
-      <c r="M26" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="I27" t="s">
-        <v>291</v>
-      </c>
       <c r="M27" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I28" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3332,40 +3405,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031FB8E1-EF80-47BC-8299-35870A46155A}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
@@ -3375,27 +3448,27 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -3405,22 +3478,22 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -3430,47 +3503,47 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3482,10 +3555,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED91DED-E90A-4CB0-ACB1-3C7604F9766B}">
-  <dimension ref="B2:G74"/>
+  <dimension ref="B2:G78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3496,7 +3569,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="E2" s="26" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -3533,157 +3606,157 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>392</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
@@ -3693,152 +3766,172 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>351</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B50" s="1" t="s">
-        <v>353</v>
+      <c r="B50" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>355</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B62" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B54" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B55" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B56" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B58" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B59" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B60" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B61" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B63" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B64" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B65" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B66" t="s">
-        <v>394</v>
+      <c r="B65" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B68" t="s">
-        <v>398</v>
+      <c r="B68" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B69" t="s">
-        <v>395</v>
+      <c r="B69" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B71" t="s">
-        <v>399</v>
+      <c r="B71" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B72" s="1" t="s">
-        <v>400</v>
+      <c r="B72" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>402</v>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B76" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B77" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B78" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -3858,34 +3951,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332D9D3B-73B0-4612-A28A-25F572744D3C}">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="26" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="26" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="3">
@@ -3894,7 +3987,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="26" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="3">
@@ -3903,52 +3996,52 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="26" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="26" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="26" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="26" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -3957,11 +4050,11 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="26" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
@@ -3970,11 +4063,11 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="26" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -3983,21 +4076,21 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -4006,11 +4099,11 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="26" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -4019,11 +4112,11 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="26" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -4032,20 +4125,20 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -4066,12 +4159,12 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
@@ -4133,16 +4226,16 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="26" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="26" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
@@ -4164,11 +4257,11 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="26" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
@@ -4177,21 +4270,21 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" s="26" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="26" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -4204,7 +4297,7 @@
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
@@ -4213,11 +4306,11 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B51" s="26" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="26" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
@@ -4229,7 +4322,7 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
@@ -4286,59 +4379,61 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B59" s="9" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B60" s="27" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C60" s="27"/>
       <c r="D60" s="3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B61" s="27" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B62" s="27" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C62" s="27"/>
       <c r="D62" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B63" s="27" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="3" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:H45"/>
     <mergeCell ref="B11:C11"/>
@@ -4355,20 +4450,18 @@
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:H23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4380,20 +4473,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A40334-E83D-47E0-878C-B43B575D076F}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4405,22 +4498,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" zoomScale="93" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
@@ -4430,12 +4523,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -4445,7 +4538,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -4460,7 +4553,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
@@ -4480,67 +4573,72 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>455</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -4552,10 +4650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
-  <dimension ref="B2:C53"/>
+  <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView showGridLines="0" topLeftCell="A42" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4584,37 +4682,37 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
@@ -4634,12 +4732,12 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
@@ -4657,7 +4755,7 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
@@ -4747,7 +4845,7 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
@@ -4762,12 +4860,12 @@
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
@@ -4777,7 +4875,7 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
@@ -4787,12 +4885,62 @@
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B53" t="s">
-        <v>440</v>
+      <c r="B53" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B61" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B62" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -4809,7 +4957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBB3E87-1D6D-43A2-BF75-5347FC05D11E}">
   <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -4817,12 +4965,12 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
@@ -4936,7 +5084,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="26" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -4994,16 +5142,16 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D32" s="26"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C33" s="26">
         <v>0.4</v>
@@ -5012,7 +5160,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
@@ -5040,16 +5188,16 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D40" s="26"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C41" s="26">
         <v>0.8</v>
@@ -5058,7 +5206,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
@@ -5088,7 +5236,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="26" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -5118,7 +5266,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
@@ -5146,16 +5294,16 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D55" s="26"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C56" s="26">
         <v>0.4</v>
@@ -5164,6 +5312,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
@@ -5172,25 +5339,6 @@
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5202,7 +5350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9DF611-4E09-4BB1-9B62-40497D2558E2}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -5210,18 +5358,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" t="s">
         <v>229</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>230</v>
-      </c>
-      <c r="I2" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5235,7 +5383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -5550,7 +5698,7 @@
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>34</v>
@@ -5558,7 +5706,7 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>35</v>
@@ -6128,7 +6276,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>107</v>
@@ -6493,7 +6641,7 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>106</v>
@@ -6642,22 +6790,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -6668,12 +6806,22 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAE7CD5-6D10-4F9D-8EEF-B558C2A8D8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9974073E-C320-4BFF-9021-540B14773DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -1148,10 +1148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필요 에셋: 캐릭터 얼굴, 오른손(좌, 정면, 우), 하트(빨간색, 노란색), 왼쪽 화살표 버튼(밝은 색의 양각, 어두운 색의 음각), 오른쪽 화살표 버튼(밝은 색의 양각, 어두운 색의 음각), 동그라미(O), 엑스(X), GameOver아이콘, 타이머</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임시작시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1516,10 +1512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필요 에셋: 점프 버튼, 슬라이드 버튼, 동굴 배경, 바닥 흙덩이 모양 3종류, 천장 흙더미 모양 3종류, 미끄러지고 있는 캐릭터(슬라이드), 체력바 - 해결 가능  // 먼지폭풍 - 해결 어려움(애니메이션 필요)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.2장애물 수량 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2140,6 +2132,14 @@
   </si>
   <si>
     <t xml:space="preserve"> 1)캐릭터가 구출 캐릭터를 성공적으로 구출했다면, 구출 캐릭터는 0.2초의 시간을 거쳐 서서히 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 에셋: 점프 버튼, 슬라이드 버튼, 구출 버튼, 동굴 배경, 바닥 흙덩이 모양 3종류, 천장 흙더미 모양 3종류, 미끄러지고 있는 캐릭터(슬라이드), 체력바 - 해결 가능  // 먼지폭풍 - 해결 어려움(애니메이션 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 에셋: 캐릭터 얼굴, 오른손(좌, 정면, 우), 하트(빨간색, 노란색), 왼쪽 화살표 버튼(밝은 색의 양각, 어두운 색의 음각), 오른쪽 화살표 버튼(밝은 색의 양각, 어두운 색의 음각), 동그라미(O), 엑스(X), GameOver아이콘, 타이머 바, Combo아이콘, 숫자 아이콘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3004,7 +3004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B258DF-837D-4076-BBF7-BF5D380622B5}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="79" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="79" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -3086,307 +3086,307 @@
     </row>
     <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="14"/>
       <c r="E6" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="E7" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="E10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="E12" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="E13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="E14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A15" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="E16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M16" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="E17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A18" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M23" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M26" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E27" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I28" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3413,32 +3413,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
@@ -3448,27 +3448,27 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -3478,22 +3478,22 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -3503,47 +3503,47 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="E2" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -3606,157 +3606,157 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
@@ -3766,72 +3766,72 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
@@ -3856,82 +3856,82 @@
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B76" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -3959,26 +3959,26 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="3">
@@ -3987,7 +3987,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="26" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="3">
@@ -3996,52 +3996,52 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="26" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -4050,11 +4050,11 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
@@ -4063,11 +4063,11 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -4076,21 +4076,21 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -4099,11 +4099,11 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -4112,11 +4112,11 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -4125,20 +4125,20 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -4159,12 +4159,12 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
@@ -4226,16 +4226,16 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
@@ -4257,11 +4257,11 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
@@ -4270,21 +4270,21 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
@@ -4306,11 +4306,11 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B51" s="26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
@@ -4379,61 +4379,59 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B59" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B60" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C60" s="27"/>
       <c r="D60" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B61" s="27" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B62" s="27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C62" s="27"/>
       <c r="D62" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B63" s="27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:H45"/>
     <mergeCell ref="B11:C11"/>
@@ -4450,18 +4448,20 @@
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4473,20 +4473,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A40334-E83D-47E0-878C-B43B575D076F}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>319</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -4500,7 +4500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="93" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="93" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -4508,12 +4508,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
@@ -4523,12 +4523,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -4538,7 +4538,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -4553,7 +4553,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
@@ -4573,17 +4573,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
@@ -4593,7 +4593,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -4633,12 +4633,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -4652,7 +4652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
   <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" zoomScale="79" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="79" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -4682,37 +4682,37 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
@@ -4732,12 +4732,12 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
@@ -4755,7 +4755,7 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
@@ -4845,7 +4845,7 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
@@ -4875,7 +4875,7 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
@@ -4885,62 +4885,62 @@
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -4957,7 +4957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBB3E87-1D6D-43A2-BF75-5347FC05D11E}">
   <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -4965,12 +4965,12 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
@@ -5084,7 +5084,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="26" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -5142,16 +5142,16 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D32" s="26"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C33" s="26">
         <v>0.4</v>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
@@ -5188,16 +5188,16 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D40" s="26"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C41" s="26">
         <v>0.8</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
@@ -5236,7 +5236,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="26" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
@@ -5294,16 +5294,16 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D55" s="26"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C56" s="26">
         <v>0.4</v>
@@ -5312,12 +5312,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="B22:D22"/>
@@ -5326,19 +5333,12 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5350,26 +5350,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9DF611-4E09-4BB1-9B62-40497D2558E2}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" t="s">
         <v>228</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>229</v>
-      </c>
-      <c r="I2" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5383,7 +5381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -5698,7 +5696,7 @@
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>34</v>
@@ -5706,7 +5704,7 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>35</v>
@@ -6276,7 +6274,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>107</v>
@@ -6641,7 +6639,7 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>106</v>
@@ -6790,12 +6788,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -6806,22 +6814,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6833,7 +6831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A993A-8529-4947-B0EF-4BB2CAC8584D}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9974073E-C320-4BFF-9021-540B14773DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294FA351-C50A-4288-8041-1C7712BCFCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -1876,10 +1876,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*하드모드 한정 - 체력 0 도달 시 게임오버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1980,10 +1976,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)만약 제한 시간이 0초에 도달한다면, 제한 시간은 0초가 아닌 0.4초로 고정된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5-t/3(나머지 버림)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2016,14 +2008,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EASY- 각 판의 제한시간 3초 증가, 최소 시간 0.8초로 증가(기존 0.4초)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HARD- 각 판의 제한시간 2초 감소(최소 시간 0.4초), 시작 시 목숨 1개, 최대 목숨 3개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 7)만약 콤보가 5의 배수가 될 경우, 목숨을 하나 추가한다. (최대로 가질 수 있는 목숨의 개수는 6개로 한다. 만약, 목숨이 6개인 상태에서 추가 목숨을 갖게 된다면 목숨은 증가하지 않는다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2115,14 +2099,6 @@
     <t>6.생성된 오브젝트의 이동</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3)하드모드의 경우 구출 성공 시 잔여 체력에 25의 체력을 추가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)만약 게임 진행 중 캐릭터가 구출 캐릭터를 구출했을 경우, 25의 체력을 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 4)캐릭터가 도망치는 진로에는 다른 캐릭터들이 존재하고, 캐릭터가 해당 캐릭터에 닿은 상태에서 구출버튼을 누른다면 추가점수를 획득한다. *하드모드의 경우, 추가점수와 함께 체력을 획득한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2140,6 +2116,30 @@
   </si>
   <si>
     <t>필요 에셋: 캐릭터 얼굴, 오른손(좌, 정면, 우), 하트(빨간색, 노란색), 왼쪽 화살표 버튼(밝은 색의 양각, 어두운 색의 음각), 오른쪽 화살표 버튼(밝은 색의 양각, 어두운 색의 음각), 동그라미(O), 엑스(X), GameOver아이콘, 타이머 바, Combo아이콘, 숫자 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD- 각 판의 제한시간 2초 감소(최소 시간 0.5초), 시작 시 목숨 1개, 최대 목숨 3개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY- 각 판의 제한시간 3초 증가, 최소 시간 0.8초로 증가(기존 0.5초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)만약 제한 시간이 0초에 도달한다면, 제한 시간은 0초가 아닌 0.5초로 고정된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)만약 게임 진행 중 캐릭터가 구출 캐릭터를 구출했을 경우, 20의 체력을 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)하드모드의 경우 구출 성공 시 잔여 체력에 20의 체력을 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3106,7 +3106,7 @@
         <v>256</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
@@ -3122,7 +3122,7 @@
         <v>261</v>
       </c>
       <c r="M8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
@@ -3138,7 +3138,7 @@
         <v>262</v>
       </c>
       <c r="M9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
@@ -3154,7 +3154,7 @@
         <v>263</v>
       </c>
       <c r="M10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
@@ -3170,7 +3170,7 @@
         <v>274</v>
       </c>
       <c r="M11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
@@ -3186,7 +3186,7 @@
         <v>275</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
@@ -3202,7 +3202,7 @@
         <v>257</v>
       </c>
       <c r="M13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
@@ -3218,12 +3218,12 @@
         <v>276</v>
       </c>
       <c r="M14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A15" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -3234,12 +3234,12 @@
         <v>277</v>
       </c>
       <c r="M15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -3250,12 +3250,12 @@
         <v>278</v>
       </c>
       <c r="M16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -3266,12 +3266,12 @@
         <v>279</v>
       </c>
       <c r="M17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A18" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -3282,29 +3282,29 @@
         <v>280</v>
       </c>
       <c r="M18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I19" t="s">
         <v>281</v>
       </c>
       <c r="M19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I20" t="s">
         <v>282</v>
       </c>
       <c r="M20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -3315,7 +3315,7 @@
         <v>258</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -3326,7 +3326,7 @@
         <v>283</v>
       </c>
       <c r="M22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -3337,7 +3337,7 @@
         <v>284</v>
       </c>
       <c r="M23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -3348,7 +3348,7 @@
         <v>285</v>
       </c>
       <c r="M24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -3359,7 +3359,7 @@
         <v>286</v>
       </c>
       <c r="M25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -3370,7 +3370,7 @@
         <v>287</v>
       </c>
       <c r="M26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -3381,7 +3381,7 @@
         <v>288</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -3405,7 +3405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031FB8E1-EF80-47BC-8299-35870A46155A}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
@@ -3493,7 +3493,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -3557,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED91DED-E90A-4CB0-ACB1-3C7604F9766B}">
   <dimension ref="B2:G78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView showGridLines="0" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
@@ -3801,27 +3801,27 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
@@ -3871,7 +3871,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
@@ -3911,7 +3911,7 @@
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.4">
@@ -3951,8 +3951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332D9D3B-73B0-4612-A28A-25F572744D3C}">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4415,23 +4415,25 @@
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="3" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:H45"/>
     <mergeCell ref="B11:C11"/>
@@ -4448,20 +4450,18 @@
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:H23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -4500,8 +4500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="93" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="93" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
@@ -4553,7 +4553,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
@@ -4573,17 +4573,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
@@ -4633,12 +4633,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -4652,8 +4652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
   <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="79" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="79" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
@@ -4875,7 +4875,7 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
@@ -4885,62 +4885,62 @@
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -4957,8 +4957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBB3E87-1D6D-43A2-BF75-5347FC05D11E}">
   <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="26" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -5142,19 +5142,19 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D32" s="26"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C33" s="26">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D33" s="26"/>
     </row>
@@ -5188,7 +5188,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>236</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C41" s="26">
         <v>0.8</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="26" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -5294,24 +5294,43 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D55" s="26"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C56" s="26">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D56" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
@@ -5320,25 +5339,6 @@
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5350,13 +5350,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9DF611-4E09-4BB1-9B62-40497D2558E2}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -5381,7 +5383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -5563,7 +5565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
   <dimension ref="B2:AG61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A48" workbookViewId="0">
       <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
@@ -5696,7 +5698,7 @@
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>34</v>
@@ -5704,7 +5706,7 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>35</v>
@@ -6072,7 +6074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A96" workbookViewId="0">
       <selection activeCell="C99" sqref="C99:H99"/>
     </sheetView>
   </sheetViews>
@@ -6788,22 +6790,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -6814,12 +6806,22 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6831,7 +6833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A993A-8529-4947-B0EF-4BB2CAC8584D}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294FA351-C50A-4288-8041-1C7712BCFCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81F72D9-4061-497C-8EA2-00C48BC1C9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="483">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,10 +852,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 5)제한 시간의 절반 이내에 정답을 맞췄을 경우, 콤보가 1개씩 쌓인다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2140,6 +2136,63 @@
   </si>
   <si>
     <t>20추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+t/5(나머지 버림, t는 진행 시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7+t/5(나머지 버림, t는 진행 시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 2) 게임 시작 직후, 이동 속도는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3) 5초를 주기로, 이동 속도가 1만큼 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4) 만약 이동속도가 10에 도달했다면, 더 이상 이동 속도는 증가하지 않고 10으로 유지된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3034,7 +3087,7 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -3068,7 +3121,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -3086,307 +3139,307 @@
     </row>
     <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="14"/>
       <c r="E6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="E7" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="E8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="E9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="E11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="E12" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A15" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="E16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="E17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A18" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="E18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E27" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I28" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3405,7 +3458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031FB8E1-EF80-47BC-8299-35870A46155A}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3413,32 +3466,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
@@ -3448,27 +3501,27 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -3478,22 +3531,22 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -3503,47 +3556,47 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3569,7 +3622,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="E2" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -3606,232 +3659,232 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
@@ -3856,82 +3909,82 @@
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B76" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3951,34 +4004,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332D9D3B-73B0-4612-A28A-25F572744D3C}">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="3">
@@ -3987,7 +4040,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="3">
@@ -3996,52 +4049,52 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -4050,11 +4103,11 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
@@ -4063,11 +4116,11 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -4076,21 +4129,21 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -4099,11 +4152,11 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -4112,11 +4165,11 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -4125,20 +4178,20 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -4159,12 +4212,12 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
@@ -4226,16 +4279,16 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
@@ -4257,11 +4310,11 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
@@ -4270,21 +4323,21 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -4297,7 +4350,7 @@
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
@@ -4306,11 +4359,11 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B51" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
@@ -4322,7 +4375,7 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
@@ -4379,61 +4432,59 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B59" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B60" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C60" s="27"/>
       <c r="D60" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B61" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B62" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C62" s="27"/>
       <c r="D62" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B63" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:H45"/>
     <mergeCell ref="B11:C11"/>
@@ -4450,18 +4501,20 @@
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4481,12 +4534,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -4508,12 +4561,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
@@ -4523,122 +4576,122 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -4652,7 +4705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
   <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="79" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="79" workbookViewId="0">
       <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
@@ -4682,62 +4735,62 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
@@ -4745,202 +4798,202 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -4965,17 +5018,17 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>89</v>
@@ -4983,7 +5036,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
@@ -4991,7 +5044,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="3">
         <v>50</v>
@@ -4999,26 +5052,26 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="3">
@@ -5027,7 +5080,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="3">
@@ -5036,7 +5089,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="3">
@@ -5045,7 +5098,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="3">
@@ -5054,86 +5107,86 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>223</v>
       </c>
       <c r="D30" s="26"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="26">
         <v>5</v>
@@ -5142,16 +5195,16 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D32" s="26"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C33" s="26">
         <v>0.5</v>
@@ -5160,26 +5213,26 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>223</v>
       </c>
       <c r="D38" s="26"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C39" s="26">
         <v>8</v>
@@ -5188,16 +5241,16 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D40" s="26"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C41" s="26">
         <v>0.8</v>
@@ -5206,86 +5259,86 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>223</v>
       </c>
       <c r="D53" s="26"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C54" s="26">
         <v>3</v>
@@ -5294,16 +5347,16 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D55" s="26"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C56" s="26">
         <v>0.5</v>
@@ -5312,12 +5365,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="B22:D22"/>
@@ -5326,19 +5386,12 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5358,18 +5411,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" t="s">
         <v>227</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>228</v>
-      </c>
-      <c r="I2" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5401,7 +5454,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -5451,12 +5504,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
@@ -5476,7 +5529,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
@@ -5565,8 +5618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
   <dimension ref="B2:AG61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5698,7 +5751,7 @@
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>34</v>
@@ -5706,7 +5759,7 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>35</v>
@@ -6014,17 +6067,17 @@
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" s="5" t="s">
-        <v>69</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" s="5" t="s">
-        <v>70</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" s="5" t="s">
-        <v>71</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
@@ -6032,32 +6085,32 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6074,8 +6127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99:H99"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6276,7 +6329,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>107</v>
@@ -6570,8 +6623,8 @@
       <c r="B76" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C76" s="26" t="s">
-        <v>132</v>
+      <c r="C76" s="26">
+        <v>5</v>
       </c>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
@@ -6581,10 +6634,10 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B77" s="7" t="s">
-        <v>130</v>
+        <v>479</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
@@ -6594,10 +6647,10 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B78" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>132</v>
+        <v>476</v>
+      </c>
+      <c r="C78" s="26">
+        <v>10</v>
       </c>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
@@ -6641,7 +6694,7 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>106</v>
@@ -6753,8 +6806,8 @@
       <c r="B97" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C97" s="26" t="s">
-        <v>153</v>
+      <c r="C97" s="26">
+        <v>7</v>
       </c>
       <c r="D97" s="26"/>
       <c r="E97" s="26"/>
@@ -6764,10 +6817,10 @@
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B98" s="7" t="s">
-        <v>130</v>
+        <v>478</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>132</v>
+        <v>477</v>
       </c>
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
@@ -6777,10 +6830,10 @@
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B99" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C99" s="26" t="s">
-        <v>132</v>
+        <v>435</v>
+      </c>
+      <c r="C99" s="26">
+        <v>10</v>
       </c>
       <c r="D99" s="26"/>
       <c r="E99" s="26"/>
@@ -6790,12 +6843,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -6806,22 +6869,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6833,7 +6886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A993A-8529-4947-B0EF-4BB2CAC8584D}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81F72D9-4061-497C-8EA2-00C48BC1C9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B85AEB2-5459-4E3E-9E97-FE7F1BC94230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -1132,10 +1132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0~2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.3 목숨의 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1973,10 +1969,6 @@
   </si>
   <si>
     <t>5-t/3(나머지 버림)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2193,6 +2185,14 @@
   </si>
   <si>
     <t xml:space="preserve"> 4) 만약 이동속도가 10에 도달했다면, 더 이상 이동 속도는 증가하지 않고 10으로 유지된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -3139,307 +3139,307 @@
     </row>
     <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" s="14"/>
       <c r="E6" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="E7" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="E10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="E11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="E12" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="E13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A15" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="E15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="E16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A18" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="E18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E27" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I28" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3466,32 +3466,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
@@ -3501,27 +3501,27 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -3531,22 +3531,22 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -3556,47 +3556,47 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -3610,8 +3610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED91DED-E90A-4CB0-ACB1-3C7604F9766B}">
   <dimension ref="B2:G78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="E2" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -3659,157 +3659,157 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
@@ -3819,72 +3819,72 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
@@ -3909,82 +3909,82 @@
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B76" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4004,7 +4004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332D9D3B-73B0-4612-A28A-25F572744D3C}">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -4012,26 +4012,26 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="3">
@@ -4040,7 +4040,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="3">
@@ -4049,52 +4049,52 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -4103,11 +4103,11 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
@@ -4116,11 +4116,11 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -4129,21 +4129,21 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -4152,11 +4152,11 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -4165,11 +4165,11 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -4178,20 +4178,20 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -4212,12 +4212,12 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
@@ -4279,16 +4279,16 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
@@ -4310,11 +4310,11 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
@@ -4323,21 +4323,21 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
@@ -4359,11 +4359,11 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B51" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
@@ -4432,43 +4432,43 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B59" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B60" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C60" s="27"/>
       <c r="D60" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B61" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B62" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C62" s="27"/>
       <c r="D62" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B63" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -4534,12 +4534,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -4553,7 +4553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="93" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="93" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -4561,12 +4561,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
@@ -4576,12 +4576,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -4591,7 +4591,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -4606,7 +4606,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
@@ -4626,17 +4626,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
@@ -4646,7 +4646,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -4686,12 +4686,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -4705,8 +4705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
   <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="79" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="79" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4735,37 +4735,37 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
@@ -4785,12 +4785,12 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
@@ -4808,7 +4808,7 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
@@ -4898,7 +4898,7 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
@@ -4913,12 +4913,12 @@
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
@@ -4928,7 +4928,7 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
@@ -4938,62 +4938,62 @@
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -5010,20 +5010,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBB3E87-1D6D-43A2-BF75-5347FC05D11E}">
   <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
@@ -5137,7 +5137,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="26" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>223</v>
+        <v>482</v>
       </c>
       <c r="C31" s="26">
         <v>5</v>
@@ -5195,16 +5195,16 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D32" s="26"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C33" s="26">
         <v>0.5</v>
@@ -5213,7 +5213,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
@@ -5232,7 +5232,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>223</v>
+        <v>482</v>
       </c>
       <c r="C39" s="26">
         <v>8</v>
@@ -5241,16 +5241,16 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D40" s="26"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C41" s="26">
         <v>0.8</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
@@ -5289,7 +5289,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="26" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
@@ -5338,7 +5338,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>223</v>
+        <v>482</v>
       </c>
       <c r="C54" s="26">
         <v>3</v>
@@ -5347,16 +5347,16 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D55" s="26"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C56" s="26">
         <v>0.5</v>
@@ -5411,18 +5411,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" t="s">
         <v>226</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>227</v>
-      </c>
-      <c r="I2" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5436,7 +5436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>34</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>35</v>
@@ -6067,17 +6067,17 @@
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
@@ -6127,8 +6127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView showGridLines="0" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>107</v>
@@ -6634,10 +6634,10 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B77" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B78" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C78" s="26">
         <v>10</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>106</v>
@@ -6817,10 +6817,10 @@
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B98" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B99" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C99" s="26">
         <v>10</v>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,24 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B85AEB2-5459-4E3E-9E97-FE7F1BC94230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7945DE7-3F3B-4325-B64C-B7C92D0AA414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
     <sheet name="미니게임 5" sheetId="2" r:id="rId2"/>
     <sheet name="미니게임 5 규칙" sheetId="7" r:id="rId3"/>
     <sheet name="미니게임 5 표" sheetId="8" r:id="rId4"/>
-    <sheet name="미니게임 5 UI" sheetId="9" r:id="rId5"/>
-    <sheet name="미니게임 6" sheetId="3" r:id="rId6"/>
-    <sheet name="미니게임 6 규칙" sheetId="4" r:id="rId7"/>
-    <sheet name="미니게임 6 표" sheetId="6" r:id="rId8"/>
-    <sheet name="미니게임 6 UI" sheetId="5" r:id="rId9"/>
-    <sheet name="미니게임 3" sheetId="10" r:id="rId10"/>
-    <sheet name="미니게임 3 규칙" sheetId="11" r:id="rId11"/>
-    <sheet name="미니게임 3 표" sheetId="12" r:id="rId12"/>
-    <sheet name="미니게임 3 UI" sheetId="13" r:id="rId13"/>
+    <sheet name="미니게임 5 데이터" sheetId="14" r:id="rId5"/>
+    <sheet name="미니게임 5 UI" sheetId="9" r:id="rId6"/>
+    <sheet name="미니게임 6" sheetId="3" r:id="rId7"/>
+    <sheet name="미니게임 6 규칙" sheetId="4" r:id="rId8"/>
+    <sheet name="미니게임 6 표" sheetId="6" r:id="rId9"/>
+    <sheet name="미니게임 6 데이터" sheetId="15" r:id="rId10"/>
+    <sheet name="미니게임 6 UI" sheetId="5" r:id="rId11"/>
+    <sheet name="미니게임 3" sheetId="10" r:id="rId12"/>
+    <sheet name="미니게임 3 규칙" sheetId="11" r:id="rId13"/>
+    <sheet name="미니게임 3 표" sheetId="12" r:id="rId14"/>
+    <sheet name="미니게임 3 데이터" sheetId="16" r:id="rId15"/>
+    <sheet name="미니게임 3 UI" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="494">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,35 +367,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 1) 적용대상의 모든 이동 속도는 통일한다.(길, 장애물, 아이템, 재화의 이동속도는 동일하다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 2) 게임 시작 직후, 이동 속도는</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이다.</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2147,10 +2121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5~24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> 2) 게임 시작 직후, 이동 속도는</t>
     </r>
@@ -2188,11 +2158,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4~14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길너비(px)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.제한시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.오브젝트 이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.오브젝트 이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.길(HARD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3087,7 +3109,7 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -3121,7 +3143,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -3139,307 +3161,307 @@
     </row>
     <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B6" s="14"/>
       <c r="E6" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="E7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="E12" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="E14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A15" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="E16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="E17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A18" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="E18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E27" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I28" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3455,148 +3477,1174 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031FB8E1-EF80-47BC-8299-35870A46155A}">
-  <dimension ref="A1:A31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F67906-FFE2-4A09-8F54-C21B3CA2F4FF}">
+  <dimension ref="B2:I66"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="J58" sqref="J4:J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>720</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>720</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>720</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>720</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>720</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>720</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>720</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>720</v>
+      </c>
+      <c r="E13" s="3">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
+        <v>7</v>
+      </c>
+      <c r="I13" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>720</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>720</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6</v>
+      </c>
+      <c r="H15" s="3">
+        <v>9</v>
+      </c>
+      <c r="I15" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>720</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="3">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3">
+        <f>720-(B17-10)*15</f>
+        <v>705</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3">
+        <v>11</v>
+      </c>
+      <c r="I17" s="3">
+        <f>720-(H17-10)*17</f>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="3">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3">
+        <f>720-(B18-10)*15</f>
+        <v>690</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7</v>
+      </c>
+      <c r="H18" s="3">
+        <v>12</v>
+      </c>
+      <c r="I18" s="3">
+        <f>720-(H18-10)*17</f>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="3">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19:C36" si="0">720-(B19-10)*15</f>
+        <v>675</v>
+      </c>
+      <c r="E19" s="3">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3">
+        <v>13</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" ref="I19:I36" si="1">720-(H19-10)*17</f>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="3">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="E20" s="3">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7</v>
+      </c>
+      <c r="H20" s="3">
+        <v>14</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="1"/>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="3">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>645</v>
+      </c>
+      <c r="E21" s="3">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="1"/>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="3">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E22" s="3">
+        <v>16</v>
+      </c>
+      <c r="F22" s="3">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3">
+        <v>16</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="1"/>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="3">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>615</v>
+      </c>
+      <c r="E23" s="3">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3">
+        <v>17</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="1"/>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="3">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>18</v>
+      </c>
+      <c r="F24" s="3">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
+        <v>18</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="1"/>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="3">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+      <c r="E25" s="3">
+        <v>19</v>
+      </c>
+      <c r="F25" s="3">
+        <v>8</v>
+      </c>
+      <c r="H25" s="3">
+        <v>19</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="1"/>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="3">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="E26" s="3">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3">
+        <v>9</v>
+      </c>
+      <c r="H26" s="3">
+        <v>20</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="3">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>555</v>
+      </c>
+      <c r="E27" s="3">
+        <v>21</v>
+      </c>
+      <c r="F27" s="3">
+        <v>9</v>
+      </c>
+      <c r="H27" s="3">
+        <v>21</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="1"/>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="3">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="E28" s="3">
+        <v>22</v>
+      </c>
+      <c r="F28" s="3">
+        <v>9</v>
+      </c>
+      <c r="H28" s="3">
+        <v>22</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="1"/>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="3">
+        <v>23</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="E29" s="3">
+        <v>23</v>
+      </c>
+      <c r="F29" s="3">
+        <v>9</v>
+      </c>
+      <c r="H29" s="3">
+        <v>23</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="1"/>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="3">
+        <v>24</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="E30" s="3">
+        <v>24</v>
+      </c>
+      <c r="F30" s="3">
+        <v>9</v>
+      </c>
+      <c r="H30" s="3">
+        <v>24</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="1"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="3">
+        <v>25</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+      <c r="E31" s="3">
+        <v>25</v>
+      </c>
+      <c r="F31" s="3">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3">
+        <v>25</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="3">
+        <v>26</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="H32" s="3">
+        <v>26</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="1"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="3">
+        <v>27</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="H33" s="3">
+        <v>27</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="1"/>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="3">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="H34" s="3">
+        <v>28</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="1"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="3">
+        <v>29</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="H35" s="3">
+        <v>29</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="1"/>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="3">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="H36" s="3">
+        <v>30</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="3">
+        <v>31</v>
+      </c>
+      <c r="C37" s="3">
+        <f>420-(B37-30)*5</f>
+        <v>415</v>
+      </c>
+      <c r="H37" s="3">
+        <v>31</v>
+      </c>
+      <c r="I37" s="3">
+        <f>380-(H37-30)*6</f>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="3">
+        <v>32</v>
+      </c>
+      <c r="C38" s="3">
+        <f>420-(B38-30)*5</f>
+        <v>410</v>
+      </c>
+      <c r="H38" s="3">
+        <v>32</v>
+      </c>
+      <c r="I38" s="3">
+        <f>380-(H38-30)*6</f>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="3">
+        <v>33</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" ref="C39:C66" si="2">420-(B39-30)*5</f>
+        <v>405</v>
+      </c>
+      <c r="H39" s="3">
+        <v>33</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" ref="I39:I66" si="3">380-(H39-30)*6</f>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B40" s="3">
+        <v>34</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="H40" s="3">
+        <v>34</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="3"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="3">
+        <v>35</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="2"/>
+        <v>395</v>
+      </c>
+      <c r="H41" s="3">
+        <v>35</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="3">
+        <v>36</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="2"/>
+        <v>390</v>
+      </c>
+      <c r="H42" s="3">
+        <v>36</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="3"/>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="3">
+        <v>37</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="2"/>
+        <v>385</v>
+      </c>
+      <c r="H43" s="3">
+        <v>37</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="3"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="3">
+        <v>38</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+      <c r="H44" s="3">
+        <v>38</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="3"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="3">
+        <v>39</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+      <c r="H45" s="3">
+        <v>39</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="3"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="3">
+        <v>40</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="2"/>
+        <v>370</v>
+      </c>
+      <c r="H46" s="3">
+        <v>40</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47" s="3">
+        <v>41</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="H47" s="3">
+        <v>41</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="3"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B48" s="3">
+        <v>42</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="H48" s="3">
+        <v>42</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="3"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B49" s="3">
+        <v>43</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="2"/>
+        <v>355</v>
+      </c>
+      <c r="H49" s="3">
+        <v>43</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="3"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50" s="3">
+        <v>44</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="H50" s="3">
+        <v>44</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="3"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B51" s="3">
+        <v>45</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="H51" s="3">
+        <v>45</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B52" s="3">
+        <v>46</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="H52" s="3">
+        <v>46</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="3"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B53" s="3">
+        <v>47</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="2"/>
+        <v>335</v>
+      </c>
+      <c r="H53" s="3">
+        <v>47</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="3"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B54" s="3">
+        <v>48</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="H54" s="3">
+        <v>48</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="3"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B55" s="3">
+        <v>49</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="H55" s="3">
+        <v>49</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="3"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B56" s="3">
+        <v>50</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="H56" s="3">
+        <v>50</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="3"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B57" s="3">
+        <v>51</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="H57" s="3">
+        <v>51</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B58" s="3">
+        <v>52</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="H58" s="3">
+        <v>52</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="3"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B59" s="3">
+        <v>53</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="H59" s="3">
+        <v>53</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B60" s="3">
+        <v>54</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>54</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B61" s="3">
+        <v>55</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="2"/>
         <v>295</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>331</v>
+      <c r="H61" s="3">
+        <v>55</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B62" s="3">
+        <v>56</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="H62" s="3">
+        <v>56</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B63" s="3">
+        <v>57</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="H63" s="3">
+        <v>57</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B64" s="3">
+        <v>58</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="H64" s="3">
+        <v>58</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B65" s="3">
+        <v>59</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="H65" s="3">
+        <v>59</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B66" s="3">
+        <v>60</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="H66" s="3">
+        <v>60</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3607,11 +4655,193 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A993A-8529-4947-B0EF-4BB2CAC8584D}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031FB8E1-EF80-47BC-8299-35870A46155A}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED91DED-E90A-4CB0-ACB1-3C7604F9766B}">
   <dimension ref="B2:G78"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="80" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3622,7 +4852,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="E2" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -3659,232 +4889,232 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
@@ -3894,97 +5124,97 @@
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="5" t="s">
-        <v>69</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" s="5" t="s">
-        <v>70</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" s="5" t="s">
-        <v>71</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B76" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -4000,38 +5230,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332D9D3B-73B0-4612-A28A-25F572744D3C}">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="3">
@@ -4040,7 +5270,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="3">
@@ -4049,52 +5279,52 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -4103,11 +5333,11 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
@@ -4116,11 +5346,11 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -4129,21 +5359,21 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -4152,11 +5382,11 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -4165,11 +5395,11 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -4178,20 +5408,20 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -4212,20 +5442,20 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
@@ -4235,10 +5465,10 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+      <c r="C36" s="26">
+        <v>5</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
@@ -4248,10 +5478,10 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="7" t="s">
-        <v>130</v>
+        <v>481</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>132</v>
+        <v>472</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
@@ -4261,10 +5491,10 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>132</v>
+        <v>473</v>
+      </c>
+      <c r="C38" s="26">
+        <v>10</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
@@ -4274,21 +5504,21 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
@@ -4297,11 +5527,11 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44" s="26"/>
       <c r="D44" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
@@ -4310,11 +5540,11 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
@@ -4323,21 +5553,21 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -4346,11 +5576,11 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B50" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
@@ -4359,11 +5589,11 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B51" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
@@ -4375,15 +5605,15 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
@@ -4393,10 +5623,10 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B55" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
@@ -4406,10 +5636,10 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
@@ -4419,10 +5649,10 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B57" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="26" t="s">
         <v>131</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>132</v>
       </c>
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
@@ -4432,59 +5662,61 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B59" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B60" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C60" s="27"/>
       <c r="D60" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B61" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B62" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C62" s="27"/>
       <c r="D62" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B63" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:H45"/>
     <mergeCell ref="B11:C11"/>
@@ -4501,20 +5733,18 @@
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:H23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4522,7 +5752,252 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7BEF0C-85EE-4382-B426-51C8D6A69D93}">
+  <dimension ref="B2:C31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="3">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="3">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="3">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" s="3">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="3">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="3">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="3">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="3">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B25" s="3">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="3">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27" s="3">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28" s="3">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29" s="3">
+        <v>23</v>
+      </c>
+      <c r="C29" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B30" s="3">
+        <v>24</v>
+      </c>
+      <c r="C30" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B31" s="3">
+        <v>25</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A40334-E83D-47E0-878C-B43B575D076F}">
   <dimension ref="A1:A28"/>
   <sheetViews>
@@ -4534,12 +6009,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -4553,7 +6028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="93" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="93" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -4561,137 +6036,137 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -4705,7 +6180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
   <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="79" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A42" zoomScale="79" workbookViewId="0">
       <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
@@ -4735,62 +6210,62 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
@@ -4798,202 +6273,202 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -5010,33 +6485,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBB3E87-1D6D-43A2-BF75-5347FC05D11E}">
   <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E32" sqref="E20:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
@@ -5044,7 +6519,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" s="3">
         <v>50</v>
@@ -5052,26 +6527,26 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="3">
@@ -5080,7 +6555,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="3">
@@ -5089,7 +6564,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="3">
@@ -5098,7 +6573,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="3">
@@ -5107,86 +6582,86 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>221</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>222</v>
       </c>
       <c r="D30" s="26"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C31" s="26">
         <v>5</v>
@@ -5195,16 +6670,16 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D32" s="26"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C33" s="26">
         <v>0.5</v>
@@ -5213,26 +6688,26 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>221</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>222</v>
       </c>
       <c r="D38" s="26"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C39" s="26">
         <v>8</v>
@@ -5241,16 +6716,16 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D40" s="26"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C41" s="26">
         <v>0.8</v>
@@ -5259,86 +6734,86 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="26" t="s">
         <v>221</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>222</v>
       </c>
       <c r="D53" s="26"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C54" s="26">
         <v>3</v>
@@ -5347,16 +6822,16 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D55" s="26"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C56" s="26">
         <v>0.5</v>
@@ -5365,6 +6840,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
@@ -5373,25 +6867,6 @@
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5400,6 +6875,155 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BEBDCE-A41C-4FCE-B438-F4B58F73C849}">
+  <dimension ref="B2:C19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15" s="3">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="3">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="3">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="3">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="3">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9DF611-4E09-4BB1-9B62-40497D2558E2}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5411,18 +7035,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" t="s">
         <v>225</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>226</v>
-      </c>
-      <c r="I2" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5432,11 +7056,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -5454,7 +7078,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -5504,12 +7128,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
@@ -5529,7 +7153,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
@@ -5584,27 +7208,27 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5614,12 +7238,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
   <dimension ref="B2:AG61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5638,11 +7262,11 @@
         <v>1280</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y3" s="11"/>
       <c r="Z3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.4">
@@ -5687,7 +7311,7 @@
         <v>35</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -5700,7 +7324,7 @@
         <v>32</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
@@ -5718,7 +7342,7 @@
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>60</v>
@@ -5726,7 +7350,7 @@
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
@@ -5734,11 +7358,11 @@
         <v>31</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y13" s="11"/>
       <c r="Z13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.4">
@@ -5751,7 +7375,7 @@
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>34</v>
@@ -5759,7 +7383,7 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>35</v>
@@ -5767,7 +7391,7 @@
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V17" s="10" t="s">
         <v>32</v>
@@ -5805,7 +7429,7 @@
         <v>38</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -5824,7 +7448,7 @@
         <v>39</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -5878,7 +7502,7 @@
         <v>42</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.4">
@@ -5886,7 +7510,7 @@
         <v>43</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.4">
@@ -5944,7 +7568,7 @@
         <v>47</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
@@ -5960,7 +7584,7 @@
         <v>48</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
@@ -5976,7 +7600,7 @@
         <v>49</v>
       </c>
       <c r="V33" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
@@ -6067,17 +7691,17 @@
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
@@ -6085,32 +7709,32 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6123,12 +7747,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView showGridLines="0" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6138,20 +7762,20 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>75</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -6162,10 +7786,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -6176,10 +7800,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -6190,10 +7814,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -6204,10 +7828,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>84</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -6218,21 +7842,21 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="3">
@@ -6241,7 +7865,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="3">
@@ -6250,7 +7874,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="3">
@@ -6259,7 +7883,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="3">
@@ -6268,7 +7892,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="3">
@@ -6277,7 +7901,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="3">
@@ -6286,7 +7910,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="3">
@@ -6295,20 +7919,20 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>103</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>104</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -6317,10 +7941,10 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>105</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>106</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -6329,10 +7953,10 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -6341,20 +7965,20 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="3">
         <v>20</v>
@@ -6362,7 +7986,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="3">
         <v>20</v>
@@ -6370,7 +7994,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="3">
         <v>20</v>
@@ -6378,7 +8002,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="3">
         <v>20</v>
@@ -6386,7 +8010,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="3">
         <v>20</v>
@@ -6394,30 +8018,30 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="3">
         <v>30</v>
@@ -6433,25 +8057,25 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B44" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B46" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B48" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C48" s="3">
         <v>20</v>
@@ -6459,7 +8083,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B49" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" s="3">
         <v>20</v>
@@ -6467,7 +8091,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B50" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="3">
         <v>20</v>
@@ -6475,7 +8099,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51" s="3">
         <v>20</v>
@@ -6483,7 +8107,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B52" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C52" s="3">
         <v>20</v>
@@ -6491,35 +8115,35 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B53" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B54" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B56" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B58" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C60" s="3">
         <v>30</v>
@@ -6535,25 +8159,25 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B62" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B66" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C66" s="3">
         <v>20</v>
@@ -6561,7 +8185,7 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B67" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C67" s="3">
         <v>20</v>
@@ -6569,7 +8193,7 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B68" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C68" s="3">
         <v>20</v>
@@ -6577,7 +8201,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B69" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C69" s="3">
         <v>20</v>
@@ -6585,7 +8209,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B70" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C70" s="3">
         <v>20</v>
@@ -6593,25 +8217,25 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B71" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B72" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B74" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B75" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
@@ -6621,7 +8245,7 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B76" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C76" s="26">
         <v>5</v>
@@ -6634,10 +8258,10 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B77" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
@@ -6647,7 +8271,7 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B78" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C78" s="26">
         <v>10</v>
@@ -6660,20 +8284,20 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B83" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="26" t="s">
         <v>103</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>104</v>
       </c>
       <c r="D83" s="26"/>
       <c r="E83" s="26"/>
@@ -6682,10 +8306,10 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D84" s="26"/>
       <c r="E84" s="26"/>
@@ -6694,10 +8318,10 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D85" s="26"/>
       <c r="E85" s="26"/>
@@ -6706,20 +8330,20 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B89" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>75</v>
       </c>
       <c r="D89" s="26"/>
       <c r="E89" s="26"/>
@@ -6730,10 +8354,10 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B90" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D90" s="26"/>
       <c r="E90" s="26"/>
@@ -6744,10 +8368,10 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B91" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D91" s="26"/>
       <c r="E91" s="26"/>
@@ -6758,10 +8382,10 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B92" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D92" s="26"/>
       <c r="E92" s="26"/>
@@ -6772,10 +8396,10 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B93" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D93" s="26"/>
       <c r="E93" s="26"/>
@@ -6786,15 +8410,15 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B96" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D96" s="26"/>
       <c r="E96" s="26"/>
@@ -6804,7 +8428,7 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B97" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C97" s="26">
         <v>7</v>
@@ -6817,10 +8441,10 @@
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B98" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
@@ -6830,7 +8454,7 @@
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B99" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C99" s="26">
         <v>10</v>
@@ -6843,22 +8467,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -6869,45 +8483,25 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A993A-8529-4947-B0EF-4BB2CAC8584D}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7945DE7-3F3B-4325-B64C-B7C92D0AA414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECA896C-5385-40F5-BB2C-75F9DF6B636E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="499">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -950,14 +950,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)게임시작 시 휴식시간을 2번 적용한다.(1초의 휴식)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)매 판이 끝날 때마다, 만약 정답을 맞췄다면 휴식시간을 2번(1초의 휴식), 정답을 맞추지 못했다면 휴식시간을 1번 적용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5. 목숨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2215,6 +2207,34 @@
   </si>
   <si>
     <t>진행시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)게임시작 시 휴식시간을 4번 적용한다.(2초의 휴식)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)매 판이 끝날 때마다, 만약 정답을 맞췄다면 휴식시간을 4번(2초의 휴식), 정답을 맞추지 못했다면 휴식시간을 3번 적용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)길의 너비는 400px로 고정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 장애물의 사이즈는 100x100px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아이템의 사이즈는 80x80px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 재화의 사이즈는 80x80px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)캐릭터의 사이즈는 90x90px이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2285,7 +2305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2319,6 +2339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2363,7 +2389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2380,9 +2406,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -2447,6 +2470,24 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3079,389 +3120,389 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B258DF-837D-4076-BBF7-BF5D380622B5}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
+      <c r="A4" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
     </row>
     <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="E6" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="E7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A8" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="E6" s="1" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="E8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I8" t="s">
+        <v>256</v>
+      </c>
+      <c r="M8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A9" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="E9" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A7" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="E7" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="I9" t="s">
+        <v>257</v>
+      </c>
+      <c r="M9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="E10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I10" t="s">
+        <v>258</v>
+      </c>
+      <c r="M10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="E11" t="s">
+        <v>259</v>
+      </c>
+      <c r="I11" t="s">
+        <v>269</v>
+      </c>
+      <c r="M11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="E12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I12" t="s">
+        <v>270</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A13" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="E13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A14" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="E14" t="s">
+        <v>261</v>
+      </c>
+      <c r="I14" t="s">
+        <v>271</v>
+      </c>
+      <c r="M14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A15" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="E15" t="s">
+        <v>262</v>
+      </c>
+      <c r="I15" t="s">
+        <v>272</v>
+      </c>
+      <c r="M15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A16" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="E16" t="s">
+        <v>263</v>
+      </c>
+      <c r="I16" t="s">
+        <v>273</v>
+      </c>
+      <c r="M16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A17" s="19" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="E8" t="s">
-        <v>258</v>
-      </c>
-      <c r="I8" t="s">
-        <v>258</v>
-      </c>
-      <c r="M8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="E9" t="s">
-        <v>259</v>
-      </c>
-      <c r="I9" t="s">
-        <v>259</v>
-      </c>
-      <c r="M9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="E10" t="s">
-        <v>260</v>
-      </c>
-      <c r="I10" t="s">
-        <v>260</v>
-      </c>
-      <c r="M10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="E11" t="s">
-        <v>261</v>
-      </c>
-      <c r="I11" t="s">
-        <v>271</v>
-      </c>
-      <c r="M11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="E12" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I12" t="s">
-        <v>272</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="E17" t="s">
+        <v>266</v>
+      </c>
+      <c r="I17" t="s">
+        <v>274</v>
+      </c>
+      <c r="M17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A18" s="19" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="E13" t="s">
-        <v>262</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="M13" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A14" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="E14" t="s">
-        <v>263</v>
-      </c>
-      <c r="I14" t="s">
-        <v>273</v>
-      </c>
-      <c r="M14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="E15" t="s">
-        <v>264</v>
-      </c>
-      <c r="I15" t="s">
-        <v>274</v>
-      </c>
-      <c r="M15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="E16" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="E18" t="s">
         <v>265</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I18" t="s">
         <v>275</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M18" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A17" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="E17" t="s">
-        <v>268</v>
-      </c>
-      <c r="I17" t="s">
-        <v>276</v>
-      </c>
-      <c r="M17" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A18" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="E18" t="s">
-        <v>267</v>
-      </c>
-      <c r="I18" t="s">
-        <v>277</v>
-      </c>
-      <c r="M18" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M19" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M23" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M24" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E25" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M25" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M26" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E27" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I28" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3481,67 +3522,75 @@
   <dimension ref="B2:I66"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J58" sqref="J4:J58"/>
+      <selection activeCell="H2" sqref="H2:I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+      <c r="B2" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="E2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="E2" t="s">
-        <v>487</v>
-      </c>
-      <c r="H2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C5" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>484</v>
+      <c r="H5" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="3">
+      <c r="B6" s="28">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="28">
         <v>720</v>
       </c>
       <c r="E6" s="3">
@@ -3550,18 +3599,18 @@
       <c r="F6" s="3">
         <v>5</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="28">
         <v>0</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="28">
         <v>720</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="3">
+      <c r="B7" s="28">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="28">
         <v>720</v>
       </c>
       <c r="E7" s="3">
@@ -3570,18 +3619,18 @@
       <c r="F7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="28">
         <v>1</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="28">
         <v>720</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="3">
+      <c r="B8" s="28">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="28">
         <v>720</v>
       </c>
       <c r="E8" s="3">
@@ -3590,18 +3639,18 @@
       <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="28">
         <v>2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="28">
         <v>720</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="3">
+      <c r="B9" s="28">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="28">
         <v>720</v>
       </c>
       <c r="E9" s="3">
@@ -3610,18 +3659,18 @@
       <c r="F9" s="3">
         <v>5</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="28">
         <v>3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="28">
         <v>720</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="3">
+      <c r="B10" s="28">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="28">
         <v>720</v>
       </c>
       <c r="E10" s="3">
@@ -3630,18 +3679,18 @@
       <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="28">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="28">
         <v>720</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="3">
+      <c r="B11" s="28">
         <v>5</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="28">
         <v>720</v>
       </c>
       <c r="E11" s="3">
@@ -3650,18 +3699,18 @@
       <c r="F11" s="3">
         <v>6</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="28">
         <v>5</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="28">
         <v>720</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="3">
+      <c r="B12" s="28">
         <v>6</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="28">
         <v>720</v>
       </c>
       <c r="E12" s="3">
@@ -3670,18 +3719,18 @@
       <c r="F12" s="3">
         <v>6</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="28">
         <v>6</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="28">
         <v>720</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="3">
+      <c r="B13" s="28">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="28">
         <v>720</v>
       </c>
       <c r="E13" s="3">
@@ -3690,18 +3739,18 @@
       <c r="F13" s="3">
         <v>6</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="28">
         <v>7</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="28">
         <v>720</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="3">
+      <c r="B14" s="28">
         <v>8</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="28">
         <v>720</v>
       </c>
       <c r="E14" s="3">
@@ -3710,18 +3759,18 @@
       <c r="F14" s="3">
         <v>6</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="28">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="28">
         <v>720</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="3">
+      <c r="B15" s="28">
         <v>9</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="28">
         <v>720</v>
       </c>
       <c r="E15" s="3">
@@ -3730,18 +3779,18 @@
       <c r="F15" s="3">
         <v>6</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="28">
         <v>9</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="28">
         <v>720</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="3">
+      <c r="B16" s="28">
         <v>10</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="28">
         <v>720</v>
       </c>
       <c r="E16" s="3">
@@ -3750,18 +3799,18 @@
       <c r="F16" s="3">
         <v>7</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="28">
         <v>10</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="28">
         <v>720</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="3">
+      <c r="B17" s="28">
         <v>11</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="28">
         <f>720-(B17-10)*15</f>
         <v>705</v>
       </c>
@@ -3771,19 +3820,19 @@
       <c r="F17" s="3">
         <v>7</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="28">
         <v>11</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="28">
         <f>720-(H17-10)*17</f>
         <v>703</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="3">
+      <c r="B18" s="28">
         <v>12</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="28">
         <f>720-(B18-10)*15</f>
         <v>690</v>
       </c>
@@ -3793,19 +3842,19 @@
       <c r="F18" s="3">
         <v>7</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="28">
         <v>12</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="28">
         <f>720-(H18-10)*17</f>
         <v>686</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="3">
+      <c r="B19" s="28">
         <v>13</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="28">
         <f t="shared" ref="C19:C36" si="0">720-(B19-10)*15</f>
         <v>675</v>
       </c>
@@ -3815,19 +3864,19 @@
       <c r="F19" s="3">
         <v>7</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="28">
         <v>13</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="28">
         <f t="shared" ref="I19:I36" si="1">720-(H19-10)*17</f>
         <v>669</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="3">
+      <c r="B20" s="28">
         <v>14</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="28">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
@@ -3837,19 +3886,19 @@
       <c r="F20" s="3">
         <v>7</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="28">
         <v>14</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="28">
         <f t="shared" si="1"/>
         <v>652</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="3">
+      <c r="B21" s="28">
         <v>15</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="28">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
@@ -3859,19 +3908,19 @@
       <c r="F21" s="3">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="28">
         <v>15</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="28">
         <f t="shared" si="1"/>
         <v>635</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="3">
+      <c r="B22" s="28">
         <v>16</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="28">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
@@ -3881,19 +3930,19 @@
       <c r="F22" s="3">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="28">
         <v>16</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="28">
         <f t="shared" si="1"/>
         <v>618</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="3">
+      <c r="B23" s="28">
         <v>17</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="28">
         <f t="shared" si="0"/>
         <v>615</v>
       </c>
@@ -3903,19 +3952,19 @@
       <c r="F23" s="3">
         <v>8</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="28">
         <v>17</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="28">
         <f t="shared" si="1"/>
         <v>601</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="3">
+      <c r="B24" s="28">
         <v>18</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="28">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
@@ -3925,19 +3974,19 @@
       <c r="F24" s="3">
         <v>8</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="28">
         <v>18</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="28">
         <f t="shared" si="1"/>
         <v>584</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="3">
+      <c r="B25" s="28">
         <v>19</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="28">
         <f t="shared" si="0"/>
         <v>585</v>
       </c>
@@ -3947,19 +3996,19 @@
       <c r="F25" s="3">
         <v>8</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="28">
         <v>19</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="28">
         <f t="shared" si="1"/>
         <v>567</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="3">
+      <c r="B26" s="28">
         <v>20</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="28">
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
@@ -3969,19 +4018,19 @@
       <c r="F26" s="3">
         <v>9</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="28">
         <v>20</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="28">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="3">
+      <c r="B27" s="28">
         <v>21</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="28">
         <f t="shared" si="0"/>
         <v>555</v>
       </c>
@@ -3991,19 +4040,19 @@
       <c r="F27" s="3">
         <v>9</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="28">
         <v>21</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="28">
         <f t="shared" si="1"/>
         <v>533</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="3">
+      <c r="B28" s="28">
         <v>22</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="28">
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
@@ -4013,19 +4062,19 @@
       <c r="F28" s="3">
         <v>9</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="28">
         <v>22</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="28">
         <f t="shared" si="1"/>
         <v>516</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="3">
+      <c r="B29" s="28">
         <v>23</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="28">
         <f t="shared" si="0"/>
         <v>525</v>
       </c>
@@ -4035,19 +4084,19 @@
       <c r="F29" s="3">
         <v>9</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="28">
         <v>23</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="28">
         <f t="shared" si="1"/>
         <v>499</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="3">
+      <c r="B30" s="28">
         <v>24</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="28">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
@@ -4057,19 +4106,19 @@
       <c r="F30" s="3">
         <v>9</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="28">
         <v>24</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="28">
         <f t="shared" si="1"/>
         <v>482</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="3">
+      <c r="B31" s="28">
         <v>25</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="28">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
@@ -4079,570 +4128,570 @@
       <c r="F31" s="3">
         <v>10</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="28">
         <v>25</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="28">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="3">
+      <c r="B32" s="28">
         <v>26</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="28">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="28">
         <v>26</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="28">
         <f t="shared" si="1"/>
         <v>448</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="3">
+      <c r="B33" s="28">
         <v>27</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="28">
         <f t="shared" si="0"/>
         <v>465</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="28">
         <v>27</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="28">
         <f t="shared" si="1"/>
         <v>431</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="3">
+      <c r="B34" s="28">
         <v>28</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="28">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="28">
         <v>28</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="28">
         <f t="shared" si="1"/>
         <v>414</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="3">
+      <c r="B35" s="28">
         <v>29</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="28">
         <f t="shared" si="0"/>
         <v>435</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="28">
         <v>29</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="28">
         <f t="shared" si="1"/>
         <v>397</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="3">
+      <c r="B36" s="28">
         <v>30</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="28">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="28">
         <v>30</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="28">
         <f t="shared" si="1"/>
         <v>380</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="3">
+      <c r="B37" s="28">
         <v>31</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="28">
         <f>420-(B37-30)*5</f>
         <v>415</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="28">
         <v>31</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="28">
         <f>380-(H37-30)*6</f>
         <v>374</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="3">
+      <c r="B38" s="28">
         <v>32</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="28">
         <f>420-(B38-30)*5</f>
         <v>410</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="28">
         <v>32</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="28">
         <f>380-(H38-30)*6</f>
         <v>368</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="3">
+      <c r="B39" s="28">
         <v>33</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="28">
         <f t="shared" ref="C39:C66" si="2">420-(B39-30)*5</f>
         <v>405</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="28">
         <v>33</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="28">
         <f t="shared" ref="I39:I66" si="3">380-(H39-30)*6</f>
         <v>362</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="3">
+      <c r="B40" s="28">
         <v>34</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="28">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="28">
         <v>34</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="28">
         <f t="shared" si="3"/>
         <v>356</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="3">
+      <c r="B41" s="28">
         <v>35</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="28">
         <f t="shared" si="2"/>
         <v>395</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="28">
         <v>35</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="28">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="3">
+      <c r="B42" s="28">
         <v>36</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="28">
         <f t="shared" si="2"/>
         <v>390</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="28">
         <v>36</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="28">
         <f t="shared" si="3"/>
         <v>344</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="3">
+      <c r="B43" s="28">
         <v>37</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="28">
         <f t="shared" si="2"/>
         <v>385</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="28">
         <v>37</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="28">
         <f t="shared" si="3"/>
         <v>338</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="3">
+      <c r="B44" s="28">
         <v>38</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="28">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="28">
         <v>38</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="28">
         <f t="shared" si="3"/>
         <v>332</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="3">
+      <c r="B45" s="28">
         <v>39</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="28">
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="28">
         <v>39</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="28">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="3">
+      <c r="B46" s="28">
         <v>40</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="28">
         <f t="shared" si="2"/>
         <v>370</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="28">
         <v>40</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="28">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="3">
+      <c r="B47" s="28">
         <v>41</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="28">
         <f t="shared" si="2"/>
         <v>365</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="28">
         <v>41</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="28">
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="3">
+      <c r="B48" s="28">
         <v>42</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="28">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="28">
         <v>42</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="28">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="3">
+      <c r="B49" s="28">
         <v>43</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="28">
         <f t="shared" si="2"/>
         <v>355</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="28">
         <v>43</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="28">
         <f t="shared" si="3"/>
         <v>302</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="3">
+      <c r="B50" s="28">
         <v>44</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="28">
         <f t="shared" si="2"/>
         <v>350</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="28">
         <v>44</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="28">
         <f t="shared" si="3"/>
         <v>296</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="3">
+      <c r="B51" s="28">
         <v>45</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="28">
         <f t="shared" si="2"/>
         <v>345</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="28">
         <v>45</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="28">
         <f t="shared" si="3"/>
         <v>290</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="3">
+      <c r="B52" s="28">
         <v>46</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="28">
         <f t="shared" si="2"/>
         <v>340</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="28">
         <v>46</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="28">
         <f t="shared" si="3"/>
         <v>284</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="3">
+      <c r="B53" s="28">
         <v>47</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="28">
         <f t="shared" si="2"/>
         <v>335</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="28">
         <v>47</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="28">
         <f t="shared" si="3"/>
         <v>278</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B54" s="3">
+      <c r="B54" s="28">
         <v>48</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="28">
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="28">
         <v>48</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="28">
         <f t="shared" si="3"/>
         <v>272</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="3">
+      <c r="B55" s="28">
         <v>49</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="28">
         <f t="shared" si="2"/>
         <v>325</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="28">
         <v>49</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="28">
         <f t="shared" si="3"/>
         <v>266</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="3">
+      <c r="B56" s="28">
         <v>50</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="28">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="28">
         <v>50</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="28">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B57" s="3">
+      <c r="B57" s="28">
         <v>51</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="28">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="28">
         <v>51</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="28">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="3">
+      <c r="B58" s="28">
         <v>52</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="28">
         <f t="shared" si="2"/>
         <v>310</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="28">
         <v>52</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="28">
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B59" s="3">
+      <c r="B59" s="28">
         <v>53</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="28">
         <f t="shared" si="2"/>
         <v>305</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="28">
         <v>53</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="28">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="3">
+      <c r="B60" s="28">
         <v>54</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="28">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="28">
         <v>54</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="28">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="3">
+      <c r="B61" s="28">
         <v>55</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="28">
         <f t="shared" si="2"/>
         <v>295</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="28">
         <v>55</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="28">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="3">
+      <c r="B62" s="28">
         <v>56</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="28">
         <f t="shared" si="2"/>
         <v>290</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="28">
         <v>56</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="28">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="3">
+      <c r="B63" s="28">
         <v>57</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="28">
         <f t="shared" si="2"/>
         <v>285</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="28">
         <v>57</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="28">
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B64" s="3">
+      <c r="B64" s="28">
         <v>58</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="28">
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="28">
         <v>58</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="28">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B65" s="3">
+      <c r="B65" s="28">
         <v>59</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="28">
         <f t="shared" si="2"/>
         <v>275</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="28">
         <v>59</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="28">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B66" s="3">
+      <c r="B66" s="28">
         <v>60</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="28">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="28">
         <v>60</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="28">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
@@ -4658,7 +4707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A993A-8529-4947-B0EF-4BB2CAC8584D}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -4696,32 +4745,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
@@ -4731,27 +4780,27 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -4761,22 +4810,22 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -4786,47 +4835,47 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -4840,22 +4889,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED91DED-E90A-4CB0-ACB1-3C7604F9766B}">
   <dimension ref="B2:G78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" workbookViewId="0">
       <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="E2" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -4867,10 +4916,10 @@
       <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>405</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
@@ -4882,164 +4931,164 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>720</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
@@ -5049,72 +5098,72 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
@@ -5124,97 +5173,97 @@
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B76" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -5242,186 +5291,186 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="25" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="26"/>
+      <c r="B7" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="25"/>
       <c r="D7" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="3" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="3" t="s">
-        <v>358</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="25" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="26" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="26" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -5442,65 +5491,65 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="25">
         <v>5</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>472</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
+      <c r="B37" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="C38" s="26">
+      <c r="B38" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C38" s="25">
         <v>10</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
@@ -5509,196 +5558,196 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B44" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B45" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B50" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B51" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B50" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B51" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B52" s="9"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B54" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B55" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B56" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B57" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B59" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B60" s="26" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B54" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B55" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B56" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B57" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B59" s="9" t="s">
+      <c r="C60" s="26"/>
+      <c r="D60" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B61" s="26" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B60" s="27" t="s">
+      <c r="C61" s="26"/>
+      <c r="D61" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B62" s="26" t="s">
         <v>399</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="3" t="s">
+      <c r="C62" s="26"/>
+      <c r="D62" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B61" s="27" t="s">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B63" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B62" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B63" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="C63" s="27"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -5757,30 +5806,30 @@
   <dimension ref="B2:C31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
@@ -6009,12 +6058,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -6028,7 +6077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="93" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="93" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -6036,12 +6085,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
-        <v>429</v>
+      <c r="A2" s="21" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
@@ -6051,12 +6100,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -6066,7 +6115,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -6081,7 +6130,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
@@ -6101,17 +6150,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
@@ -6121,7 +6170,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -6161,12 +6210,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -6180,17 +6229,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
   <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" zoomScale="79" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView showGridLines="0" topLeftCell="B23" zoomScale="79" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -6210,37 +6259,37 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
@@ -6260,12 +6309,12 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
@@ -6283,7 +6332,7 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
@@ -6293,7 +6342,7 @@
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
@@ -6303,17 +6352,17 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
@@ -6338,137 +6387,137 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>183</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>184</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -6485,25 +6534,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBB3E87-1D6D-43A2-BF75-5347FC05D11E}">
   <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E32" sqref="E20:E32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>88</v>
@@ -6511,7 +6560,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
@@ -6519,7 +6568,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C7" s="3">
         <v>50</v>
@@ -6527,316 +6576,316 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="25" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="26" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="26" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="26" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="3" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="26" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="3" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="3" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="D30" s="26"/>
+        <v>218</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C31" s="26">
+        <v>477</v>
+      </c>
+      <c r="C31" s="25">
         <v>5</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="D32" s="26"/>
+        <v>478</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C33" s="26">
+        <v>430</v>
+      </c>
+      <c r="C33" s="25">
         <v>0.5</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="D38" s="26"/>
+        <v>218</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C39" s="26">
+        <v>477</v>
+      </c>
+      <c r="C39" s="25">
         <v>8</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="25"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="D40" s="26"/>
+        <v>434</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="25"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C41" s="26">
+        <v>435</v>
+      </c>
+      <c r="C41" s="25">
         <v>0.8</v>
       </c>
-      <c r="D41" s="26"/>
+      <c r="D41" s="25"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="B45" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B46" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="26" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B47" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B48" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B49" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" s="26"/>
+        <v>218</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" s="25"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C54" s="26">
+        <v>477</v>
+      </c>
+      <c r="C54" s="25">
         <v>3</v>
       </c>
-      <c r="D54" s="26"/>
+      <c r="D54" s="25"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="D55" s="26"/>
+        <v>432</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D55" s="25"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C56" s="26">
+        <v>433</v>
+      </c>
+      <c r="C56" s="25">
         <v>0.5</v>
       </c>
-      <c r="D56" s="26"/>
+      <c r="D56" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -6878,20 +6927,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BEBDCE-A41C-4FCE-B438-F4B58F73C849}">
   <dimension ref="B2:C19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>73</v>
@@ -7035,18 +7084,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" t="s">
         <v>224</v>
-      </c>
-      <c r="E2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I2" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -7240,19 +7289,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
-  <dimension ref="B2:AG61"/>
+  <dimension ref="B2:AG66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:B53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -7264,7 +7313,7 @@
       <c r="V3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Y3" s="11"/>
+      <c r="Y3" s="10"/>
       <c r="Z3" t="s">
         <v>140</v>
       </c>
@@ -7297,444 +7346,535 @@
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="V7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="10" t="s">
+      <c r="V8" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="V9" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+      <c r="B10" s="27" t="s">
         <v>30</v>
       </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
       <c r="V10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+      <c r="B11" s="27" t="s">
         <v>84</v>
       </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
       <c r="V11" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+      <c r="B12" s="27" t="s">
         <v>85</v>
       </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+      <c r="B13" s="27" t="s">
         <v>31</v>
       </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
       <c r="V13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="Y13" s="11"/>
+      <c r="Y13" s="10"/>
       <c r="Z13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="2:27" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="V14" s="32"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B15" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>35</v>
+        <v>425</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="V17" s="10" t="s">
+      <c r="V18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="V18" s="11" t="s">
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="V19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V19" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="V21" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="V22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="B23" t="s">
+        <v>495</v>
+      </c>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>96</v>
+        <v>57</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="V27" s="1" t="s">
-        <v>65</v>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="V29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V30" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V30" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V31" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V32" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="V32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V33" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
+      <c r="B33" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B34" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V35" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V36" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B37" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B38" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B38" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B39" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B41" s="5" t="s">
-        <v>58</v>
+      <c r="B41" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B43" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B45" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B46" s="5" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B43" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B44" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B45" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B48" t="s">
-        <v>66</v>
+      <c r="B48" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B53" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B50" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B51" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B52" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B53" s="5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B54" s="5"/>
-    </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B55" s="1" t="s">
-        <v>170</v>
+      <c r="B55" s="5" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B57" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B58" s="1" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B61" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B63" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B59" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B60" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B61" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -7751,8 +7891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:H78"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88:I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7766,79 +7906,86 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="B4" s="27" t="s">
         <v>75</v>
       </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
@@ -7846,73 +7993,73 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="26"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="3">
         <v>5</v>
       </c>
@@ -7931,37 +8078,37 @@
       <c r="B25" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C27" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
@@ -7977,7 +8124,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C31" s="3">
@@ -7985,7 +8132,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C32" s="3">
@@ -7993,7 +8140,7 @@
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C33" s="3">
@@ -8001,7 +8148,7 @@
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C34" s="3">
@@ -8009,7 +8156,7 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C35" s="3">
@@ -8017,17 +8164,17 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>117</v>
       </c>
     </row>
@@ -8056,12 +8203,12 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8074,7 +8221,7 @@
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C48" s="3">
@@ -8082,7 +8229,7 @@
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="3">
@@ -8090,7 +8237,7 @@
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C50" s="3">
@@ -8098,7 +8245,7 @@
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C51" s="3">
@@ -8106,7 +8253,7 @@
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C52" s="3">
@@ -8114,22 +8261,22 @@
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>124</v>
       </c>
     </row>
@@ -8158,7 +8305,7 @@
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8176,7 +8323,7 @@
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C66" s="3">
@@ -8184,7 +8331,7 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C67" s="3">
@@ -8192,7 +8339,7 @@
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C68" s="3">
@@ -8200,7 +8347,7 @@
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C69" s="3">
@@ -8208,7 +8355,7 @@
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C70" s="3">
@@ -8216,71 +8363,71 @@
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="26">
+      <c r="C76" s="25">
         <v>5</v>
       </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B77" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>472</v>
-      </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
+      <c r="B77" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B78" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="C78" s="26">
+      <c r="B78" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C78" s="25">
         <v>10</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
@@ -8296,37 +8443,37 @@
       <c r="B83" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C85" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C85" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" s="1" t="s">
@@ -8334,79 +8481,86 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B88" t="s">
+      <c r="B88" s="27" t="s">
         <v>147</v>
       </c>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
@@ -8414,56 +8568,56 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C97" s="26">
+      <c r="C97" s="25">
         <v>7</v>
       </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B98" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
+      <c r="B98" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B99" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C99" s="26">
+      <c r="B99" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C99" s="25">
         <v>10</v>
       </c>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="32">

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECA896C-5385-40F5-BB2C-75F9DF6B636E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008079D5-6612-48B5-B26E-A6A4288140B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="12" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="508">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -930,10 +930,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)플레이어가 답을 맞췄음을 확인 했다면, 화면 중앙에 동그라미(O)표시를 띄운다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4. 휴식시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -974,10 +970,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)플레이어가 답을 잘못 골랐음을 확인 했다면, 화면 중앙에 엑스(X)표시를 띄운다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 4)플레이어가 답을 맞췄음을 확인 했다면, 그에 해당하는 점수를 총점에 더한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1915,14 +1907,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 7)각 난이도에 따른 변동사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)게임 진행 10초까지는 화면의 중간을 길 너비의 중간점으로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)게임 진행 10초 후 부터 길은 2초에 한 번 확률표에 의한 연산을 거쳐 꺾인다.(표 생성 예정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2226,15 +2210,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 아이템의 사이즈는 80x80px이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 재화의 사이즈는 80x80px이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)캐릭터의 사이즈는 90x90px이다.</t>
+    <t xml:space="preserve"> 1)게임 진행 5초까지는 화면의 중간을 길 너비의 중간점으로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)캐릭터의 사이즈는 80x80px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 재화의 사이즈는 70x70px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아이템의 사이즈는 70x70px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임 진행 5초 후 부터 길은 400px만큼 진행 될 때마다 한 번 확률표에 의한 연산을 거쳐 꺾인다.(표 생성 예정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 상대 캐릭터의 얼굴 크기는 150x150px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 각 버튼의 크기는 140x100px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)플레이어가 답을 맞췄음을 확인 했다면, 화면 중앙에 동그라미(O)표시를 띄운다. (동그라미 사이즈는 120x120px이다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)플레이어가 답을 잘못 골랐음을 확인 했다면, 화면 중앙에 엑스(X)표시를 띄운다. (엑스 사이즈는 120x120px이다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 하트의 사이즈는 60x60px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)Combo 에셋의 크기는 250x120px이다. 숫자 n의 경우 세로 길이는 120px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 구출 캐릭터의 사이즈는 70x80px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 재화의 사이즈는 70x70px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 캐릭터의 사이즈는 100x110px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 점프, 슬라이드 버튼의 사이즈는 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 구출 버튼의 사이즈는</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2389,7 +2425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2456,6 +2492,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2468,26 +2513,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3127,64 +3157,64 @@
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -3202,307 +3232,307 @@
     </row>
     <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B6" s="13"/>
       <c r="E6" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="E7" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
       <c r="E12" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A13" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="E14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="E15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="E16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
       <c r="E17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A18" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="E18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="I19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M23" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M26" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E27" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I28" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3528,69 +3558,69 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="27" t="s">
-        <v>480</v>
-      </c>
-      <c r="C2" s="27"/>
+      <c r="B2" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" s="22"/>
       <c r="E2" t="s">
-        <v>485</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>490</v>
-      </c>
-      <c r="I2" s="27"/>
+        <v>481</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>483</v>
+      <c r="I4" s="23" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>482</v>
+      <c r="B5" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>478</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>482</v>
+        <v>484</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="28">
+      <c r="B6" s="23">
         <v>0</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="23">
         <v>720</v>
       </c>
       <c r="E6" s="3">
@@ -3599,18 +3629,18 @@
       <c r="F6" s="3">
         <v>5</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="23">
         <v>0</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="23">
         <v>720</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="28">
+      <c r="B7" s="23">
         <v>1</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="23">
         <v>720</v>
       </c>
       <c r="E7" s="3">
@@ -3619,18 +3649,18 @@
       <c r="F7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="23">
         <v>1</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="23">
         <v>720</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="28">
+      <c r="B8" s="23">
         <v>2</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="23">
         <v>720</v>
       </c>
       <c r="E8" s="3">
@@ -3639,18 +3669,18 @@
       <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="23">
         <v>2</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="23">
         <v>720</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="28">
+      <c r="B9" s="23">
         <v>3</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="23">
         <v>720</v>
       </c>
       <c r="E9" s="3">
@@ -3659,18 +3689,18 @@
       <c r="F9" s="3">
         <v>5</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="23">
         <v>3</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="23">
         <v>720</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="28">
+      <c r="B10" s="23">
         <v>4</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="23">
         <v>720</v>
       </c>
       <c r="E10" s="3">
@@ -3679,18 +3709,18 @@
       <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="23">
         <v>4</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="23">
         <v>720</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="28">
+      <c r="B11" s="23">
         <v>5</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="23">
         <v>720</v>
       </c>
       <c r="E11" s="3">
@@ -3699,18 +3729,18 @@
       <c r="F11" s="3">
         <v>6</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="23">
         <v>5</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="23">
         <v>720</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="28">
+      <c r="B12" s="23">
         <v>6</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="23">
         <v>720</v>
       </c>
       <c r="E12" s="3">
@@ -3719,18 +3749,18 @@
       <c r="F12" s="3">
         <v>6</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="23">
         <v>6</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="23">
         <v>720</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="28">
+      <c r="B13" s="23">
         <v>7</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="23">
         <v>720</v>
       </c>
       <c r="E13" s="3">
@@ -3739,18 +3769,18 @@
       <c r="F13" s="3">
         <v>6</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="23">
         <v>7</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="23">
         <v>720</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="28">
+      <c r="B14" s="23">
         <v>8</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="23">
         <v>720</v>
       </c>
       <c r="E14" s="3">
@@ -3759,18 +3789,18 @@
       <c r="F14" s="3">
         <v>6</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="23">
         <v>8</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="23">
         <v>720</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="28">
+      <c r="B15" s="23">
         <v>9</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="23">
         <v>720</v>
       </c>
       <c r="E15" s="3">
@@ -3779,18 +3809,18 @@
       <c r="F15" s="3">
         <v>6</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="23">
         <v>9</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="23">
         <v>720</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="28">
+      <c r="B16" s="23">
         <v>10</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="23">
         <v>720</v>
       </c>
       <c r="E16" s="3">
@@ -3799,18 +3829,18 @@
       <c r="F16" s="3">
         <v>7</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="23">
         <v>10</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="23">
         <v>720</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="28">
+      <c r="B17" s="23">
         <v>11</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="23">
         <f>720-(B17-10)*15</f>
         <v>705</v>
       </c>
@@ -3820,19 +3850,19 @@
       <c r="F17" s="3">
         <v>7</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="23">
         <v>11</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="23">
         <f>720-(H17-10)*17</f>
         <v>703</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="28">
+      <c r="B18" s="23">
         <v>12</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="23">
         <f>720-(B18-10)*15</f>
         <v>690</v>
       </c>
@@ -3842,19 +3872,19 @@
       <c r="F18" s="3">
         <v>7</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="23">
         <v>12</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="23">
         <f>720-(H18-10)*17</f>
         <v>686</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="28">
+      <c r="B19" s="23">
         <v>13</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="23">
         <f t="shared" ref="C19:C36" si="0">720-(B19-10)*15</f>
         <v>675</v>
       </c>
@@ -3864,19 +3894,19 @@
       <c r="F19" s="3">
         <v>7</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="23">
         <v>13</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="23">
         <f t="shared" ref="I19:I36" si="1">720-(H19-10)*17</f>
         <v>669</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="28">
+      <c r="B20" s="23">
         <v>14</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="23">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
@@ -3886,19 +3916,19 @@
       <c r="F20" s="3">
         <v>7</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="23">
         <v>14</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="23">
         <f t="shared" si="1"/>
         <v>652</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="28">
+      <c r="B21" s="23">
         <v>15</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="23">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
@@ -3908,19 +3938,19 @@
       <c r="F21" s="3">
         <v>8</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="23">
         <v>15</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="23">
         <f t="shared" si="1"/>
         <v>635</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="28">
+      <c r="B22" s="23">
         <v>16</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="23">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
@@ -3930,19 +3960,19 @@
       <c r="F22" s="3">
         <v>8</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="23">
         <v>16</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="23">
         <f t="shared" si="1"/>
         <v>618</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="28">
+      <c r="B23" s="23">
         <v>17</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="23">
         <f t="shared" si="0"/>
         <v>615</v>
       </c>
@@ -3952,19 +3982,19 @@
       <c r="F23" s="3">
         <v>8</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="23">
         <v>17</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="23">
         <f t="shared" si="1"/>
         <v>601</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="28">
+      <c r="B24" s="23">
         <v>18</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="23">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
@@ -3974,19 +4004,19 @@
       <c r="F24" s="3">
         <v>8</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="23">
         <v>18</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="23">
         <f t="shared" si="1"/>
         <v>584</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="28">
+      <c r="B25" s="23">
         <v>19</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="23">
         <f t="shared" si="0"/>
         <v>585</v>
       </c>
@@ -3996,19 +4026,19 @@
       <c r="F25" s="3">
         <v>8</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="23">
         <v>19</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="23">
         <f t="shared" si="1"/>
         <v>567</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="28">
+      <c r="B26" s="23">
         <v>20</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="23">
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
@@ -4018,19 +4048,19 @@
       <c r="F26" s="3">
         <v>9</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="23">
         <v>20</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="23">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="28">
+      <c r="B27" s="23">
         <v>21</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="23">
         <f t="shared" si="0"/>
         <v>555</v>
       </c>
@@ -4040,19 +4070,19 @@
       <c r="F27" s="3">
         <v>9</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="23">
         <v>21</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="23">
         <f t="shared" si="1"/>
         <v>533</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="28">
+      <c r="B28" s="23">
         <v>22</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="23">
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
@@ -4062,19 +4092,19 @@
       <c r="F28" s="3">
         <v>9</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="23">
         <v>22</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="23">
         <f t="shared" si="1"/>
         <v>516</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="28">
+      <c r="B29" s="23">
         <v>23</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="23">
         <f t="shared" si="0"/>
         <v>525</v>
       </c>
@@ -4084,19 +4114,19 @@
       <c r="F29" s="3">
         <v>9</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="23">
         <v>23</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="23">
         <f t="shared" si="1"/>
         <v>499</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="28">
+      <c r="B30" s="23">
         <v>24</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="23">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
@@ -4106,19 +4136,19 @@
       <c r="F30" s="3">
         <v>9</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="23">
         <v>24</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="23">
         <f t="shared" si="1"/>
         <v>482</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="28">
+      <c r="B31" s="23">
         <v>25</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="23">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
@@ -4128,570 +4158,570 @@
       <c r="F31" s="3">
         <v>10</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="23">
         <v>25</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="23">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="28">
+      <c r="B32" s="23">
         <v>26</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="23">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="23">
         <v>26</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="23">
         <f t="shared" si="1"/>
         <v>448</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="28">
+      <c r="B33" s="23">
         <v>27</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="23">
         <f t="shared" si="0"/>
         <v>465</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="23">
         <v>27</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="23">
         <f t="shared" si="1"/>
         <v>431</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="28">
+      <c r="B34" s="23">
         <v>28</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="23">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="23">
         <v>28</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="23">
         <f t="shared" si="1"/>
         <v>414</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="28">
+      <c r="B35" s="23">
         <v>29</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="23">
         <f t="shared" si="0"/>
         <v>435</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="23">
         <v>29</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="23">
         <f t="shared" si="1"/>
         <v>397</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="28">
+      <c r="B36" s="23">
         <v>30</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="23">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36" s="23">
         <v>30</v>
       </c>
-      <c r="I36" s="28">
+      <c r="I36" s="23">
         <f t="shared" si="1"/>
         <v>380</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="28">
+      <c r="B37" s="23">
         <v>31</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="23">
         <f>420-(B37-30)*5</f>
         <v>415</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="23">
         <v>31</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="23">
         <f>380-(H37-30)*6</f>
         <v>374</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="28">
+      <c r="B38" s="23">
         <v>32</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="23">
         <f>420-(B38-30)*5</f>
         <v>410</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="23">
         <v>32</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="23">
         <f>380-(H38-30)*6</f>
         <v>368</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="28">
+      <c r="B39" s="23">
         <v>33</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="23">
         <f t="shared" ref="C39:C66" si="2">420-(B39-30)*5</f>
         <v>405</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="23">
         <v>33</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="23">
         <f t="shared" ref="I39:I66" si="3">380-(H39-30)*6</f>
         <v>362</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="28">
+      <c r="B40" s="23">
         <v>34</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="23">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="23">
         <v>34</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="23">
         <f t="shared" si="3"/>
         <v>356</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="28">
+      <c r="B41" s="23">
         <v>35</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="23">
         <f t="shared" si="2"/>
         <v>395</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="23">
         <v>35</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="23">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="28">
+      <c r="B42" s="23">
         <v>36</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="23">
         <f t="shared" si="2"/>
         <v>390</v>
       </c>
-      <c r="H42" s="28">
+      <c r="H42" s="23">
         <v>36</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I42" s="23">
         <f t="shared" si="3"/>
         <v>344</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="28">
+      <c r="B43" s="23">
         <v>37</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="23">
         <f t="shared" si="2"/>
         <v>385</v>
       </c>
-      <c r="H43" s="28">
+      <c r="H43" s="23">
         <v>37</v>
       </c>
-      <c r="I43" s="28">
+      <c r="I43" s="23">
         <f t="shared" si="3"/>
         <v>338</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="28">
+      <c r="B44" s="23">
         <v>38</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="23">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="23">
         <v>38</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I44" s="23">
         <f t="shared" si="3"/>
         <v>332</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="28">
+      <c r="B45" s="23">
         <v>39</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="23">
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="23">
         <v>39</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="23">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="28">
+      <c r="B46" s="23">
         <v>40</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="23">
         <f t="shared" si="2"/>
         <v>370</v>
       </c>
-      <c r="H46" s="28">
+      <c r="H46" s="23">
         <v>40</v>
       </c>
-      <c r="I46" s="28">
+      <c r="I46" s="23">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="28">
+      <c r="B47" s="23">
         <v>41</v>
       </c>
-      <c r="C47" s="28">
+      <c r="C47" s="23">
         <f t="shared" si="2"/>
         <v>365</v>
       </c>
-      <c r="H47" s="28">
+      <c r="H47" s="23">
         <v>41</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="23">
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="28">
+      <c r="B48" s="23">
         <v>42</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="23">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="H48" s="28">
+      <c r="H48" s="23">
         <v>42</v>
       </c>
-      <c r="I48" s="28">
+      <c r="I48" s="23">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="28">
+      <c r="B49" s="23">
         <v>43</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C49" s="23">
         <f t="shared" si="2"/>
         <v>355</v>
       </c>
-      <c r="H49" s="28">
+      <c r="H49" s="23">
         <v>43</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="23">
         <f t="shared" si="3"/>
         <v>302</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="28">
+      <c r="B50" s="23">
         <v>44</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C50" s="23">
         <f t="shared" si="2"/>
         <v>350</v>
       </c>
-      <c r="H50" s="28">
+      <c r="H50" s="23">
         <v>44</v>
       </c>
-      <c r="I50" s="28">
+      <c r="I50" s="23">
         <f t="shared" si="3"/>
         <v>296</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="28">
+      <c r="B51" s="23">
         <v>45</v>
       </c>
-      <c r="C51" s="28">
+      <c r="C51" s="23">
         <f t="shared" si="2"/>
         <v>345</v>
       </c>
-      <c r="H51" s="28">
+      <c r="H51" s="23">
         <v>45</v>
       </c>
-      <c r="I51" s="28">
+      <c r="I51" s="23">
         <f t="shared" si="3"/>
         <v>290</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="28">
+      <c r="B52" s="23">
         <v>46</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="23">
         <f t="shared" si="2"/>
         <v>340</v>
       </c>
-      <c r="H52" s="28">
+      <c r="H52" s="23">
         <v>46</v>
       </c>
-      <c r="I52" s="28">
+      <c r="I52" s="23">
         <f t="shared" si="3"/>
         <v>284</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="28">
+      <c r="B53" s="23">
         <v>47</v>
       </c>
-      <c r="C53" s="28">
+      <c r="C53" s="23">
         <f t="shared" si="2"/>
         <v>335</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H53" s="23">
         <v>47</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="23">
         <f t="shared" si="3"/>
         <v>278</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B54" s="28">
+      <c r="B54" s="23">
         <v>48</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C54" s="23">
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
-      <c r="H54" s="28">
+      <c r="H54" s="23">
         <v>48</v>
       </c>
-      <c r="I54" s="28">
+      <c r="I54" s="23">
         <f t="shared" si="3"/>
         <v>272</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="28">
+      <c r="B55" s="23">
         <v>49</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="23">
         <f t="shared" si="2"/>
         <v>325</v>
       </c>
-      <c r="H55" s="28">
+      <c r="H55" s="23">
         <v>49</v>
       </c>
-      <c r="I55" s="28">
+      <c r="I55" s="23">
         <f t="shared" si="3"/>
         <v>266</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="28">
+      <c r="B56" s="23">
         <v>50</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="23">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="H56" s="28">
+      <c r="H56" s="23">
         <v>50</v>
       </c>
-      <c r="I56" s="28">
+      <c r="I56" s="23">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B57" s="28">
+      <c r="B57" s="23">
         <v>51</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="23">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="H57" s="28">
+      <c r="H57" s="23">
         <v>51</v>
       </c>
-      <c r="I57" s="28">
+      <c r="I57" s="23">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="28">
+      <c r="B58" s="23">
         <v>52</v>
       </c>
-      <c r="C58" s="28">
+      <c r="C58" s="23">
         <f t="shared" si="2"/>
         <v>310</v>
       </c>
-      <c r="H58" s="28">
+      <c r="H58" s="23">
         <v>52</v>
       </c>
-      <c r="I58" s="28">
+      <c r="I58" s="23">
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B59" s="28">
+      <c r="B59" s="23">
         <v>53</v>
       </c>
-      <c r="C59" s="28">
+      <c r="C59" s="23">
         <f t="shared" si="2"/>
         <v>305</v>
       </c>
-      <c r="H59" s="28">
+      <c r="H59" s="23">
         <v>53</v>
       </c>
-      <c r="I59" s="28">
+      <c r="I59" s="23">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="28">
+      <c r="B60" s="23">
         <v>54</v>
       </c>
-      <c r="C60" s="28">
+      <c r="C60" s="23">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="H60" s="28">
+      <c r="H60" s="23">
         <v>54</v>
       </c>
-      <c r="I60" s="28">
+      <c r="I60" s="23">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="28">
+      <c r="B61" s="23">
         <v>55</v>
       </c>
-      <c r="C61" s="28">
+      <c r="C61" s="23">
         <f t="shared" si="2"/>
         <v>295</v>
       </c>
-      <c r="H61" s="28">
+      <c r="H61" s="23">
         <v>55</v>
       </c>
-      <c r="I61" s="28">
+      <c r="I61" s="23">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="28">
+      <c r="B62" s="23">
         <v>56</v>
       </c>
-      <c r="C62" s="28">
+      <c r="C62" s="23">
         <f t="shared" si="2"/>
         <v>290</v>
       </c>
-      <c r="H62" s="28">
+      <c r="H62" s="23">
         <v>56</v>
       </c>
-      <c r="I62" s="28">
+      <c r="I62" s="23">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="28">
+      <c r="B63" s="23">
         <v>57</v>
       </c>
-      <c r="C63" s="28">
+      <c r="C63" s="23">
         <f t="shared" si="2"/>
         <v>285</v>
       </c>
-      <c r="H63" s="28">
+      <c r="H63" s="23">
         <v>57</v>
       </c>
-      <c r="I63" s="28">
+      <c r="I63" s="23">
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B64" s="28">
+      <c r="B64" s="23">
         <v>58</v>
       </c>
-      <c r="C64" s="28">
+      <c r="C64" s="23">
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="H64" s="28">
+      <c r="H64" s="23">
         <v>58</v>
       </c>
-      <c r="I64" s="28">
+      <c r="I64" s="23">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B65" s="28">
+      <c r="B65" s="23">
         <v>59</v>
       </c>
-      <c r="C65" s="28">
+      <c r="C65" s="23">
         <f t="shared" si="2"/>
         <v>275</v>
       </c>
-      <c r="H65" s="28">
+      <c r="H65" s="23">
         <v>59</v>
       </c>
-      <c r="I65" s="28">
+      <c r="I65" s="23">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B66" s="28">
+      <c r="B66" s="23">
         <v>60</v>
       </c>
-      <c r="C66" s="28">
+      <c r="C66" s="23">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="H66" s="28">
+      <c r="H66" s="23">
         <v>60</v>
       </c>
-      <c r="I66" s="28">
+      <c r="I66" s="23">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
@@ -4745,32 +4775,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
@@ -4780,27 +4810,27 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -4810,22 +4840,22 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -4835,47 +4865,47 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -4887,24 +4917,24 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED91DED-E90A-4CB0-ACB1-3C7604F9766B}">
-  <dimension ref="B2:G78"/>
+  <dimension ref="B2:G84"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="E2" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="28"/>
+      <c r="E2" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -4916,10 +4946,10 @@
       <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="28">
         <v>405</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
@@ -4931,339 +4961,364 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="28">
         <v>720</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="s">
-        <v>319</v>
+      <c r="B20" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>320</v>
+      <c r="B21" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="s">
-        <v>322</v>
+      <c r="B23" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>323</v>
+      <c r="B24" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B26" s="1" t="s">
-        <v>379</v>
+      <c r="B26" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B29" s="1" t="s">
-        <v>324</v>
+      <c r="B27" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>326</v>
+      <c r="B31" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B32" s="1" t="s">
-        <v>329</v>
+      <c r="B32" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B39" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B40" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
-        <v>174</v>
+      <c r="B40" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B43" t="s">
-        <v>337</v>
+      <c r="B43" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>338</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>342</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B46" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B47" t="s">
-        <v>340</v>
+      <c r="B46" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B48" t="s">
-        <v>341</v>
+      <c r="B48" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B49" s="1" t="s">
-        <v>455</v>
+      <c r="B49" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>456</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>457</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B52" t="s">
-        <v>468</v>
+      <c r="B52" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B54" s="1" t="s">
-        <v>458</v>
+      <c r="B54" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B55" t="s">
-        <v>344</v>
+      <c r="B55" s="1" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B56" s="1" t="s">
-        <v>343</v>
+      <c r="B56" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>68</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B58" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B59" s="5" t="s">
-        <v>475</v>
+      <c r="B58" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B60" s="5" t="s">
-        <v>476</v>
+      <c r="B60" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>346</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B64" t="s">
-        <v>347</v>
+      <c r="B64" s="5" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B65" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B67" s="1" t="s">
-        <v>377</v>
+      <c r="B65" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" s="5" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B69" s="1" t="s">
-        <v>380</v>
+      <c r="B69" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B73" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B74" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B75" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B77" s="1" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B71" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B72" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B73" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B75" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B76" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B77" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>388</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B79" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B80" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B81" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B82" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B84" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -5283,7 +5338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332D9D3B-73B0-4612-A28A-25F572744D3C}">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -5291,186 +5346,186 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="28" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="C7" s="25"/>
+      <c r="B7" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" s="28"/>
       <c r="D7" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="3" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="3" t="s">
-        <v>356</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="28" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="25" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="25" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -5491,65 +5546,65 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="28">
         <v>5</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+        <v>475</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="C38" s="25">
+        <v>467</v>
+      </c>
+      <c r="C38" s="28">
         <v>10</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
@@ -5558,214 +5613,212 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B44" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B45" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B50" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B51" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B50" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B51" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B52" s="8"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B55" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B57" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B59" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B60" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="C60" s="30"/>
+      <c r="D60" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B61" s="30" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B60" s="26" t="s">
+      <c r="C61" s="30"/>
+      <c r="D61" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B62" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="3" t="s">
+      <c r="C62" s="30"/>
+      <c r="D62" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B61" s="26" t="s">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B63" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B62" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="C62" s="26"/>
-      <c r="D62" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B63" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="C63" s="26"/>
+      <c r="C63" s="30"/>
       <c r="D63" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:H45"/>
     <mergeCell ref="B11:C11"/>
@@ -5782,18 +5835,20 @@
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5813,23 +5868,23 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
@@ -6058,12 +6113,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -6077,7 +6132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="93" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="93" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -6085,12 +6140,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
@@ -6100,12 +6155,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -6115,7 +6170,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -6130,7 +6185,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
@@ -6150,17 +6205,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
@@ -6170,7 +6225,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -6210,12 +6265,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -6227,19 +6282,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
-  <dimension ref="B2:C64"/>
+  <dimension ref="B2:C68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B23" zoomScale="79" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView showGridLines="0" topLeftCell="C42" zoomScale="79" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -6259,265 +6314,285 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>237</v>
+      <c r="B9" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="5" t="s">
-        <v>238</v>
+      <c r="B10" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" s="5" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>243</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B25" s="5" t="s">
-        <v>178</v>
+      <c r="B25" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>190</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>191</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B30" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B31" s="1" t="s">
-        <v>180</v>
+      <c r="B30" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
-        <v>181</v>
+      <c r="B32" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>492</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
-        <v>493</v>
+      <c r="B35" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B37" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B38" s="1" t="s">
-        <v>184</v>
+      <c r="B37" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
-        <v>185</v>
+      <c r="B39" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
-        <v>437</v>
+      <c r="B42" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B43" s="1" t="s">
-        <v>192</v>
+      <c r="B43" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>193</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>221</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B47" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B48" s="1" t="s">
-        <v>194</v>
+      <c r="B48" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B49" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B50" t="s">
-        <v>195</v>
+      <c r="B49" s="1" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B51" t="s">
-        <v>466</v>
+      <c r="B51" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B57" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B54" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B55" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B56" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B57" t="s">
-        <v>442</v>
-      </c>
-    </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B58" s="1" t="s">
-        <v>444</v>
+      <c r="B58" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>445</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B64" t="s">
-        <v>452</v>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B68" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -6542,17 +6617,17 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>88</v>
@@ -6560,7 +6635,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
@@ -6568,7 +6643,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C7" s="3">
         <v>50</v>
@@ -6576,325 +6651,332 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="28" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="25"/>
+      <c r="B14" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="28"/>
       <c r="D14" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="25"/>
+      <c r="B15" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="28"/>
       <c r="D15" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" s="25"/>
+      <c r="B16" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="28"/>
       <c r="D16" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="3" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="25" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="3" t="s">
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="3" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="D30" s="25"/>
+        <v>216</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C31" s="25">
+        <v>473</v>
+      </c>
+      <c r="C31" s="28">
         <v>5</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="D32" s="25"/>
+        <v>474</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C33" s="25">
+        <v>426</v>
+      </c>
+      <c r="C33" s="28">
         <v>0.5</v>
       </c>
-      <c r="D33" s="25"/>
+      <c r="D33" s="28"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="D38" s="25"/>
+        <v>216</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="28"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C39" s="25">
+        <v>473</v>
+      </c>
+      <c r="C39" s="28">
         <v>8</v>
       </c>
-      <c r="D39" s="25"/>
+      <c r="D39" s="28"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="25"/>
+        <v>430</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C41" s="25">
+        <v>431</v>
+      </c>
+      <c r="C41" s="28">
         <v>0.8</v>
       </c>
-      <c r="D41" s="25"/>
+      <c r="D41" s="28"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="B45" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B46" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="25" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B47" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B48" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B49" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="D53" s="25"/>
+        <v>216</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" s="28"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C54" s="25">
+        <v>473</v>
+      </c>
+      <c r="C54" s="28">
         <v>3</v>
       </c>
-      <c r="D54" s="25"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="D55" s="25"/>
+        <v>428</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="D55" s="28"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C56" s="25">
+        <v>429</v>
+      </c>
+      <c r="C56" s="28">
         <v>0.5</v>
       </c>
-      <c r="D56" s="25"/>
+      <c r="D56" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="B22:D22"/>
@@ -6903,19 +6985,12 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6935,12 +7010,12 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>73</v>
@@ -7084,18 +7159,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" t="s">
         <v>222</v>
-      </c>
-      <c r="E2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -7109,7 +7184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -7291,17 +7366,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
   <dimension ref="B2:AG66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -7382,74 +7457,74 @@
       <c r="AA9" s="10"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
       <c r="V10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
       <c r="V11" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
       <c r="V13" s="1" t="s">
         <v>138</v>
       </c>
@@ -7458,11 +7533,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="2:27" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="V14" s="32"/>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>490</v>
+      </c>
+      <c r="V14" s="1"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
@@ -7474,7 +7549,7 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>425</v>
+        <v>492</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>34</v>
@@ -7482,7 +7557,7 @@
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="V17" s="5" t="s">
         <v>35</v>
@@ -7582,7 +7657,7 @@
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
@@ -7681,7 +7756,7 @@
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B33" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
@@ -7771,7 +7846,7 @@
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B43" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.4">
@@ -7826,17 +7901,17 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
@@ -7854,27 +7929,27 @@
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" s="5" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -7891,8 +7966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88:I93"/>
+    <sheetView showGridLines="0" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7906,19 +7981,19 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="23" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -7932,7 +8007,7 @@
       <c r="I5" s="29"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="23" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="29" t="s">
@@ -7946,7 +8021,7 @@
       <c r="I6" s="29"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -7960,7 +8035,7 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="23" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -7974,7 +8049,7 @@
       <c r="I8" s="29"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="23" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -7993,73 +8068,73 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="3">
         <v>5</v>
       </c>
@@ -8078,37 +8153,37 @@
       <c r="B25" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C27" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
@@ -8381,53 +8456,53 @@
       <c r="B75" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B76" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="25">
+      <c r="C76" s="28">
         <v>5</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B77" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
+        <v>475</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B78" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="C78" s="25">
+        <v>467</v>
+      </c>
+      <c r="C78" s="28">
         <v>10</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
@@ -8443,37 +8518,37 @@
       <c r="B83" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C85" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C85" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" s="1" t="s">
@@ -8481,19 +8556,19 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="23" t="s">
         <v>73</v>
       </c>
       <c r="C89" s="29" t="s">
@@ -8507,7 +8582,7 @@
       <c r="I89" s="29"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B90" s="28" t="s">
+      <c r="B90" s="23" t="s">
         <v>78</v>
       </c>
       <c r="C90" s="29" t="s">
@@ -8521,7 +8596,7 @@
       <c r="I90" s="29"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C91" s="29" t="s">
@@ -8535,7 +8610,7 @@
       <c r="I91" s="29"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B92" s="28" t="s">
+      <c r="B92" s="23" t="s">
         <v>79</v>
       </c>
       <c r="C92" s="29" t="s">
@@ -8549,7 +8624,7 @@
       <c r="I92" s="29"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B93" s="28" t="s">
+      <c r="B93" s="23" t="s">
         <v>82</v>
       </c>
       <c r="C93" s="29" t="s">
@@ -8571,62 +8646,72 @@
       <c r="B96" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C96" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C97" s="25">
+      <c r="C97" s="28">
         <v>7</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B98" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
+        <v>469</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B99" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C99" s="25">
+        <v>426</v>
+      </c>
+      <c r="C99" s="28">
         <v>10</v>
       </c>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -8637,22 +8722,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008079D5-6612-48B5-B26E-A6A4288140B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF883460-73C7-4BC3-B286-6F1AF11AE13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="12" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="513">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,14 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 4)게임 시작 시 길의 경계선은 화면 전체이고, 시간이 지날 수록 길의 폭은 감소하며, 또한 길의 폭의 중간점 또한 계속해서 변화한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    - 길의 폭은 연속적인 관계이며 급격히 감소하여 길의 경계선이 끊기는 상황은 존재하지 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    - 길의 경계선은 화면을 벗어날 수 없으며, 경계선은 항상 화면 내에 표시되어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 6)게임이 진행할 수록 맵에 보이는 길의 폭은 좁아지고, 게임의 진행 속도는 빨라진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.점수 환산 기준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,18 +115,6 @@
   </si>
   <si>
     <t xml:space="preserve">    -10p/sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 재화 획득에 따른 점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    - 미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    - 30p/개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -276,35 +252,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.재화 생성규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.0 재화의 생성 기본 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 재화는 항상 화면의 최하단에서 생성되며 생성된 재화는 일정한 속도로 화면 위로 상승한다. 또한 모든 재화는 길 위에 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1 재화 수량 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2 재화 생성 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.1 장애물 수량 규칙(수정 가능성 있음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)재화는 확률표에 따라 생성되며, 생성 확률에 대한 계산은 3초에 한 번 이루어진다.(3초에 한 번씩 확률에 따른 계산을 시행, 해당 시행에서 참 값이 나오면 재화 생성, 아니라면 생성하지 않는다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)아이템과의 생성 충돌을 막기위해, 재화는 게임 시작후 1초 뒤부터 계산을 시작한다.(아이템의 계산보다 1초의 늦게 실행한다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -330,27 +278,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 2)만약 아이템을 생성하려는 곳에 이미 장애물이 존재한다면 해당 위치를 제외한 지점 중 한 군데에 재배치한다.(각 위치에 생성 될 확률은 1/n, 즉 25%이다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)재화는 항상 길 위에 존재하며, 길의 너비의 1/4, 2/5, 2/4, 3/5, 3/4 지점 중 한 군데에 위치한다.(각 위치에 생성 될 확률은 1/n, 즉 20%이다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2)만약 재화를 생성하려느 곳에 이미 장애물이 존재한다면 해당 위치를 제외한 지점 중 한 군데에 재배치한다.(각 위치에 생성 될 확률은 1/n, 즉 25%이다.)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -659,18 +586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1재화 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2재화 생성 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.오브젝트 이동속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -700,10 +615,6 @@
   </si>
   <si>
     <t>5.난이도에 따른 수치 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HARD- 길의 폭이 더 빠르게 감소, 최종적으로 유지되는 길의 폭 또한 소량 감소, 시작시점의 속도 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -858,10 +769,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)장애물, 아이템, 재화는 랜덤한 x축에 배치되며, 최하단에서 생성되어 일정한 속도로 상승한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2)화면 상단에 스키를 신고 있는 캐릭터의 모습이 존재한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1306,10 +1213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 4)재화의 생성규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 5)생성된 오브젝트의 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1334,10 +1237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 4)재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 5)오브젝트 이동속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1570,10 +1469,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)플레이어가 슬라이드 버튼을 누르는 동안, 캐릭터는 슬라이딩 자세를 취하며, 캐릭터의 최고 높이는 n px(n&lt;95)이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2)플레이어가 슬라이드 버튼을 떼면, 캐릭터는 즉시 일어난다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1639,10 +1534,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 2)바닥 흙덩이는 3가지 모양이 존재하며 크기는 동일(100x150)하다. 해당 장애물은 바닥에 붙어서 등장하며, 점프로 피해야 한다. 흙더미의 모양은 랜덤하게 결정된다.(각 모양 당 약33.3%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)천장 흙덩이는 3가지 모양이 존재하며 크기는 동일(100x310)하다. 해당 장애물은 천장에 붙어서 등장하며,  슬라이드로 피해야 한다. 흙더미의 모양은 랜덤하게 결정된다.(각 모양 당 약33.3%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2218,59 +2109,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> 아이템의 사이즈는 70x70px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임 진행 5초 후 부터 길은 400px만큼 진행 될 때마다 한 번 확률표에 의한 연산을 거쳐 꺾인다.(표 생성 예정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 상대 캐릭터의 얼굴 크기는 150x150px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 각 버튼의 크기는 140x100px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)플레이어가 답을 맞췄음을 확인 했다면, 화면 중앙에 동그라미(O)표시를 띄운다. (동그라미 사이즈는 120x120px이다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)플레이어가 답을 잘못 골랐음을 확인 했다면, 화면 중앙에 엑스(X)표시를 띄운다. (엑스 사이즈는 120x120px이다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 하트의 사이즈는 60x60px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)Combo 에셋의 크기는 250x120px이다. 숫자 n의 경우 세로 길이는 120px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 구출 캐릭터의 사이즈는 70x80px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> 재화의 사이즈는 70x70px이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 아이템의 사이즈는 70x70px이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)게임 진행 5초 후 부터 길은 400px만큼 진행 될 때마다 한 번 확률표에 의한 연산을 거쳐 꺾인다.(표 생성 예정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 상대 캐릭터의 얼굴 크기는 150x150px이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 각 버튼의 크기는 140x100px이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)플레이어가 답을 맞췄음을 확인 했다면, 화면 중앙에 동그라미(O)표시를 띄운다. (동그라미 사이즈는 120x120px이다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)플레이어가 답을 잘못 골랐음을 확인 했다면, 화면 중앙에 엑스(X)표시를 띄운다. (엑스 사이즈는 120x120px이다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 하트의 사이즈는 60x60px이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)Combo 에셋의 크기는 250x120px이다. 숫자 n의 경우 세로 길이는 120px이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 구출 캐릭터의 사이즈는 70x80px이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 재화의 사이즈는 70x70px이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 캐릭터의 사이즈는 100x110px이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 점프, 슬라이드 버튼의 사이즈는 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 구출 버튼의 사이즈는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)플레이어가 슬라이드 버튼을 누르는 동안, 캐릭터는 슬라이딩 자세를 취하며, 캐릭터의 최고 높이는 70 px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)천장 흙덩이는 3가지 모양이 존재하며 크기는 동일(100x290)하다. 해당 장애물은 천장에 붙어서 등장하며,  슬라이드로 피해야 한다. 흙더미의 모양은 랜덤하게 결정된다.(각 모양 당 약33.3%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 캐릭터의 사이즈는 100x120px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6)게임이 진행할 수록 게임 진행 속도는 빨라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)게임 진행 중 맵 상에 구출 캐릭터가 존재하며, 캐릭터가 해당 캐릭터와 접촉 시 그에 해당하는 추가 점수를 획득한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)화면 최상단에 현재 점수가 표기된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)장애물, 아이템, 구출 캐릭터는 랜덤한 x축에 배치되며, 최하단에서 생성되어 일정한 속도로 상승한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)- 길의 폭은 연속적인 관계이며 길의 경계선이 끊기는 상황은 존재하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 구출 캐릭터 획득에 따른 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 40p/개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.구출 캐릭터 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0 구출 캐릭터의 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 구출 캐릭터는 항상 화면의 최하단에서 생성되며 생성된 캐릭터는 일정한 속도로 화면 위로 상승한다. 또한 모든 구출캐릭터는 길 위에 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 구출의 사이즈는 70x80px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 구출 캐릭터 수량 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)구출 캐릭터는 확률표에 따라 생성되며, 생성 확률에 대한 계산은 3초에 한 번 이루어진다.(3초에 한 번씩 확률에 따른 계산을 시행, 해당 시행에서 참 값이 나오면 캐릭터 생성, 아니라면 생성하지 않는다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)아이템과의 생성 충돌을 막기위해, 구출 캐릭터는 게임 시작후 1초 뒤부터 계산을 시작한다.(아이템의 계산보다 1초의 늦게 실행한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 구출 캐릭터 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)구출 캐릭터는 항상 길 위에 존재하며, 길의 너비의 1/4, 2/5, 2/4, 3/5, 3/4 지점 중 한 군데에 위치한다.(각 위치에 생성 될 확률은 1/n, 즉 20%이다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2)만약 구출 캐릭터를 생성하려는 곳에 이미 장애물이 존재한다면 해당 위치를 제외한 지점 중 한 군데에 재배치한다.(각 위치에 생성 될 확률은 1/n, 즉 25%이다.)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 적용대상 - 길, 장애물, 아이템, 구출 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 적용대상의 모든 이동 속도는 통일한다.(길, 장애물, 아이템, 구출 캐릭터의 이동속도는 동일하다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 구출 캐릭터와 플레이어 캐릭터의 접촉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)구출 캐릭터와 플레이어 캐릭터가 접촉함을 확인 했을 경우, 구출 캐릭터는 0.2초의 시간을 거쳐 투명해지고, 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.생성된 오브젝트의 이동</t>
+  </si>
+  <si>
+    <t>4.2구출 캐릭터 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1구출 캐릭터 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.구출 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)구출 캐릭터의 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)구출 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD- 길의 폭 감소, 시작시점의 속도 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3150,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B258DF-837D-4076-BBF7-BF5D380622B5}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="79" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3180,7 +3199,7 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="25" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -3214,7 +3233,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -3232,307 +3251,307 @@
     </row>
     <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B6" s="13"/>
       <c r="E6" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="E7" s="1" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="E8" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="I8" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="M8" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="E9" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="I9" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="M9" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="E10" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="I10" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="M10" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
       <c r="E11" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="I11" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="M11" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="16" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
       <c r="E12" s="1" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="I12" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A13" s="16" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
       <c r="E13" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M13" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="16" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="E14" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="I14" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="M14" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="E15" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="I15" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="M15" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="E16" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="I16" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="M16" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
       <c r="E17" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="I17" t="s">
-        <v>272</v>
+        <v>510</v>
       </c>
       <c r="M17" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A18" s="19" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="E18" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="I18" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="M18" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="I19" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="M19" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="I20" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="M20" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="I22" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="M22" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="I23" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="M23" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="I24" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E25" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="I25" t="s">
-        <v>279</v>
+        <v>511</v>
       </c>
       <c r="M25" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="I26" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E27" s="1" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I27" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I28" s="1" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3559,14 +3578,14 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="22" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="C2" s="22"/>
       <c r="E2" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="I2" s="22"/>
     </row>
@@ -3578,42 +3597,42 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="23" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="23" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
@@ -4745,15 +4764,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4767,7 +4786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031FB8E1-EF80-47BC-8299-35870A46155A}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4775,32 +4794,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
@@ -4810,27 +4829,27 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -4840,72 +4859,72 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4919,32 +4938,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED91DED-E90A-4CB0-ACB1-3C7604F9766B}">
   <dimension ref="B2:G84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="80" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="28" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C2" s="28"/>
       <c r="E2" s="28" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3">
         <v>1280</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F3" s="28">
         <v>405</v>
@@ -4953,13 +4972,13 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
         <v>720</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F4" s="28">
         <v>720</v>
@@ -4968,357 +4987,357 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>356</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>338</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" s="5" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" s="5" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" s="5" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" s="1" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" s="1" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B75" s="1" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B77" s="1" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B82" s="1" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5338,7 +5357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332D9D3B-73B0-4612-A28A-25F572744D3C}">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -5346,26 +5365,26 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="28" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="3" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="28" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="3">
@@ -5374,7 +5393,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="28" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="3">
@@ -5383,52 +5402,52 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="28" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="3" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="28" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="3" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="28" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="3" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="28" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -5437,11 +5456,11 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="28" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -5450,11 +5469,11 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="28" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -5463,21 +5482,21 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="28" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -5486,11 +5505,11 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -5499,11 +5518,11 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="28" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -5512,20 +5531,20 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -5546,20 +5565,20 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -5569,7 +5588,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C36" s="28">
         <v>5</v>
@@ -5582,10 +5601,10 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
@@ -5595,7 +5614,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="C38" s="28">
         <v>10</v>
@@ -5608,21 +5627,21 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="28" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="28" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
@@ -5631,11 +5650,11 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="28" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="28" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
@@ -5644,11 +5663,11 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="28" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="28" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
@@ -5657,21 +5676,21 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" s="28" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="28" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
@@ -5680,11 +5699,11 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B50" s="28" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="28" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
@@ -5693,11 +5712,11 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B51" s="28" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="28" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
@@ -5709,15 +5728,15 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
@@ -5727,10 +5746,10 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B55" s="6" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -5740,10 +5759,10 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" s="6" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
@@ -5753,10 +5772,10 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B57" s="6" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
@@ -5766,59 +5785,61 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B59" s="8" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B60" s="30" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="3" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B61" s="30" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="3" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B62" s="30" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="C62" s="30"/>
       <c r="D62" s="3" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B63" s="30" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="C63" s="30"/>
       <c r="D63" s="3" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:H45"/>
     <mergeCell ref="B11:C11"/>
@@ -5835,20 +5856,18 @@
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:H23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5868,23 +5887,23 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
@@ -6113,12 +6132,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -6140,137 +6159,137 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -6284,7 +6303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
   <dimension ref="B2:C68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C42" zoomScale="79" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="79" workbookViewId="0">
       <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
@@ -6292,13 +6311,13 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="28" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C2" s="28"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3">
         <v>1280</v>
@@ -6306,7 +6325,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
         <v>720</v>
@@ -6314,72 +6333,72 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
@@ -6387,212 +6406,212 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" s="1" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" s="1" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" s="1" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -6617,25 +6636,25 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
@@ -6643,7 +6662,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C7" s="3">
         <v>50</v>
@@ -6651,26 +6670,26 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="28" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="3" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="28" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="3">
@@ -6679,7 +6698,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="28" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="3">
@@ -6688,7 +6707,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="28" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="3">
@@ -6697,7 +6716,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="28" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="3">
@@ -6706,86 +6725,86 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="28" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="3" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="28" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="28" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="28" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D30" s="28"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="C31" s="28">
         <v>5</v>
@@ -6794,16 +6813,16 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="D32" s="28"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="C33" s="28">
         <v>0.5</v>
@@ -6812,26 +6831,26 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D38" s="28"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="C39" s="28">
         <v>8</v>
@@ -6840,16 +6859,16 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="D40" s="28"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="C41" s="28">
         <v>0.8</v>
@@ -6858,86 +6877,86 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" s="28" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46" s="28" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="28" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="E47" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48" s="28" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
       <c r="E48" s="3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" s="28" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
       <c r="E49" s="3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D53" s="28"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="C54" s="28">
         <v>3</v>
@@ -6946,16 +6965,16 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="D55" s="28"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="C56" s="28">
         <v>0.5</v>
@@ -6964,6 +6983,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
@@ -6972,25 +7010,6 @@
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7010,15 +7029,15 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
@@ -7159,18 +7178,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="I2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -7182,17 +7201,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -7202,7 +7221,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -7222,12 +7241,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
@@ -7247,42 +7266,42 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>158</v>
-      </c>
-    </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
+      <c r="A22" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
@@ -7292,67 +7311,62 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>24</v>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
+      <c r="A32" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>133</v>
+      <c r="A36" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>134</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -7364,65 +7378,65 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
-  <dimension ref="B2:AG66"/>
+  <dimension ref="B2:AG68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B2" s="28" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C2" s="28"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3">
         <v>1280</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="Y3" s="10"/>
       <c r="Z3" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
         <v>720</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.4">
       <c r="V5" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="V6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
@@ -7432,10 +7446,10 @@
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -7445,10 +7459,10 @@
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
@@ -7458,7 +7472,7 @@
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -7472,12 +7486,12 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="V10" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B11" s="22" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -7491,12 +7505,12 @@
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="V11" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B12" s="22" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -7512,7 +7526,7 @@
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -7526,49 +7540,49 @@
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="V13" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
@@ -7584,7 +7598,7 @@
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.4">
       <c r="V19" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
@@ -7600,10 +7614,10 @@
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
@@ -7619,10 +7633,10 @@
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
@@ -7638,10 +7652,10 @@
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
@@ -7657,7 +7671,7 @@
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
@@ -7674,60 +7688,60 @@
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.4">
       <c r="V29" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
@@ -7740,10 +7754,10 @@
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="W32" s="10"/>
       <c r="X32" s="10"/>
@@ -7756,7 +7770,7 @@
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B33" s="5" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
@@ -7770,10 +7784,10 @@
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="W34" s="10"/>
       <c r="X34" s="10"/>
@@ -7786,10 +7800,10 @@
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B35" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="W35" s="10"/>
       <c r="X35" s="10"/>
@@ -7802,10 +7816,10 @@
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="V36" s="11" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
@@ -7818,12 +7832,12 @@
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B37" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B38" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.4">
@@ -7831,125 +7845,138 @@
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>52</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>54</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B43" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
-        <v>55</v>
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B45" s="5" t="s">
-        <v>58</v>
+        <v>497</v>
       </c>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B46" s="5" t="s">
-        <v>59</v>
+        <v>498</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B48" s="5" t="s">
-        <v>63</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>64</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B50" s="1" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B51" s="1" t="s">
-        <v>65</v>
+      <c r="B51" s="5" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>67</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>68</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B55" s="5" t="s">
-        <v>470</v>
+      <c r="B55" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B56" s="5" t="s">
-        <v>471</v>
+      <c r="B56" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" s="5" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B58" s="5"/>
+      <c r="B58" s="5" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B59" s="1" t="s">
-        <v>170</v>
+      <c r="B59" s="5" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B60" s="5" t="s">
-        <v>171</v>
-      </c>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B61" s="5" t="s">
-        <v>493</v>
+      <c r="B61" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B62" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B63" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B64" t="s">
-        <v>195</v>
+      <c r="B63" s="5" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B65" t="s">
-        <v>196</v>
+      <c r="B65" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>197</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B68" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -7966,8 +7993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7977,12 +8004,12 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="22" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -7994,10 +8021,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="23" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -8008,10 +8035,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="23" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -8022,10 +8049,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="24" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -8036,10 +8063,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="23" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -8050,10 +8077,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="23" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -8064,21 +8091,21 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="28" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="28" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="3">
@@ -8087,7 +8114,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="28" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="3">
@@ -8096,7 +8123,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="28" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="3">
@@ -8105,7 +8132,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="28" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="3">
@@ -8114,7 +8141,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="28" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="3">
@@ -8123,7 +8150,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="28" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="3">
@@ -8132,7 +8159,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="28" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="3">
@@ -8141,20 +8168,20 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -8163,10 +8190,10 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
@@ -8175,10 +8202,10 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
@@ -8187,20 +8214,20 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="6" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C31" s="3">
         <v>20</v>
@@ -8208,7 +8235,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="6" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C32" s="3">
         <v>20</v>
@@ -8216,7 +8243,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C33" s="3">
         <v>20</v>
@@ -8224,7 +8251,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C34" s="3">
         <v>20</v>
@@ -8232,7 +8259,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C35" s="3">
         <v>20</v>
@@ -8240,30 +8267,30 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40" s="8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C42" s="3">
         <v>30</v>
@@ -8279,25 +8306,25 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B44" s="8" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B48" s="6" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C48" s="3">
         <v>20</v>
@@ -8305,7 +8332,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B49" s="6" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C49" s="3">
         <v>20</v>
@@ -8313,7 +8340,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B50" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C50" s="3">
         <v>20</v>
@@ -8321,7 +8348,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C51" s="3">
         <v>20</v>
@@ -8329,7 +8356,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C52" s="3">
         <v>20</v>
@@ -8337,38 +8364,38 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B53" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B54" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B56" s="8" t="s">
-        <v>123</v>
+        <v>509</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B58" s="8" t="s">
-        <v>124</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C60" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.4">
@@ -8376,30 +8403,30 @@
         <v>0</v>
       </c>
       <c r="C61" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B62" s="8" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>125</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B66" s="6" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C66" s="3">
         <v>20</v>
@@ -8407,7 +8434,7 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B67" s="6" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C67" s="3">
         <v>20</v>
@@ -8415,7 +8442,7 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B68" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C68" s="3">
         <v>20</v>
@@ -8423,7 +8450,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C69" s="3">
         <v>20</v>
@@ -8431,7 +8458,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B70" s="6" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C70" s="3">
         <v>20</v>
@@ -8439,25 +8466,25 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B71" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B72" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B74" s="8" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B75" s="6" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
@@ -8467,7 +8494,7 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B76" s="6" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C76" s="28">
         <v>5</v>
@@ -8480,10 +8507,10 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B77" s="6" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="28"/>
@@ -8493,7 +8520,7 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B78" s="6" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="C78" s="28">
         <v>10</v>
@@ -8506,20 +8533,20 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B83" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
@@ -8528,10 +8555,10 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
@@ -8540,10 +8567,10 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
@@ -8552,12 +8579,12 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B88" s="22" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
@@ -8569,10 +8596,10 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B89" s="23" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
@@ -8583,10 +8610,10 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B90" s="23" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
@@ -8597,10 +8624,10 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B91" s="24" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
@@ -8611,10 +8638,10 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B92" s="23" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
@@ -8625,10 +8652,10 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B93" s="23" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="29"/>
@@ -8639,15 +8666,15 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B96" s="6" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
@@ -8657,7 +8684,7 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C97" s="28">
         <v>7</v>
@@ -8670,10 +8697,10 @@
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B98" s="6" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
@@ -8683,7 +8710,7 @@
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B99" s="6" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="C99" s="28">
         <v>10</v>
@@ -8696,22 +8723,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -8722,12 +8739,22 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF883460-73C7-4BC3-B286-6F1AF11AE13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E44E28-BB07-4F19-ABE0-D5F95DCC84C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -2157,10 +2157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)플레이어가 슬라이드 버튼을 누르는 동안, 캐릭터는 슬라이딩 자세를 취하며, 캐릭터의 최고 높이는 70 px이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 3)천장 흙덩이는 3가지 모양이 존재하며 크기는 동일(100x290)하다. 해당 장애물은 천장에 붙어서 등장하며,  슬라이드로 피해야 한다. 흙더미의 모양은 랜덤하게 결정된다.(각 모양 당 약33.3%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2290,6 +2286,10 @@
   </si>
   <si>
     <t>HARD- 길의 폭 감소, 시작시점의 속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)플레이어가 슬라이드 버튼을 누르는 동안, 캐릭터는 슬라이딩 자세를 취하며, 캐릭터의 최고 높이는 70x110px이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3428,7 +3428,7 @@
         <v>244</v>
       </c>
       <c r="I17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M17" t="s">
         <v>391</v>
@@ -3521,7 +3521,7 @@
         <v>243</v>
       </c>
       <c r="I25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M25" t="s">
         <v>392</v>
@@ -4757,7 +4757,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4938,8 +4938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED91DED-E90A-4CB0-ACB1-3C7604F9766B}">
   <dimension ref="B2:G84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="80" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView showGridLines="0" zoomScale="80" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -5142,7 +5142,7 @@
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
@@ -5197,7 +5197,7 @@
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
@@ -5826,20 +5826,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:H45"/>
     <mergeCell ref="B11:C11"/>
@@ -5856,18 +5854,20 @@
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6983,12 +6983,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="B22:D22"/>
@@ -6997,19 +7004,12 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7241,12 +7241,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
@@ -7266,7 +7266,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -7276,12 +7276,12 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
@@ -7321,12 +7321,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
@@ -7336,7 +7336,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
@@ -7366,7 +7366,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -7380,8 +7380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
   <dimension ref="B2:AG68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="84" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7845,62 +7845,62 @@
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B43" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B45" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B46" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B48" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
@@ -7908,12 +7908,12 @@
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
@@ -7923,7 +7923,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
@@ -7993,8 +7993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8374,12 +8374,12 @@
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B56" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B58" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.4">
@@ -8413,7 +8413,7 @@
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.4">
@@ -8723,12 +8723,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
@@ -8739,22 +8749,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E44E28-BB07-4F19-ABE0-D5F95DCC84C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73658C1E-022B-4244-AD7A-23ADF500CBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="15" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="미니게임 3 UI" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="522">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,14 +242,6 @@
   </si>
   <si>
     <t>3.2 아이템 생성 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작 시 UI 배치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 진행 중 UI 배치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -482,10 +475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필요 에셋 : 점수판, 재화판, 장애물, 캐릭터, 스키(캐릭터 밑에 이어 붙일 예정), 코인(재화), 설정버튼, 뒷배경, 아이템(뿅망치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 3)길의 경계선은 화면을 벗어날 수 없으며, 만약 길의 경계선이 화면을 벗어나는 상황이 발생할 시 확률에 따라 도출된 동작은 무시하고 맞닿은 화면으로부터 멀어지는 방향의 30도 각도로 길을 생성한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2290,6 +2279,54 @@
   </si>
   <si>
     <t xml:space="preserve"> 1)플레이어가 슬라이드 버튼을 누르는 동안, 캐릭터는 슬라이딩 자세를 취하며, 캐릭터의 최고 높이는 70x110px이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)길의 너비는 340px로 고정된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.길 밖의 장애물(나무)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)길의 경계선 밖에는 나무가 빼곡히 차있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)나무는 양쪽 길의 경계선을 따라가며 소환된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)나무의 소환 주기는 0.8초이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)만약 나무가 소환되었더라도 경계선 바깥에 빈 공간이 존재한다면 해당 부분도 나무로 채운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)만약 나무를 채울 때, 남은 가로 공간이 나무보다 작더라도, 나무를 소환한다.(이 경우, 화면을 벗어난 나무 부분은 플레이어의 화면에 노출되지 않는다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)플레이어가 답을 맞췄음을 확인 했다면, 적 캐릭터의 정수리 부분에 뿅망치로 내려치는 애니메이션이 출력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8)길 밖의 장애물(나무)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 문서 중 해당 색으로 칠해진 셀의 경우, 기획되었으나 이후 폐기된 내용이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 ui 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 에셋 : 점수판, 장애물, 캐릭터, 스키(캐릭터 밑에 이어 붙일 예정), 구출 캐릭터, 설정버튼, 뒷배경, 아이템(뿅망치), 나무(길 경계선 밖)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2444,7 +2481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2537,6 +2574,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2715,27 +2755,27 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>585789</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC469A6-367A-E1F1-D290-AD25C9C3F818}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB4A4DB-46D2-0CAB-E750-653171B55A99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2746,68 +2786,29 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="220980"/>
-          <a:ext cx="2468880" cy="4389120"/>
+          <a:off x="1" y="220980"/>
+          <a:ext cx="2597468" cy="4617720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>204047</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10C2515-59C2-87D1-C32B-CAE225DE97E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3352800" y="220980"/>
-          <a:ext cx="2476500" cy="4402667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2820,27 +2821,27 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>326572</xdr:colOff>
+      <xdr:colOff>402772</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>154820</xdr:rowOff>
+      <xdr:rowOff>174746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
+        <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{727BC7E0-A3F0-6815-51FB-4C46C9CA1B93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B435C9-5581-50C6-6AAD-A7CFBEBD1BFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2851,18 +2852,29 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="217714"/>
-          <a:ext cx="3026229" cy="5379963"/>
+          <a:off x="1" y="217714"/>
+          <a:ext cx="3102428" cy="5399889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3159,7 +3171,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3167,10 +3179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B258DF-837D-4076-BBF7-BF5D380622B5}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="79" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="79" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3199,7 +3211,7 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -3233,7 +3245,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -3245,313 +3257,320 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="18" t="s">
+        <v>519</v>
+      </c>
       <c r="N4" s="18"/>
     </row>
     <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B6" s="13"/>
       <c r="E6" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="E7" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="E9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="E10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
       <c r="E11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
       <c r="E12" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A13" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
       <c r="E13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M13" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="E14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="E15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M15" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="E16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M16" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
       <c r="E17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I17" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M17" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A18" s="19" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="E18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M18" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>245</v>
-      </c>
-      <c r="I22" t="s">
-        <v>255</v>
+        <v>242</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="M22" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M23" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I24" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I25" t="s">
-        <v>510</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I26" t="s">
-        <v>258</v>
+        <v>507</v>
       </c>
       <c r="M26" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E27" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I27" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="I28" s="1" t="s">
-        <v>232</v>
+      <c r="I28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I29" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3578,14 +3597,14 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="22" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C2" s="22"/>
       <c r="E2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I2" s="22"/>
     </row>
@@ -3597,42 +3616,42 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="23" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C4" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="23" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
@@ -4754,25 +4773,22 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A993A-8529-4947-B0EF-4BB2CAC8584D}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -4794,32 +4810,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
@@ -4829,27 +4845,27 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -4859,22 +4875,22 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -4884,47 +4900,47 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4938,8 +4954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED91DED-E90A-4CB0-ACB1-3C7604F9766B}">
   <dimension ref="B2:G84"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" topLeftCell="A42" zoomScale="80" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4950,7 +4966,7 @@
       </c>
       <c r="C2" s="28"/>
       <c r="E2" s="28" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
@@ -4987,357 +5003,357 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B75" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B77" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B82" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5357,7 +5373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332D9D3B-73B0-4612-A28A-25F572744D3C}">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -5365,26 +5381,26 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="28" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="3">
@@ -5393,7 +5409,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="28" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="3">
@@ -5402,52 +5418,52 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="28" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="28" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -5456,11 +5472,11 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="28" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -5469,11 +5485,11 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="28" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -5482,21 +5498,21 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -5505,11 +5521,11 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -5518,11 +5534,11 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="28" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -5531,20 +5547,20 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -5565,20 +5581,20 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -5588,7 +5604,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C36" s="28">
         <v>5</v>
@@ -5601,10 +5617,10 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
@@ -5614,7 +5630,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C38" s="28">
         <v>10</v>
@@ -5627,21 +5643,21 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="28" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
@@ -5650,11 +5666,11 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
@@ -5663,11 +5679,11 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="28" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="28" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
@@ -5676,21 +5692,21 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" s="28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="28" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
@@ -5699,11 +5715,11 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B50" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="28" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
@@ -5712,11 +5728,11 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B51" s="28" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="28" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
@@ -5728,15 +5744,15 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
@@ -5746,10 +5762,10 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B55" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="28" t="s">
         <v>110</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>113</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -5759,10 +5775,10 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
@@ -5772,10 +5788,10 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B57" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
@@ -5785,43 +5801,43 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B59" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B60" s="30" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B61" s="30" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B62" s="30" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C62" s="30"/>
       <c r="D62" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B63" s="30" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C63" s="30"/>
       <c r="D63" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -5887,23 +5903,23 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
@@ -6124,20 +6140,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A40334-E83D-47E0-878C-B43B575D076F}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -6151,7 +6167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="93" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="93" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -6159,137 +6175,137 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -6301,10 +6317,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
-  <dimension ref="B2:C68"/>
+  <dimension ref="B2:C69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="79" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView showGridLines="0" topLeftCell="A54" zoomScale="79" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6333,72 +6349,72 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
@@ -6406,212 +6422,217 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
-        <v>168</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B32" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
-        <v>160</v>
+      <c r="B34" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B35" s="1" t="s">
-        <v>161</v>
+      <c r="B35" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
-        <v>464</v>
+      <c r="B36" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B39" s="1" t="s">
-        <v>162</v>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
-        <v>164</v>
+      <c r="B41" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B42" s="1" t="s">
-        <v>165</v>
+      <c r="B42" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B43" t="s">
-        <v>166</v>
+      <c r="B43" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>409</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B45" s="1" t="s">
-        <v>170</v>
+      <c r="B45" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B46" t="s">
-        <v>171</v>
+      <c r="B46" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B47" s="1" t="s">
-        <v>198</v>
+      <c r="B47" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B48" t="s">
-        <v>199</v>
+      <c r="B48" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B49" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B51" s="1" t="s">
-        <v>172</v>
+      <c r="B49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B50" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B52" t="s">
-        <v>400</v>
+      <c r="B52" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>173</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B56" s="1" t="s">
-        <v>411</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B61" s="1" t="s">
-        <v>416</v>
+      <c r="B61" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B62" t="s">
-        <v>417</v>
+      <c r="B62" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B65" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B66" t="s">
-        <v>422</v>
+      <c r="B66" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>424</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -6628,7 +6649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBB3E87-1D6D-43A2-BF75-5347FC05D11E}">
   <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -6636,25 +6657,25 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
@@ -6662,7 +6683,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C7" s="3">
         <v>50</v>
@@ -6670,26 +6691,26 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="3">
@@ -6698,7 +6719,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="3">
@@ -6707,7 +6728,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="3">
@@ -6716,7 +6737,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="3">
@@ -6725,86 +6746,86 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="28" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D30" s="28"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C31" s="28">
         <v>5</v>
@@ -6813,16 +6834,16 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D32" s="28"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C33" s="28">
         <v>0.5</v>
@@ -6831,26 +6852,26 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D38" s="28"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C39" s="28">
         <v>8</v>
@@ -6859,16 +6880,16 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D40" s="28"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C41" s="28">
         <v>0.8</v>
@@ -6877,86 +6898,86 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" s="28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46" s="28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="28" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="E47" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48" s="28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
       <c r="E48" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" s="28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
       <c r="E49" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D53" s="28"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C54" s="28">
         <v>3</v>
@@ -6965,16 +6986,16 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D55" s="28"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C56" s="28">
         <v>0.5</v>
@@ -7029,15 +7050,15 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
@@ -7178,18 +7199,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -7221,7 +7242,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -7241,12 +7262,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
@@ -7266,22 +7287,22 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
@@ -7291,7 +7312,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -7321,12 +7342,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
@@ -7336,7 +7357,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
@@ -7346,27 +7367,27 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -7378,10 +7399,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
-  <dimension ref="B2:AG68"/>
+  <dimension ref="B2:AG75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="84" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView showGridLines="0" topLeftCell="A54" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7400,11 +7421,11 @@
         <v>1280</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Y3" s="10"/>
       <c r="Z3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.4">
@@ -7436,7 +7457,7 @@
         <v>28</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
@@ -7449,7 +7470,7 @@
         <v>29</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -7462,7 +7483,7 @@
         <v>26</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
@@ -7491,7 +7512,7 @@
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B11" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -7505,12 +7526,12 @@
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="V11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B12" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -7540,16 +7561,16 @@
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="V13" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="V14" s="1"/>
     </row>
@@ -7563,7 +7584,7 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>28</v>
@@ -7571,7 +7592,7 @@
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="V17" s="5" t="s">
         <v>29</v>
@@ -7579,7 +7600,7 @@
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="V18" s="9" t="s">
         <v>26</v>
@@ -7597,83 +7618,85 @@
       <c r="AG18" s="10"/>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="V19" s="10" t="s">
+      <c r="V19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V20" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
+      <c r="V20" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
+      <c r="V21" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="10" t="s">
+      <c r="V22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>467</v>
-      </c>
-      <c r="V23" s="10"/>
+        <v>464</v>
+      </c>
+      <c r="V23" s="10" t="s">
+        <v>510</v>
+      </c>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
@@ -7688,18 +7711,15 @@
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V25" s="5" t="s">
-        <v>30</v>
+      <c r="V25" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.4">
@@ -7707,7 +7727,7 @@
         <v>36</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.4">
@@ -7715,49 +7735,39 @@
         <v>37</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="V29" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V30" t="s">
-        <v>51</v>
+      <c r="V30" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V31" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
+      <c r="V31" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V32" s="10" t="s">
-        <v>53</v>
+      <c r="V32" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="W32" s="10"/>
       <c r="X32" s="10"/>
@@ -7770,9 +7780,11 @@
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B33" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="V33" s="10"/>
+        <v>467</v>
+      </c>
+      <c r="V33" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="W33" s="10"/>
       <c r="X33" s="10"/>
       <c r="Y33" s="10"/>
@@ -7786,9 +7798,7 @@
       <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V34" s="11" t="s">
-        <v>124</v>
-      </c>
+      <c r="V34" s="10"/>
       <c r="W34" s="10"/>
       <c r="X34" s="10"/>
       <c r="Y34" s="10"/>
@@ -7803,7 +7813,7 @@
         <v>42</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="W35" s="10"/>
       <c r="X35" s="10"/>
@@ -7819,7 +7829,7 @@
         <v>43</v>
       </c>
       <c r="V36" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
@@ -7832,12 +7842,23 @@
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B37" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="V37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.4">
@@ -7845,62 +7866,62 @@
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B43" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B45" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B46" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B48" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
@@ -7908,37 +7929,37 @@
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
@@ -7946,37 +7967,67 @@
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B70" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B73" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B74" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +8044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024802F-2B31-4103-AD1C-7B7C3D87B122}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
@@ -8004,12 +8055,12 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -8021,10 +8072,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -8035,10 +8086,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -8049,10 +8100,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -8063,10 +8114,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>66</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -8077,10 +8128,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -8091,21 +8142,21 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="3">
@@ -8114,7 +8165,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="3">
@@ -8123,7 +8174,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="3">
@@ -8132,7 +8183,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="3">
@@ -8141,7 +8192,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="3">
@@ -8150,7 +8201,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="3">
@@ -8159,7 +8210,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="3">
@@ -8168,20 +8219,20 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -8190,10 +8241,10 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
@@ -8202,10 +8253,10 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
@@ -8214,20 +8265,20 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" s="3">
         <v>20</v>
@@ -8235,7 +8286,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C32" s="3">
         <v>20</v>
@@ -8243,7 +8294,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C33" s="3">
         <v>20</v>
@@ -8251,7 +8302,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C34" s="3">
         <v>20</v>
@@ -8259,7 +8310,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C35" s="3">
         <v>20</v>
@@ -8267,30 +8318,30 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C42" s="3">
         <v>30</v>
@@ -8306,25 +8357,25 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B44" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B48" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C48" s="3">
         <v>20</v>
@@ -8332,7 +8383,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B49" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C49" s="3">
         <v>20</v>
@@ -8340,7 +8391,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B50" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C50" s="3">
         <v>20</v>
@@ -8348,7 +8399,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C51" s="3">
         <v>20</v>
@@ -8356,7 +8407,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C52" s="3">
         <v>20</v>
@@ -8364,35 +8415,35 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B53" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B54" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B56" s="8" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B58" s="8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C60" s="3">
         <v>50</v>
@@ -8408,25 +8459,25 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B62" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B66" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C66" s="3">
         <v>20</v>
@@ -8434,7 +8485,7 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B67" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C67" s="3">
         <v>20</v>
@@ -8442,7 +8493,7 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B68" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C68" s="3">
         <v>20</v>
@@ -8450,7 +8501,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C69" s="3">
         <v>20</v>
@@ -8458,7 +8509,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B70" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C70" s="3">
         <v>20</v>
@@ -8466,25 +8517,25 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B71" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B72" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B74" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B75" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
@@ -8494,7 +8545,7 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B76" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C76" s="28">
         <v>5</v>
@@ -8507,10 +8558,10 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B77" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="28"/>
@@ -8520,7 +8571,7 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B78" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C78" s="28">
         <v>10</v>
@@ -8533,20 +8584,20 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B83" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
@@ -8555,10 +8606,10 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
@@ -8567,10 +8618,10 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
@@ -8579,12 +8630,12 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B88" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
@@ -8596,10 +8647,10 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B89" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
@@ -8610,10 +8661,10 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B90" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
@@ -8624,10 +8675,10 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B91" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
@@ -8638,10 +8689,10 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B92" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
@@ -8652,10 +8703,10 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B93" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="29"/>
@@ -8666,15 +8717,15 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B96" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
@@ -8684,7 +8735,7 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C97" s="28">
         <v>7</v>
@@ -8697,10 +8748,10 @@
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B98" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
@@ -8710,7 +8761,7 @@
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B99" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C99" s="28">
         <v>10</v>

--- a/Design/PlumMiniGame_강민재 기획서.xlsx
+++ b/Design/PlumMiniGame_강민재 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73658C1E-022B-4244-AD7A-23ADF500CBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAD431F-6826-468F-AF93-4FD5F8A7DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="15" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{DD9EFB79-C52D-46B8-B46B-0B8491701156}"/>
   </bookViews>
   <sheets>
     <sheet name="PlumMiniGame기획서_강민재" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <sheet name="미니게임 3 UI" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="523">
   <si>
     <t>PlumMiniGame 기획서 - 강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,10 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*만약 장애물과 소환 위치가 충돌한다면, 해당 선택지를 제외하고 네가지 선택지에서 다시 계산한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.오브젝트 이동속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2102,10 +2097,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)게임 진행 5초 후 부터 길은 400px만큼 진행 될 때마다 한 번 확률표에 의한 연산을 거쳐 꺾인다.(표 생성 예정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 상대 캐릭터의 얼굴 크기는 150x150px이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2298,10 +2289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)나무의 소환 주기는 0.8초이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 4)만약 나무가 소환되었더라도 경계선 바깥에 빈 공간이 존재한다면 해당 부분도 나무로 채운다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2327,6 +2314,22 @@
   </si>
   <si>
     <t>필요 에셋 : 점수판, 장애물, 캐릭터, 스키(캐릭터 밑에 이어 붙일 예정), 구출 캐릭터, 설정버튼, 뒷배경, 아이템(뿅망치), 나무(길 경계선 밖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임 진행 5초 후 부터 길은 150px만큼 진행 될 때마다 한 번 확률표에 의한 연산을 거쳐 꺾인다.(표 생성 예정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)나무의 소환 주기는 0.2초이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*만약 장애물과 소환 위치가 충돌한다면, 생성을 취소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2557,6 +2560,9 @@
     <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2574,9 +2580,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3182,70 +3185,70 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="79" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -3257,320 +3260,320 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="31"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="18" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="N4" s="18"/>
     </row>
     <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="13"/>
       <c r="E6" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="E7" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
       <c r="E12" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A13" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
       <c r="E13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="E14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="E15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
       <c r="E17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A18" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I26" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E27" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I29" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3590,21 +3593,21 @@
   <dimension ref="B2:I66"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I66"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C2" s="22"/>
       <c r="E2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I2" s="22"/>
     </row>
@@ -3616,42 +3619,42 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>456</v>
-      </c>
       <c r="H4" s="23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
@@ -4775,7 +4778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A993A-8529-4947-B0EF-4BB2CAC8584D}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -4783,12 +4786,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -4802,7 +4805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031FB8E1-EF80-47BC-8299-35870A46155A}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4810,32 +4813,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
@@ -4845,27 +4848,27 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -4875,22 +4878,22 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -4900,47 +4903,47 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4954,22 +4957,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED91DED-E90A-4CB0-ACB1-3C7604F9766B}">
   <dimension ref="B2:G84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" zoomScale="80" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView showGridLines="0" topLeftCell="A45" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="E2" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="E2" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -4981,10 +4984,10 @@
       <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="29">
         <v>405</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
@@ -4996,264 +4999,264 @@
       <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>720</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
@@ -5263,97 +5266,97 @@
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B75" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B77" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B82" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -5373,7 +5376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332D9D3B-73B0-4612-A28A-25F572744D3C}">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -5381,186 +5384,186 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="29" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="28" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="C7" s="28"/>
+      <c r="B7" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="29"/>
       <c r="D7" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="3" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E9" s="3" t="s">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="29" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="28" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="28" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="28" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -5581,263 +5584,263 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="C35" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="28">
+        <v>106</v>
+      </c>
+      <c r="C36" s="29">
         <v>5</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
+        <v>447</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C38" s="28">
+        <v>439</v>
+      </c>
+      <c r="C38" s="29">
         <v>10</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
+      <c r="B43" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28" t="s">
-        <v>361</v>
-      </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
+      <c r="B45" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B49" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B50" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B51" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B49" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B50" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B51" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B52" s="8"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
+      <c r="C54" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B55" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
+        <v>106</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
+        <v>107</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B57" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B59" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B60" s="31" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B60" s="30" t="s">
+      <c r="C60" s="31"/>
+      <c r="D60" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B61" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="3" t="s">
+      <c r="C61" s="31"/>
+      <c r="D61" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B61" s="30" t="s">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B62" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="3" t="s">
+      <c r="C62" s="31"/>
+      <c r="D62" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B62" s="30" t="s">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B63" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B63" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="C63" s="30"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -5903,23 +5906,23 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
@@ -6140,7 +6143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A40334-E83D-47E0-878C-B43B575D076F}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6148,12 +6151,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -6167,145 +6170,145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4195-041E-4A49-8F97-F6E45DECB6B0}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="93" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="93" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -6319,17 +6322,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998A5AF-7ED4-4AFE-A2F0-BBB047739392}">
   <dimension ref="B2:C69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A54" zoomScale="79" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" topLeftCell="A47" zoomScale="79" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -6349,72 +6352,72 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
@@ -6422,217 +6425,217 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B50" s="1" t="s">
-        <v>473</v>
+      <c r="B50" s="5" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -6649,25 +6652,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBB3E87-1D6D-43A2-BF75-5347FC05D11E}">
   <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>71</v>
@@ -6675,7 +6678,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
@@ -6683,7 +6686,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="3">
         <v>50</v>
@@ -6691,316 +6694,316 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="29" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="28" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="28"/>
+      <c r="B14" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="29"/>
       <c r="D14" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="28"/>
+      <c r="B15" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="29"/>
       <c r="D15" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="28"/>
+      <c r="B16" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="29"/>
       <c r="D16" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="28" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="3" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="3" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="3" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="B25" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C31" s="28">
+        <v>445</v>
+      </c>
+      <c r="C31" s="29">
         <v>5</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="D32" s="28"/>
+        <v>446</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C33" s="28">
+        <v>398</v>
+      </c>
+      <c r="C33" s="29">
         <v>0.5</v>
       </c>
-      <c r="D33" s="28"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="28"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C39" s="28">
+        <v>445</v>
+      </c>
+      <c r="C39" s="29">
         <v>8</v>
       </c>
-      <c r="D39" s="28"/>
+      <c r="D39" s="29"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="D40" s="28"/>
+        <v>402</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C41" s="28">
+        <v>403</v>
+      </c>
+      <c r="C41" s="29">
         <v>0.8</v>
       </c>
-      <c r="D41" s="28"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B45" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" s="28" t="s">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B46" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
       <c r="E46" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B47" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B48" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="3" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B49" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="3" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="28"/>
+      <c r="D53" s="29"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C54" s="28">
+        <v>445</v>
+      </c>
+      <c r="C54" s="29">
         <v>3</v>
       </c>
-      <c r="D54" s="28"/>
+      <c r="D54" s="29"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C55" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="D55" s="28"/>
+      <c r="C55" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="D55" s="29"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C56" s="28">
+        <v>401</v>
+      </c>
+      <c r="C56" s="29">
         <v>0.5</v>
       </c>
-      <c r="D56" s="28"/>
+      <c r="D56" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -7050,12 +7053,12 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>56</v>
@@ -7199,18 +7202,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
         <v>197</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>198</v>
-      </c>
-      <c r="I2" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -7224,8 +7227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69009D-A900-4F8C-B1FA-264C8A424794}">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7242,7 +7245,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -7262,12 +7265,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
@@ -7287,22 +7290,22 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
@@ -7312,7 +7315,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -7342,12 +7345,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
@@ -7357,7 +7360,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
@@ -7377,17 +7380,17 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -7401,17 +7404,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA2CCF9-0AAE-46C5-94FF-CF8B123E2D44}">
   <dimension ref="B2:AG75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A54" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView showGridLines="0" zoomScale="84" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -7421,11 +7424,11 @@
         <v>1280</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y3" s="10"/>
       <c r="Z3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.4">
@@ -7470,7 +7473,7 @@
         <v>29</v>
       </c>
       <c r="V8" s="9" t="s">
